--- a/static/data/source/government_state_gdp.xlsx
+++ b/static/data/source/government_state_gdp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboddupalli\Box\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBB0086-66C7-4D10-99AC-33A4229D47BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F7B364-2B15-4E21-9F58-2C9DD07C7E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TABLE_1" sheetId="4" r:id="rId1"/>
     <sheet name="TABLE_2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>Geography</t>
   </si>
@@ -263,6 +263,9 @@
   <si>
     <t>2023 Q2</t>
   </si>
+  <si>
+    <t>2023 Q3</t>
+  </si>
 </sst>
 </file>
 
@@ -340,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -361,6 +364,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,27 +684,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:X56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
     <col min="2" max="23" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -768,3697 +775,3856 @@
       <c r="W4" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>2980424.9761877251</v>
+        <v>3021904.5319844028</v>
       </c>
       <c r="C5" s="6">
-        <v>2990726.0864771698</v>
+        <v>3032349.0062177256</v>
       </c>
       <c r="D5" s="6">
-        <v>2999961.5646677064</v>
+        <v>3041713.0175993252</v>
       </c>
       <c r="E5" s="6">
-        <v>3000701.5869586151</v>
+        <v>3042463.339024133</v>
       </c>
       <c r="F5" s="6">
-        <v>2982704.2448437228</v>
+        <v>3024215.5219728104</v>
       </c>
       <c r="G5" s="6">
-        <v>3003040.0573978852</v>
+        <v>3044834.354726525</v>
       </c>
       <c r="H5" s="6">
-        <v>3017929.3058909625</v>
+        <v>3059930.8217936554</v>
       </c>
       <c r="I5" s="6">
-        <v>3045250.9288713001</v>
+        <v>3087632.6887975549</v>
       </c>
       <c r="J5" s="6">
-        <v>3041225.2076087585</v>
+        <v>3083550.9402466011</v>
       </c>
       <c r="K5" s="6">
-        <v>2916635.054711422</v>
+        <v>2957226.8251659814</v>
       </c>
       <c r="L5" s="6">
-        <v>2961391.6028655614</v>
+        <v>3002606.2649383494</v>
       </c>
       <c r="M5" s="6">
-        <v>2963256.4590386502</v>
+        <v>3004497.0749288648</v>
       </c>
       <c r="N5" s="6">
-        <v>2963493.2661717408</v>
+        <v>3004737.1777848033</v>
       </c>
       <c r="O5" s="6">
-        <v>2980188.1690546344</v>
+        <v>3021664.4291284643</v>
       </c>
       <c r="P5" s="6">
-        <v>3018728.5299651432</v>
+        <v>3060741.1689324477</v>
       </c>
       <c r="Q5" s="6">
-        <v>3019261.346014597</v>
+        <v>3061281.4003583095</v>
       </c>
       <c r="R5" s="6">
-        <v>3032700.1508174939</v>
+        <v>3074907.237432817</v>
       </c>
       <c r="S5" s="6">
-        <v>3042675.6512989388</v>
+        <v>3085021.5702392245</v>
       </c>
       <c r="T5" s="6">
-        <v>3045458.1351127545</v>
+        <v>3087842.778796501</v>
       </c>
       <c r="U5" s="6">
-        <v>3056084.8552101986</v>
+        <v>3098617.3944567391</v>
       </c>
       <c r="V5" s="6">
-        <v>3066533.9699578253</v>
+        <v>3109211.932975024</v>
       </c>
       <c r="W5" s="6">
-        <v>3074171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3116955.2500790386</v>
+      </c>
+      <c r="X5" s="8">
+        <v>3132712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="6">
-        <v>43122.789425042931</v>
+        <v>43737.365556784753</v>
       </c>
       <c r="C6" s="6">
-        <v>43132.700035440685</v>
+        <v>43747.417410935115</v>
       </c>
       <c r="D6" s="6">
-        <v>42835.381723508079</v>
+        <v>43445.861786424175</v>
       </c>
       <c r="E6" s="6">
-        <v>43136.578100378938</v>
+        <v>43751.350745167867</v>
       </c>
       <c r="F6" s="6">
-        <v>42814.267814399827</v>
+        <v>43424.446966712538</v>
       </c>
       <c r="G6" s="6">
-        <v>43271.017684904989</v>
+        <v>43887.706331903253</v>
       </c>
       <c r="H6" s="6">
-        <v>43920.809010114222</v>
+        <v>44546.758334457605</v>
       </c>
       <c r="I6" s="6">
-        <v>44120.744802486297</v>
+        <v>44749.543566012784</v>
       </c>
       <c r="J6" s="6">
-        <v>44159.956347973057</v>
+        <v>44789.313945477268</v>
       </c>
       <c r="K6" s="6">
-        <v>42671.210307788766</v>
+        <v>43279.350637237701</v>
       </c>
       <c r="L6" s="6">
-        <v>43606.254854011604</v>
+        <v>44227.721224467765</v>
       </c>
       <c r="M6" s="6">
-        <v>43462.335555192054</v>
+        <v>44081.750820718989</v>
       </c>
       <c r="N6" s="6">
-        <v>43405.026373326786</v>
+        <v>44023.624881501666</v>
       </c>
       <c r="O6" s="6">
-        <v>43749.312360622665</v>
+        <v>44372.817553942601</v>
       </c>
       <c r="P6" s="6">
-        <v>44244.411984406099</v>
+        <v>44874.973224323861</v>
       </c>
       <c r="Q6" s="6">
-        <v>44189.688179166318</v>
+        <v>44819.469507928363</v>
       </c>
       <c r="R6" s="6">
-        <v>44551.210010632203</v>
+        <v>45186.143665848191</v>
       </c>
       <c r="S6" s="6">
-        <v>44896.788686240827</v>
+        <v>45536.647449700038</v>
       </c>
       <c r="T6" s="6">
-        <v>45247.96901120471</v>
+        <v>45892.83271633253</v>
       </c>
       <c r="U6" s="6">
-        <v>45736.174297320133</v>
+        <v>46387.995792522233</v>
       </c>
       <c r="V6" s="6">
-        <v>47386.937272702482</v>
+        <v>48062.285064263415</v>
       </c>
       <c r="W6" s="6">
-        <v>47417.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>48092.877663851483</v>
+      </c>
+      <c r="X6" s="8">
+        <v>48591.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6">
-        <v>13274.719107211973</v>
+        <v>13475.488803305394</v>
       </c>
       <c r="C7" s="6">
-        <v>13378.22157141014</v>
+        <v>13580.556660949112</v>
       </c>
       <c r="D7" s="6">
-        <v>13449.247497097147</v>
+        <v>13652.656797954623</v>
       </c>
       <c r="E7" s="6">
-        <v>13344.160811508191</v>
+        <v>13545.980758816359</v>
       </c>
       <c r="F7" s="6">
-        <v>13235.641646239194</v>
+        <v>13435.820326439905</v>
       </c>
       <c r="G7" s="6">
-        <v>13216.630989549732</v>
+        <v>13416.522148505343</v>
       </c>
       <c r="H7" s="6">
-        <v>13140.852399690362</v>
+        <v>13339.597467016192</v>
       </c>
       <c r="I7" s="6">
-        <v>13012.794503934976</v>
+        <v>13209.602796206995</v>
       </c>
       <c r="J7" s="6">
-        <v>12935.959766481745</v>
+        <v>13131.605993721478</v>
       </c>
       <c r="K7" s="6">
-        <v>12387.027054573604</v>
+        <v>12574.371105861032</v>
       </c>
       <c r="L7" s="6">
-        <v>12507.163843375047</v>
+        <v>12696.324869197493</v>
       </c>
       <c r="M7" s="6">
-        <v>12643.274864533611</v>
+        <v>12834.494462603967</v>
       </c>
       <c r="N7" s="6">
-        <v>12298.178638240226</v>
+        <v>12484.178927041867</v>
       </c>
       <c r="O7" s="6">
-        <v>12388.611275964391</v>
+        <v>12575.979287355578</v>
       </c>
       <c r="P7" s="6">
-        <v>12229.529044639401</v>
+        <v>12414.491062278174</v>
       </c>
       <c r="Q7" s="6">
-        <v>12190.187546768158</v>
+        <v>12374.554555163597</v>
       </c>
       <c r="R7" s="6">
-        <v>12205.897742226809</v>
+        <v>12390.502354984519</v>
       </c>
       <c r="S7" s="6">
-        <v>12351.646110179332</v>
+        <v>12538.455052482819</v>
       </c>
       <c r="T7" s="6">
-        <v>12248.935756676558</v>
+        <v>12434.191285586372</v>
       </c>
       <c r="U7" s="6">
-        <v>12332.50343504064</v>
+        <v>12519.022859423712</v>
       </c>
       <c r="V7" s="6">
-        <v>12297.386527544832</v>
+        <v>12483.374836294593</v>
       </c>
       <c r="W7" s="6">
-        <v>12279.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+        <v>12465.014764231852</v>
+      </c>
+      <c r="X7" s="8">
+        <v>12422.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6">
-        <v>51008.309594119761</v>
+        <v>51695.858262027701</v>
       </c>
       <c r="C8" s="6">
-        <v>51109.651287915811</v>
+        <v>51798.565955738813</v>
       </c>
       <c r="D8" s="6">
-        <v>51585.49426639983</v>
+        <v>52280.82289321487</v>
       </c>
       <c r="E8" s="6">
-        <v>51499.070893010306</v>
+        <v>52193.234606192193</v>
       </c>
       <c r="F8" s="6">
-        <v>51740.850568564339</v>
+        <v>52438.273266315162</v>
       </c>
       <c r="G8" s="6">
-        <v>52164.736638046314</v>
+        <v>52867.872959807333</v>
       </c>
       <c r="H8" s="6">
-        <v>52329.867012201306</v>
+        <v>53035.229151082814</v>
       </c>
       <c r="I8" s="6">
-        <v>52366.391175955221</v>
+        <v>53072.245629526922</v>
       </c>
       <c r="J8" s="6">
-        <v>52943.061423393679</v>
+        <v>53656.68890186277</v>
       </c>
       <c r="K8" s="6">
-        <v>50103.436297737731</v>
+        <v>50778.788042546206</v>
       </c>
       <c r="L8" s="6">
-        <v>51067.982875745867</v>
+        <v>51756.335888781454</v>
       </c>
       <c r="M8" s="6">
-        <v>52232.640717138085</v>
+        <v>52936.692328182296</v>
       </c>
       <c r="N8" s="6">
-        <v>51631.278077302617</v>
+        <v>52327.223830982839</v>
       </c>
       <c r="O8" s="6">
-        <v>52507.858007396404</v>
+        <v>53215.619313641422</v>
       </c>
       <c r="P8" s="6">
-        <v>54307.316103328383</v>
+        <v>55039.332575577901</v>
       </c>
       <c r="Q8" s="6">
-        <v>54314.518051110841</v>
+        <v>55046.631599496446</v>
       </c>
       <c r="R8" s="6">
-        <v>53712.640986433769</v>
+        <v>54436.64174344566</v>
       </c>
       <c r="S8" s="6">
-        <v>54489.936922097928</v>
+        <v>55224.414967798439</v>
       </c>
       <c r="T8" s="6">
-        <v>54173.565644511255</v>
+        <v>54903.779274233275</v>
       </c>
       <c r="U8" s="6">
-        <v>54987.385743929328</v>
+        <v>55728.568977030161</v>
       </c>
       <c r="V8" s="6">
-        <v>55249.227988305931</v>
+        <v>55993.940632354825</v>
       </c>
       <c r="W8" s="6">
-        <v>55779.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>56531.461608071375</v>
+      </c>
+      <c r="X8" s="8">
+        <v>57152.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6">
-        <v>19388.600411294789</v>
+        <v>19639.822289008225</v>
       </c>
       <c r="C9" s="6">
-        <v>19280.285296211339</v>
+        <v>19530.103713849334</v>
       </c>
       <c r="D9" s="6">
-        <v>19545.228743178042</v>
+        <v>19798.480084741586</v>
       </c>
       <c r="E9" s="6">
-        <v>19521.266946136202</v>
+        <v>19774.207810021184</v>
       </c>
       <c r="F9" s="6">
-        <v>19637.95894961639</v>
+        <v>19892.411814553874</v>
       </c>
       <c r="G9" s="6">
-        <v>19770.041050383614</v>
+        <v>20026.205328866334</v>
       </c>
       <c r="H9" s="6">
-        <v>20024.269872656805</v>
+        <v>20283.728243582795</v>
       </c>
       <c r="I9" s="6">
-        <v>20126.351024282209</v>
+        <v>20387.132080603045</v>
       </c>
       <c r="J9" s="6">
-        <v>20322.13643913628</v>
+        <v>20585.45432526974</v>
       </c>
       <c r="K9" s="6">
-        <v>19313.013604366053</v>
+        <v>19563.256089077204</v>
       </c>
       <c r="L9" s="6">
-        <v>19850.692952622005</v>
+        <v>20107.902253535005</v>
       </c>
       <c r="M9" s="6">
-        <v>19732.832080993434</v>
+        <v>19988.51423560132</v>
       </c>
       <c r="N9" s="6">
-        <v>19389.769279443171</v>
+        <v>19641.006302409223</v>
       </c>
       <c r="O9" s="6">
-        <v>19897.447678557302</v>
+        <v>20155.262789574816</v>
       </c>
       <c r="P9" s="6">
-        <v>19920.240607450763</v>
+        <v>20178.35105089422</v>
       </c>
       <c r="Q9" s="6">
-        <v>19707.311793087083</v>
+        <v>19962.663276346258</v>
       </c>
       <c r="R9" s="6">
-        <v>19905.434944237917</v>
+        <v>20163.353547814946</v>
       </c>
       <c r="S9" s="6">
-        <v>19883.616072134777</v>
+        <v>20141.251964329706</v>
       </c>
       <c r="T9" s="6">
-        <v>20129.857628727357</v>
+        <v>20390.684120806029</v>
       </c>
       <c r="U9" s="6">
-        <v>20633.444989322154</v>
+        <v>20900.796561068139</v>
       </c>
       <c r="V9" s="6">
-        <v>19710.62358617417</v>
+        <v>19966.017980982408</v>
       </c>
       <c r="W9" s="6">
-        <v>19704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+        <v>19959.308571710102</v>
+      </c>
+      <c r="X9" s="8">
+        <v>20026.599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="6">
-        <v>394973.86146279942</v>
+        <v>400122.85104398517</v>
       </c>
       <c r="C10" s="6">
-        <v>394148.73438839841</v>
+        <v>399286.96738256974</v>
       </c>
       <c r="D10" s="6">
-        <v>392181.72529634292</v>
+        <v>397294.31581056991</v>
       </c>
       <c r="E10" s="6">
-        <v>400358.69549810846</v>
+        <v>405577.88327985746</v>
       </c>
       <c r="F10" s="6">
-        <v>392392.89525851194</v>
+        <v>397508.23864334921</v>
       </c>
       <c r="G10" s="6">
-        <v>397179.41440100881</v>
+        <v>402357.15618634678</v>
       </c>
       <c r="H10" s="6">
-        <v>396463.78286254726</v>
+        <v>401632.19547526131</v>
       </c>
       <c r="I10" s="6">
-        <v>404816.72803278686</v>
+        <v>410094.03197186493</v>
       </c>
       <c r="J10" s="6">
-        <v>400124.06220680953</v>
+        <v>405340.19124343595</v>
       </c>
       <c r="K10" s="6">
-        <v>380735.53123581334</v>
+        <v>385698.9059671436</v>
       </c>
       <c r="L10" s="6">
-        <v>390742.64110970992</v>
+        <v>395836.47132051835</v>
       </c>
       <c r="M10" s="6">
-        <v>384548.32221941988</v>
+        <v>389561.40155899216</v>
       </c>
       <c r="N10" s="6">
-        <v>391614.69484237069</v>
+        <v>396719.89338921814</v>
       </c>
       <c r="O10" s="6">
-        <v>391004.64828499366</v>
+        <v>396101.89409452229</v>
       </c>
       <c r="P10" s="6">
-        <v>396882.21223203017</v>
+        <v>402056.07960687956</v>
       </c>
       <c r="Q10" s="6">
-        <v>393386.17619167716</v>
+        <v>398514.46826420003</v>
       </c>
       <c r="R10" s="6">
-        <v>396072.7273770491</v>
+        <v>401236.04208122561</v>
       </c>
       <c r="S10" s="6">
-        <v>394770.51261034043</v>
+        <v>399916.85127908661</v>
       </c>
       <c r="T10" s="6">
-        <v>397015.17109709961</v>
+        <v>402190.77176085179</v>
       </c>
       <c r="U10" s="6">
-        <v>394535.87931904156</v>
+        <v>399679.15924266516</v>
       </c>
       <c r="V10" s="6">
-        <v>402787.15006305167</v>
+        <v>408037.99585681938</v>
       </c>
       <c r="W10" s="6">
-        <v>403139.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+        <v>408394.53391145158</v>
+      </c>
+      <c r="X10" s="8">
+        <v>411147.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="6">
-        <v>52541.93812842841</v>
+        <v>53275.026782906963</v>
       </c>
       <c r="C11" s="6">
-        <v>52873.823563915481</v>
+        <v>53611.542832642561</v>
       </c>
       <c r="D11" s="6">
-        <v>53087.104172927568</v>
+        <v>53827.799228240678</v>
       </c>
       <c r="E11" s="6">
-        <v>53095.427318645103</v>
+        <v>53836.238502215238</v>
       </c>
       <c r="F11" s="6">
-        <v>53180.219365642588</v>
+        <v>53922.213605831064</v>
       </c>
       <c r="G11" s="6">
-        <v>53787.809003023336</v>
+        <v>54538.280605973989</v>
       </c>
       <c r="H11" s="6">
-        <v>54477.589704364815</v>
+        <v>55237.685436615691</v>
       </c>
       <c r="I11" s="6">
-        <v>54770.460394300913</v>
+        <v>55534.642389595538</v>
       </c>
       <c r="J11" s="6">
-        <v>55163.729029454887</v>
+        <v>55933.398084893524</v>
       </c>
       <c r="K11" s="6">
-        <v>53545.397383999858</v>
+        <v>54292.486751464916</v>
       </c>
       <c r="L11" s="6">
-        <v>54131.138763872033</v>
+        <v>54886.400657424609</v>
       </c>
       <c r="M11" s="6">
-        <v>53682.729288339338</v>
+        <v>54431.734772045158</v>
       </c>
       <c r="N11" s="6">
-        <v>54531.169954921519</v>
+        <v>55292.013262826928</v>
       </c>
       <c r="O11" s="6">
-        <v>54617.002395133692</v>
+        <v>55379.043275689575</v>
       </c>
       <c r="P11" s="6">
-        <v>55307.823489689872</v>
+        <v>56079.503015578099</v>
       </c>
       <c r="Q11" s="6">
-        <v>55667.799541973676</v>
+        <v>56444.501614977853</v>
       </c>
       <c r="R11" s="6">
-        <v>55992.92242156525</v>
+        <v>56774.160754609125</v>
       </c>
       <c r="S11" s="6">
-        <v>56257.70249470463</v>
+        <v>57042.635157924822</v>
       </c>
       <c r="T11" s="6">
-        <v>56180.713396817344</v>
+        <v>56964.571873660134</v>
       </c>
       <c r="U11" s="6">
-        <v>56988.058531419156</v>
+        <v>57783.181449192511</v>
       </c>
       <c r="V11" s="6">
-        <v>57046.840748049312</v>
+        <v>57842.783821637851</v>
       </c>
       <c r="W11" s="6">
-        <v>57468.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+        <v>58270.022066599973</v>
+      </c>
+      <c r="X11" s="8">
+        <v>59049.599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="6">
-        <v>32601.455823487671</v>
+        <v>33029.187903532518</v>
       </c>
       <c r="C12" s="6">
-        <v>32212.528041267298</v>
+        <v>32635.157377122527</v>
       </c>
       <c r="D12" s="6">
-        <v>32744.395093876356</v>
+        <v>33174.002541443879</v>
       </c>
       <c r="E12" s="6">
-        <v>31662.710475632692</v>
+        <v>32078.126188505335</v>
       </c>
       <c r="F12" s="6">
-        <v>31405.752205840941</v>
+        <v>31817.796618492586</v>
       </c>
       <c r="G12" s="6">
-        <v>31315.999640713162</v>
+        <v>31726.866497013354</v>
       </c>
       <c r="H12" s="6">
-        <v>31274.779944135964</v>
+        <v>31685.105996778453</v>
       </c>
       <c r="I12" s="6">
-        <v>31107.574239471989</v>
+        <v>31515.706548244929</v>
       </c>
       <c r="J12" s="6">
-        <v>31051.063365132282</v>
+        <v>31458.454249535785</v>
       </c>
       <c r="K12" s="6">
-        <v>28889.356213184361</v>
+        <v>29268.385434797201</v>
       </c>
       <c r="L12" s="6">
-        <v>29888.601438273618</v>
+        <v>30280.740787265935</v>
       </c>
       <c r="M12" s="6">
-        <v>30539.806160811826</v>
+        <v>30940.489335331888</v>
       </c>
       <c r="N12" s="6">
-        <v>29174.569920145965</v>
+        <v>29557.341154164526</v>
       </c>
       <c r="O12" s="6">
-        <v>30041.513215898722</v>
+        <v>30435.658772008323</v>
       </c>
       <c r="P12" s="6">
-        <v>30144.56245734173</v>
+        <v>30540.060022595586</v>
       </c>
       <c r="Q12" s="6">
-        <v>30480.635951209071</v>
+        <v>30880.54281080114</v>
       </c>
       <c r="R12" s="6">
-        <v>29516.294501447283</v>
+        <v>29903.549172240993</v>
       </c>
       <c r="S12" s="6">
-        <v>30457.366767657422</v>
+        <v>30856.968334862075</v>
       </c>
       <c r="T12" s="6">
-        <v>30562.41051054771</v>
+        <v>30963.390254815546</v>
       </c>
       <c r="U12" s="6">
-        <v>30439.083837723989</v>
+        <v>30838.44553233853</v>
       </c>
       <c r="V12" s="6">
-        <v>29568.816372892426</v>
+        <v>29956.760132217722</v>
       </c>
       <c r="W12" s="6">
-        <v>29514.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>29901.528502874786</v>
+      </c>
+      <c r="X12" s="8">
+        <v>30107.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="6">
-        <v>8757.5882662118056</v>
+        <v>8871.3441593183379</v>
       </c>
       <c r="C13" s="6">
-        <v>8725.5107549808108</v>
+        <v>8838.8499801842863</v>
       </c>
       <c r="D13" s="6">
-        <v>8878.1141684104041</v>
+        <v>8993.435621718023</v>
       </c>
       <c r="E13" s="6">
-        <v>8819.1770877753188</v>
+        <v>8933.7329832557207</v>
       </c>
       <c r="F13" s="6">
-        <v>8815.4988664875</v>
+        <v>8930.0069840483502</v>
       </c>
       <c r="G13" s="6">
-        <v>8723.1156341422302</v>
+        <v>8836.4237481422788</v>
       </c>
       <c r="H13" s="6">
-        <v>8825.0793498418243</v>
+        <v>8939.7119122163876</v>
       </c>
       <c r="I13" s="6">
-        <v>8532.2758273252875</v>
+        <v>8643.1050450807488</v>
       </c>
       <c r="J13" s="6">
-        <v>8884.7862907464532</v>
+        <v>9000.1944109779051</v>
       </c>
       <c r="K13" s="6">
-        <v>8409.2692642581587</v>
+        <v>8518.5006994946998</v>
       </c>
       <c r="L13" s="6">
-        <v>8669.0543352142558</v>
+        <v>8781.6602249083517</v>
       </c>
       <c r="M13" s="6">
-        <v>8442.2877158185984</v>
+        <v>8551.9480412166849</v>
       </c>
       <c r="N13" s="6">
-        <v>8388.140876860678</v>
+        <v>8497.0978668384032</v>
       </c>
       <c r="O13" s="6">
-        <v>8734.9201582752357</v>
+        <v>8848.3816060636091</v>
       </c>
       <c r="P13" s="6">
-        <v>8918.4035225165371</v>
+        <v>9034.2483107103944</v>
       </c>
       <c r="Q13" s="6">
-        <v>9088.6281821156917</v>
+        <v>9206.6840879817701</v>
       </c>
       <c r="R13" s="6">
-        <v>8765.5434889970929</v>
+        <v>8879.4027157435848</v>
       </c>
       <c r="S13" s="6">
-        <v>8885.2995309261478</v>
+        <v>9000.714317844051</v>
       </c>
       <c r="T13" s="6">
-        <v>9036.5343038765532</v>
+        <v>9153.9135410680683</v>
       </c>
       <c r="U13" s="6">
-        <v>9201.9687217985465</v>
+        <v>9321.4968542554252</v>
       </c>
       <c r="V13" s="6">
-        <v>8669.3109553041049</v>
+        <v>8781.9201783414246</v>
       </c>
       <c r="W13" s="6">
-        <v>8625.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>8737.6414435747556</v>
+      </c>
+      <c r="X13" s="8">
+        <v>8745.7000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="6">
-        <v>53816.304318007402</v>
+        <v>54844.634577063545</v>
       </c>
       <c r="C14" s="6">
-        <v>54360.338462808788</v>
+        <v>55399.064210372526</v>
       </c>
       <c r="D14" s="6">
-        <v>54453.403932349604</v>
+        <v>55493.907989286585</v>
       </c>
       <c r="E14" s="6">
-        <v>53704.093951875351</v>
+        <v>54730.280077915755</v>
       </c>
       <c r="F14" s="6">
-        <v>52520.30117931631</v>
+        <v>53523.86721012905</v>
       </c>
       <c r="G14" s="6">
-        <v>53332.363876395219</v>
+        <v>54351.446926710494</v>
       </c>
       <c r="H14" s="6">
-        <v>53532.853487920263</v>
+        <v>54555.767524713898</v>
       </c>
       <c r="I14" s="6">
-        <v>53853.530505823728</v>
+        <v>54882.572088629175</v>
       </c>
       <c r="J14" s="6">
-        <v>54387.460399646399</v>
+        <v>55426.70439737034</v>
       </c>
       <c r="K14" s="6">
-        <v>55122.411707677216</v>
+        <v>56175.699268565862</v>
       </c>
       <c r="L14" s="6">
-        <v>55001.69249861571</v>
+        <v>56052.673338203065</v>
       </c>
       <c r="M14" s="6">
-        <v>55995.099910628422</v>
+        <v>57065.062932554181</v>
       </c>
       <c r="N14" s="6">
-        <v>55812.691590328446</v>
+        <v>56879.169125882639</v>
       </c>
       <c r="O14" s="6">
-        <v>55989.250081114427</v>
+        <v>57059.101323593866</v>
       </c>
       <c r="P14" s="6">
-        <v>55896.184611573626</v>
+        <v>56964.257544679807</v>
       </c>
       <c r="Q14" s="6">
-        <v>55547.32205146637</v>
+        <v>56608.728864864861</v>
       </c>
       <c r="R14" s="6">
-        <v>55196.332280626768</v>
+        <v>56251.032327246161</v>
       </c>
       <c r="S14" s="6">
-        <v>55013.392157643706</v>
+        <v>56064.596556123688</v>
       </c>
       <c r="T14" s="6">
-        <v>54531.047124080789</v>
+        <v>55573.034799123452</v>
       </c>
       <c r="U14" s="6">
-        <v>54668.784019001178</v>
+        <v>55713.403591916249</v>
       </c>
       <c r="V14" s="6">
-        <v>54360.870265491889</v>
+        <v>55399.606174823472</v>
       </c>
       <c r="W14" s="6">
-        <v>54744.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>55790.362543949355</v>
+      </c>
+      <c r="X14" s="8">
+        <v>55646.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6">
-        <v>133682.75489332364</v>
+        <v>135500.66303760884</v>
       </c>
       <c r="C15" s="6">
-        <v>131222.74443635807</v>
+        <v>133007.19970148685</v>
       </c>
       <c r="D15" s="6">
-        <v>130778.55701535985</v>
+        <v>132556.97192075141</v>
       </c>
       <c r="E15" s="6">
-        <v>129092.81820967556</v>
+        <v>130848.30930334257</v>
       </c>
       <c r="F15" s="6">
-        <v>128582.07059409356</v>
+        <v>130330.61619766513</v>
       </c>
       <c r="G15" s="6">
-        <v>128448.9502049259</v>
+        <v>130195.68554778112</v>
       </c>
       <c r="H15" s="6">
-        <v>129477.23729268013</v>
+        <v>131237.95597596682</v>
       </c>
       <c r="I15" s="6">
-        <v>131982.07400314094</v>
+        <v>133776.85514317223</v>
       </c>
       <c r="J15" s="6">
-        <v>133674.60466541542</v>
+        <v>135492.40197741188</v>
       </c>
       <c r="K15" s="6">
-        <v>130455.26464166699</v>
+        <v>132229.28319960451</v>
       </c>
       <c r="L15" s="6">
-        <v>133935.41195847857</v>
+        <v>135756.75590371524</v>
       </c>
       <c r="M15" s="6">
-        <v>135968.89382158042</v>
+        <v>137817.89042286191</v>
       </c>
       <c r="N15" s="6">
-        <v>132943.80089631132</v>
+        <v>134751.66024641594</v>
       </c>
       <c r="O15" s="6">
-        <v>136821.95100930784</v>
+        <v>138682.54805681255</v>
       </c>
       <c r="P15" s="6">
-        <v>139958.43038265599</v>
+        <v>141861.67938928393</v>
       </c>
       <c r="Q15" s="6">
-        <v>139613.40406787454</v>
+        <v>141511.96117427843</v>
       </c>
       <c r="R15" s="6">
-        <v>137094.98364423335</v>
+        <v>138959.29357341141</v>
       </c>
       <c r="S15" s="6">
-        <v>140655.27486880912</v>
+        <v>142568.00003612577</v>
       </c>
       <c r="T15" s="6">
-        <v>142059.83081165972</v>
+        <v>143991.65607673879</v>
       </c>
       <c r="U15" s="6">
-        <v>144613.56888956984</v>
+        <v>146580.12160512604</v>
       </c>
       <c r="V15" s="6">
-        <v>141199.98176734208</v>
+        <v>143120.11422595731</v>
       </c>
       <c r="W15" s="6">
-        <v>141852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>143780.99904171578</v>
+      </c>
+      <c r="X15" s="8">
+        <v>144827.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="6">
-        <v>80491.201283164482</v>
+        <v>81627.222548185804</v>
       </c>
       <c r="C16" s="6">
-        <v>81159.87756198745</v>
+        <v>82305.336261909077</v>
       </c>
       <c r="D16" s="6">
-        <v>81205.854097443313</v>
+        <v>82351.961692165089</v>
       </c>
       <c r="E16" s="6">
-        <v>80691.239542691736</v>
+        <v>81830.084069299628</v>
       </c>
       <c r="F16" s="6">
-        <v>80879.98531982633</v>
+        <v>82021.493730350616</v>
       </c>
       <c r="G16" s="6">
-        <v>80980.004449589964</v>
+        <v>82122.924490907521</v>
       </c>
       <c r="H16" s="6">
-        <v>82064.889365171242</v>
+        <v>83223.121046948305</v>
       </c>
       <c r="I16" s="6">
-        <v>82543.206655089249</v>
+        <v>83708.189119611634</v>
       </c>
       <c r="J16" s="6">
-        <v>82569.824649300528</v>
+        <v>83735.182789759856</v>
       </c>
       <c r="K16" s="6">
-        <v>78983.654883743366</v>
+        <v>80098.399229791583</v>
       </c>
       <c r="L16" s="6">
-        <v>80726.730201640123</v>
+        <v>81866.075629497238</v>
       </c>
       <c r="M16" s="6">
-        <v>80062.8935581283</v>
+        <v>81192.86985580092</v>
       </c>
       <c r="N16" s="6">
-        <v>82442.380919440417</v>
+        <v>83605.940369050222</v>
       </c>
       <c r="O16" s="6">
-        <v>82043.111006271094</v>
+        <v>83201.035316827038</v>
       </c>
       <c r="P16" s="6">
-        <v>82502.069754944518</v>
+        <v>83666.471629382591</v>
       </c>
       <c r="Q16" s="6">
-        <v>81974.5495060299</v>
+        <v>83131.506166445281</v>
       </c>
       <c r="R16" s="6">
-        <v>82352.847666184272</v>
+        <v>83515.14347855169</v>
       </c>
       <c r="S16" s="6">
-        <v>85722.847054510363</v>
+        <v>86932.705717316305</v>
       </c>
       <c r="T16" s="6">
-        <v>82247.988901109493</v>
+        <v>83408.804777967831</v>
       </c>
       <c r="U16" s="6">
-        <v>84196.748719729861</v>
+        <v>85385.068628818786</v>
       </c>
       <c r="V16" s="6">
-        <v>83174.779063193433</v>
+        <v>84348.675293128326</v>
       </c>
       <c r="W16" s="6">
-        <v>83604.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+        <v>84784.663965522181</v>
+      </c>
+      <c r="X16" s="8">
+        <v>85600.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6">
-        <v>21273.861060628951</v>
+        <v>21618.524873324834</v>
       </c>
       <c r="C17" s="6">
-        <v>21437.723001877792</v>
+        <v>21785.041588019154</v>
       </c>
       <c r="D17" s="6">
-        <v>21396.977761110269</v>
+        <v>21743.636222134144</v>
       </c>
       <c r="E17" s="6">
-        <v>21334.20806587382</v>
+        <v>21679.849577392364</v>
       </c>
       <c r="F17" s="6">
-        <v>21088.415154000559</v>
+        <v>21430.074505350887</v>
       </c>
       <c r="G17" s="6">
-        <v>21245.66975890872</v>
+        <v>21589.876836388175</v>
       </c>
       <c r="H17" s="6">
-        <v>21164.399521918367</v>
+        <v>21507.289917406721</v>
       </c>
       <c r="I17" s="6">
-        <v>21165.720989186502</v>
+        <v>21508.632794138128</v>
       </c>
       <c r="J17" s="6">
-        <v>21169.244901901533</v>
+        <v>21512.213798755209</v>
       </c>
       <c r="K17" s="6">
-        <v>20662.021715482071</v>
+        <v>20996.772946683948</v>
       </c>
       <c r="L17" s="6">
-        <v>20768.840319656385</v>
+        <v>21105.322149139254</v>
       </c>
       <c r="M17" s="6">
-        <v>21032.252795104789</v>
+        <v>21373.002244266143</v>
       </c>
       <c r="N17" s="6">
-        <v>21313.505078673024</v>
+        <v>21658.811175267012</v>
       </c>
       <c r="O17" s="6">
-        <v>21225.627505341996</v>
+        <v>21569.509872628525</v>
       </c>
       <c r="P17" s="6">
-        <v>21077.623171310785</v>
+        <v>21419.107678711072</v>
       </c>
       <c r="Q17" s="6">
-        <v>20419.97296086853</v>
+        <v>20750.802692048121</v>
       </c>
       <c r="R17" s="6">
-        <v>20624.359898340204</v>
+        <v>20958.500959838882</v>
       </c>
       <c r="S17" s="6">
-        <v>20380.108698279768</v>
+        <v>20710.292577317381</v>
       </c>
       <c r="T17" s="6">
-        <v>20251.706128725902</v>
+        <v>20579.809721582445</v>
       </c>
       <c r="U17" s="6">
-        <v>20618.633540178282</v>
+        <v>20952.681827336128</v>
       </c>
       <c r="V17" s="6">
-        <v>20437.152035354298</v>
+        <v>20768.260089556396</v>
       </c>
       <c r="W17" s="6">
-        <v>20408.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+        <v>20738.940614254039</v>
+      </c>
+      <c r="X17" s="8">
+        <v>20892.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="6">
-        <v>11725.67831945455</v>
+        <v>11882.020391527203</v>
       </c>
       <c r="C18" s="6">
-        <v>11874.772912568158</v>
+        <v>12033.102908664237</v>
       </c>
       <c r="D18" s="6">
-        <v>11917.808102694011</v>
+        <v>12076.711900203791</v>
       </c>
       <c r="E18" s="6">
-        <v>12000.938920778648</v>
+        <v>12160.951127030195</v>
       </c>
       <c r="F18" s="6">
-        <v>12064.315881100601</v>
+        <v>12225.173111838447</v>
       </c>
       <c r="G18" s="6">
-        <v>12208.942339720268</v>
+        <v>12371.727919471376</v>
       </c>
       <c r="H18" s="6">
-        <v>12309.005035887209</v>
+        <v>12473.124782313345</v>
       </c>
       <c r="I18" s="6">
-        <v>12430.938074577123</v>
+        <v>12596.683591675415</v>
       </c>
       <c r="J18" s="6">
-        <v>12347.807256492486</v>
+        <v>12512.444364849009</v>
       </c>
       <c r="K18" s="6">
-        <v>11788.58494982977</v>
+        <v>11945.765775335021</v>
       </c>
       <c r="L18" s="6">
-        <v>12118.874154921352</v>
+        <v>12280.458827888591</v>
       </c>
       <c r="M18" s="6">
-        <v>12304.772066366633</v>
+        <v>12468.835373309454</v>
       </c>
       <c r="N18" s="6">
-        <v>12195.420353751762</v>
+        <v>12358.025640708947</v>
       </c>
       <c r="O18" s="6">
-        <v>12380.142440330215</v>
+        <v>12545.210683628729</v>
       </c>
       <c r="P18" s="6">
-        <v>12408.362237134053</v>
+        <v>12573.806743654664</v>
       </c>
       <c r="Q18" s="6">
-        <v>12677.978879097385</v>
+        <v>12847.018267152473</v>
       </c>
       <c r="R18" s="6">
-        <v>12457.864464027452</v>
+        <v>12623.968998950164</v>
       </c>
       <c r="S18" s="6">
-        <v>12804.73279974129</v>
+        <v>12975.462236768975</v>
       </c>
       <c r="T18" s="6">
-        <v>12852.706454307812</v>
+        <v>13024.075538813067</v>
       </c>
       <c r="U18" s="6">
-        <v>12842.711942939786</v>
+        <v>13013.94776755388</v>
       </c>
       <c r="V18" s="6">
-        <v>13030.256009198623</v>
+        <v>13203.992416476254</v>
       </c>
       <c r="W18" s="6">
-        <v>13089.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+        <v>13263.924992280614</v>
+      </c>
+      <c r="X18" s="8">
+        <v>13505.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6">
-        <v>97655.671697759462</v>
+        <v>98921.740058576019</v>
       </c>
       <c r="C19" s="6">
-        <v>97550.316214076636</v>
+        <v>98815.018681420668</v>
       </c>
       <c r="D19" s="6">
-        <v>97402.621610783011</v>
+        <v>98665.409274193531</v>
       </c>
       <c r="E19" s="6">
-        <v>97199.787688926386</v>
+        <v>98459.945688268286</v>
       </c>
       <c r="F19" s="6">
-        <v>96867.967146859999</v>
+        <v>98123.823220031336</v>
       </c>
       <c r="G19" s="6">
-        <v>98117.463490724243</v>
+        <v>99389.518805172847</v>
       </c>
       <c r="H19" s="6">
-        <v>99750.965803151994</v>
+        <v>101044.19884910485</v>
       </c>
       <c r="I19" s="6">
-        <v>97944.168489526361</v>
+        <v>99213.97710069301</v>
       </c>
       <c r="J19" s="6">
-        <v>96847.289902398872</v>
+        <v>98102.877903019544</v>
       </c>
       <c r="K19" s="6">
-        <v>91884.751231732342</v>
+        <v>93076.001820188103</v>
       </c>
       <c r="L19" s="6">
-        <v>93465.08348697437</v>
+        <v>94676.822477518363</v>
       </c>
       <c r="M19" s="6">
-        <v>94634.824745060061</v>
+        <v>95861.728982757195</v>
       </c>
       <c r="N19" s="6">
-        <v>94067.677468412439</v>
+        <v>95287.22885900503</v>
       </c>
       <c r="O19" s="6">
-        <v>94643.686421257662</v>
+        <v>95870.70554719081</v>
       </c>
       <c r="P19" s="6">
-        <v>95355.574409133042</v>
+        <v>96591.822890025564</v>
       </c>
       <c r="Q19" s="6">
-        <v>95824.258616918218</v>
+        <v>97066.583408959632</v>
       </c>
       <c r="R19" s="6">
-        <v>96792.150583835915</v>
+        <v>98047.023724321436</v>
       </c>
       <c r="S19" s="6">
-        <v>94857.351280689138</v>
+        <v>96087.140489646059</v>
       </c>
       <c r="T19" s="6">
-        <v>94785.473240419582</v>
+        <v>96014.330578128865</v>
       </c>
       <c r="U19" s="6">
-        <v>95375.267022905537</v>
+        <v>96611.770810989197</v>
       </c>
       <c r="V19" s="6">
-        <v>93509.391867962448</v>
+        <v>94721.70529968648</v>
       </c>
       <c r="W19" s="6">
-        <v>94527.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+        <v>95753.012813505484</v>
+      </c>
+      <c r="X19" s="8">
+        <v>96715.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="6">
-        <v>41298.53135577622</v>
+        <v>41825.282536436178</v>
       </c>
       <c r="C20" s="6">
-        <v>41937.45463986438</v>
+        <v>42472.355107755531</v>
       </c>
       <c r="D20" s="6">
-        <v>41953.376689755394</v>
+        <v>42488.480238925789</v>
       </c>
       <c r="E20" s="6">
-        <v>41729.243218212643</v>
+        <v>42261.488007836764</v>
       </c>
       <c r="F20" s="6">
-        <v>41249.540433034635</v>
+        <v>41775.666748219999</v>
       </c>
       <c r="G20" s="6">
-        <v>41214.022014046983</v>
+        <v>41739.69530176327</v>
       </c>
       <c r="H20" s="6">
-        <v>41592.476892225721</v>
+        <v>42122.977265733265</v>
       </c>
       <c r="I20" s="6">
-        <v>41941.945474449021</v>
+        <v>42476.903221675348</v>
       </c>
       <c r="J20" s="6">
-        <v>42028.496104625818</v>
+        <v>42564.557780857263</v>
       </c>
       <c r="K20" s="6">
-        <v>40024.767364495034</v>
+        <v>40535.272042815501</v>
       </c>
       <c r="L20" s="6">
-        <v>41094.81076870914</v>
+        <v>41618.963550437235</v>
       </c>
       <c r="M20" s="6">
-        <v>40448.538846209733</v>
+        <v>40964.448610885454</v>
       </c>
       <c r="N20" s="6">
-        <v>39941.482795834345</v>
+        <v>40450.925202847997</v>
       </c>
       <c r="O20" s="6">
-        <v>40164.391494308547</v>
+        <v>40676.67703923161</v>
       </c>
       <c r="P20" s="6">
-        <v>40208.075067086465</v>
+        <v>40720.91778372437</v>
       </c>
       <c r="Q20" s="6">
-        <v>40980.49861564544</v>
+        <v>41503.193377932817</v>
       </c>
       <c r="R20" s="6">
-        <v>40718.805436667477</v>
+        <v>41238.162375878048</v>
       </c>
       <c r="S20" s="6">
-        <v>41376.508574473242</v>
+        <v>41904.25433268027</v>
       </c>
       <c r="T20" s="6">
-        <v>41778.234140954235</v>
+        <v>42311.103796052943</v>
       </c>
       <c r="U20" s="6">
-        <v>41593.293407604746</v>
+        <v>42123.804195536868</v>
       </c>
       <c r="V20" s="6">
-        <v>42005.225416323563</v>
+        <v>42540.990281454579</v>
       </c>
       <c r="W20" s="6">
-        <v>42142.400000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+        <v>42679.914488459879</v>
+      </c>
+      <c r="X20" s="8">
+        <v>43262.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="6">
-        <v>26122.231522596172</v>
+        <v>26448.821593558616</v>
       </c>
       <c r="C21" s="6">
-        <v>26261.96148898203</v>
+        <v>26590.29851711381</v>
       </c>
       <c r="D21" s="6">
-        <v>26321.697348217618</v>
+        <v>26650.781216774958</v>
       </c>
       <c r="E21" s="6">
-        <v>26193.914553678882</v>
+        <v>26521.400833151987</v>
       </c>
       <c r="F21" s="6">
-        <v>25986.137651989873</v>
+        <v>26311.026225634967</v>
       </c>
       <c r="G21" s="6">
-        <v>26101.973274681495</v>
+        <v>26428.310069325707</v>
       </c>
       <c r="H21" s="6">
-        <v>26140.412001493958</v>
+        <v>26467.229371716352</v>
       </c>
       <c r="I21" s="6">
-        <v>26257.805950948248</v>
+        <v>26586.091024963469</v>
       </c>
       <c r="J21" s="6">
-        <v>26217.549176246004</v>
+        <v>26545.330944757046</v>
       </c>
       <c r="K21" s="6">
-        <v>24839.468875793664</v>
+        <v>25150.021360400409</v>
       </c>
       <c r="L21" s="6">
-        <v>25291.123915840148</v>
+        <v>25607.323163490531</v>
       </c>
       <c r="M21" s="6">
-        <v>25454.748225920233</v>
+        <v>25772.993166910186</v>
       </c>
       <c r="N21" s="6">
-        <v>24860.50628708968</v>
+        <v>25171.321789411508</v>
       </c>
       <c r="O21" s="6">
-        <v>24824.145329294101</v>
+        <v>25134.506233096032</v>
       </c>
       <c r="P21" s="6">
-        <v>25173.729966385858</v>
+        <v>25488.461510243415</v>
       </c>
       <c r="Q21" s="6">
-        <v>25131.914864920946</v>
+        <v>25446.123620480619</v>
       </c>
       <c r="R21" s="6">
-        <v>25334.757065194837</v>
+        <v>25651.501831069108</v>
       </c>
       <c r="S21" s="6">
-        <v>25598.374009212766</v>
+        <v>25918.414614356327</v>
       </c>
       <c r="T21" s="6">
-        <v>25584.349068348754</v>
+        <v>25904.214328348931</v>
       </c>
       <c r="U21" s="6">
-        <v>25915.493505415609</v>
+        <v>26239.49885907918</v>
       </c>
       <c r="V21" s="6">
-        <v>25107.760800099597</v>
+        <v>25421.667572356761</v>
       </c>
       <c r="W21" s="6">
-        <v>25034</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+        <v>25346.984586688224</v>
+      </c>
+      <c r="X21" s="8">
+        <v>25376.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="6">
-        <v>25548.825349399485</v>
+        <v>25891.432831104998</v>
       </c>
       <c r="C22" s="6">
-        <v>25815.474210288368</v>
+        <v>26161.65742956613</v>
       </c>
       <c r="D22" s="6">
-        <v>25874.471880958466</v>
+        <v>26221.44625376671</v>
       </c>
       <c r="E22" s="6">
-        <v>25709.587561181768</v>
+        <v>26054.35084988736</v>
       </c>
       <c r="F22" s="6">
-        <v>25765.493650856057</v>
+        <v>26111.006635265203</v>
       </c>
       <c r="G22" s="6">
-        <v>25935.788237375426</v>
+        <v>26283.584857084345</v>
       </c>
       <c r="H22" s="6">
-        <v>26278.953727910681</v>
+        <v>26631.352166408233</v>
       </c>
       <c r="I22" s="6">
-        <v>26357.531411554264</v>
+        <v>26710.983569819487</v>
       </c>
       <c r="J22" s="6">
-        <v>25871.895563461956</v>
+        <v>26218.835388081094</v>
       </c>
       <c r="K22" s="6">
-        <v>24798.086430916206</v>
+        <v>25130.626570316843</v>
       </c>
       <c r="L22" s="6">
-        <v>24885.165962298273</v>
+        <v>25218.873830490618</v>
       </c>
       <c r="M22" s="6">
-        <v>25158.513248678086</v>
+        <v>25495.886679734354</v>
       </c>
       <c r="N22" s="6">
-        <v>25457.881341772652</v>
+        <v>25799.269272402795</v>
       </c>
       <c r="O22" s="6">
-        <v>25268.779637528751</v>
+        <v>25607.631731078669</v>
       </c>
       <c r="P22" s="6">
-        <v>25157.482721679477</v>
+        <v>25494.842333460107</v>
       </c>
       <c r="Q22" s="6">
-        <v>25731.228628152461</v>
+        <v>26076.282121646527</v>
       </c>
       <c r="R22" s="6">
-        <v>25468.444243508344</v>
+        <v>25809.973821713815</v>
       </c>
       <c r="S22" s="6">
-        <v>25774.768393843493</v>
+        <v>26120.405751733415</v>
       </c>
       <c r="T22" s="6">
-        <v>26255.251606942784</v>
+        <v>26607.332202100577</v>
       </c>
       <c r="U22" s="6">
-        <v>25689.492284708984</v>
+        <v>26033.986097539564</v>
       </c>
       <c r="V22" s="6">
-        <v>26147.046272089319</v>
+        <v>26497.675843304754</v>
       </c>
       <c r="W22" s="6">
-        <v>26213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+        <v>26564.514004856497</v>
+      </c>
+      <c r="X22" s="8">
+        <v>26772.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="6">
-        <v>33247.324200621326</v>
+        <v>33711.562746077747</v>
       </c>
       <c r="C23" s="6">
-        <v>33388.833273731638</v>
+        <v>33855.047736584391</v>
       </c>
       <c r="D23" s="6">
-        <v>33330.037250397072</v>
+        <v>33795.430733486566</v>
       </c>
       <c r="E23" s="6">
-        <v>33373.885132205898</v>
+        <v>33839.890871390031</v>
       </c>
       <c r="F23" s="6">
-        <v>32925.440886433789</v>
+        <v>33385.184915559112</v>
       </c>
       <c r="G23" s="6">
-        <v>33296.486977194865</v>
+        <v>33761.411991605877</v>
       </c>
       <c r="H23" s="6">
-        <v>33447.297116143411</v>
+        <v>33914.327920455689</v>
       </c>
       <c r="I23" s="6">
-        <v>33857.540555794185</v>
+        <v>34330.299665234343</v>
       </c>
       <c r="J23" s="6">
-        <v>33776.82059155521</v>
+        <v>34248.452593184775</v>
       </c>
       <c r="K23" s="6">
-        <v>32246.463080242542</v>
+        <v>32696.726416508449</v>
       </c>
       <c r="L23" s="6">
-        <v>32360.401136760935</v>
+        <v>32812.255411212158</v>
       </c>
       <c r="M23" s="6">
-        <v>32031.209842271932</v>
+        <v>32478.46755770961</v>
       </c>
       <c r="N23" s="6">
-        <v>31806.655538463081</v>
+        <v>32250.777760567606</v>
       </c>
       <c r="O23" s="6">
-        <v>31726.932116992481</v>
+        <v>32169.94114619766</v>
       </c>
       <c r="P23" s="6">
-        <v>31985.701055849131</v>
+        <v>32432.323323673434</v>
       </c>
       <c r="Q23" s="6">
-        <v>32030.545480426339</v>
+        <v>32477.793919256521</v>
       </c>
       <c r="R23" s="6">
-        <v>32134.518109260913</v>
+        <v>32583.218337163988</v>
       </c>
       <c r="S23" s="6">
-        <v>32430.823492393294</v>
+        <v>32883.661087238936</v>
       </c>
       <c r="T23" s="6">
-        <v>32718.492171533031</v>
+        <v>33175.346537423808</v>
       </c>
       <c r="U23" s="6">
-        <v>32698.893497088178</v>
+        <v>33155.474203057856</v>
       </c>
       <c r="V23" s="6">
-        <v>33245.331115084562</v>
+        <v>33709.541830718495</v>
       </c>
       <c r="W23" s="6">
-        <v>33254.300000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+        <v>33718.635949835116</v>
+      </c>
+      <c r="X23" s="8">
+        <v>33705.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="6">
-        <v>33767.769988442138</v>
+        <v>34216.445322029758</v>
       </c>
       <c r="C24" s="6">
-        <v>33946.03400259796</v>
+        <v>34397.07794584045</v>
       </c>
       <c r="D24" s="6">
-        <v>33838.605594820445</v>
+        <v>34288.222127348134</v>
       </c>
       <c r="E24" s="6">
-        <v>33655.641587824357</v>
+        <v>34102.827061478412</v>
       </c>
       <c r="F24" s="6">
-        <v>33809.734210230235</v>
+        <v>34258.967126128322</v>
       </c>
       <c r="G24" s="6">
-        <v>33824.505616299648</v>
+        <v>34273.934801171017</v>
       </c>
       <c r="H24" s="6">
-        <v>33957.112557150023</v>
+        <v>34408.303702122466</v>
       </c>
       <c r="I24" s="6">
-        <v>33808.391355133019</v>
+        <v>34257.606428397172</v>
       </c>
       <c r="J24" s="6">
-        <v>34237.097844920165</v>
+        <v>34692.009179068067</v>
       </c>
       <c r="K24" s="6">
-        <v>32263.100852008305</v>
+        <v>32691.78351427177</v>
       </c>
       <c r="L24" s="6">
-        <v>33192.35657928382</v>
+        <v>33633.386344230297</v>
       </c>
       <c r="M24" s="6">
-        <v>32445.057717681473</v>
+        <v>32876.158056843131</v>
       </c>
       <c r="N24" s="6">
-        <v>32573.636093240191</v>
+        <v>33006.444864601122</v>
       </c>
       <c r="O24" s="6">
-        <v>32549.128987715943</v>
+        <v>32981.612131007561</v>
       </c>
       <c r="P24" s="6">
-        <v>32811.992872996554</v>
+        <v>33247.968711880945</v>
       </c>
       <c r="Q24" s="6">
-        <v>32292.307950372815</v>
+        <v>32721.378689924368</v>
       </c>
       <c r="R24" s="6">
-        <v>32518.914748028514</v>
+        <v>32950.9964320566</v>
       </c>
       <c r="S24" s="6">
-        <v>32554.500408104817</v>
+        <v>32987.054921932177</v>
       </c>
       <c r="T24" s="6">
-        <v>32333.936458386601</v>
+        <v>32763.560319590139</v>
       </c>
       <c r="U24" s="6">
-        <v>33112.792414773598</v>
+        <v>33552.765003659428</v>
       </c>
       <c r="V24" s="6">
-        <v>32753.242962493227</v>
+        <v>33188.438186142957</v>
       </c>
       <c r="W24" s="6">
-        <v>32822.400000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+        <v>33258.51411929739</v>
+      </c>
+      <c r="X24" s="8">
+        <v>33465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="6">
-        <v>10124.900484365597</v>
+        <v>10264.429828429749</v>
       </c>
       <c r="C25" s="6">
-        <v>10085.693109015698</v>
+        <v>10224.682143634489</v>
       </c>
       <c r="D25" s="6">
-        <v>10076.699664669972</v>
+        <v>10215.564762328358</v>
       </c>
       <c r="E25" s="6">
-        <v>10031.429293131945</v>
+        <v>10169.670528337956</v>
       </c>
       <c r="F25" s="6">
-        <v>10003.640560603022</v>
+        <v>10141.498844526881</v>
       </c>
       <c r="G25" s="6">
-        <v>10022.334798849752</v>
+        <v>10160.450704545239</v>
       </c>
       <c r="H25" s="6">
-        <v>9973.2245297259087</v>
+        <v>10110.663656064578</v>
       </c>
       <c r="I25" s="6">
-        <v>10170.271905840093</v>
+        <v>10310.426504906738</v>
       </c>
       <c r="J25" s="6">
-        <v>10046.28363379286</v>
+        <v>10184.729573866056</v>
       </c>
       <c r="K25" s="6">
-        <v>9773.2467054541285</v>
+        <v>9907.9299751114304</v>
       </c>
       <c r="L25" s="6">
-        <v>10116.715439511623</v>
+        <v>10256.131987016306</v>
       </c>
       <c r="M25" s="6">
-        <v>10034.763941035417</v>
+        <v>10173.051130395284</v>
       </c>
       <c r="N25" s="6">
-        <v>9987.6746706409485</v>
+        <v>10125.312931646336</v>
       </c>
       <c r="O25" s="6">
-        <v>10170.878205458906</v>
+        <v>10311.041159826253</v>
       </c>
       <c r="P25" s="6">
-        <v>10166.128858444872</v>
+        <v>10306.226362956724</v>
       </c>
       <c r="Q25" s="6">
-        <v>10390.156567596228</v>
+        <v>10533.341355717273</v>
       </c>
       <c r="R25" s="6">
-        <v>10403.293059337175</v>
+        <v>10546.658878973418</v>
       </c>
       <c r="S25" s="6">
-        <v>10482.920409274599</v>
+        <v>10627.383558402968</v>
       </c>
       <c r="T25" s="6">
-        <v>10445.734032654074</v>
+        <v>10589.684723339422</v>
       </c>
       <c r="U25" s="6">
-        <v>10340.338948917104</v>
+        <v>10482.837209830512</v>
       </c>
       <c r="V25" s="6">
-        <v>10632.171165439035</v>
+        <v>10778.691111090082</v>
       </c>
       <c r="W25" s="6">
-        <v>10577.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+        <v>10722.962398387448</v>
+      </c>
+      <c r="X25" s="8">
+        <v>10825.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="6">
-        <v>97415.996431648731</v>
+        <v>99034.276504767578</v>
       </c>
       <c r="C26" s="6">
-        <v>97155.460626381449</v>
+        <v>98769.412663885581</v>
       </c>
       <c r="D26" s="6">
-        <v>97604.323811486145</v>
+        <v>99225.732389749697</v>
       </c>
       <c r="E26" s="6">
-        <v>96675.372176225967</v>
+        <v>98281.348957091788</v>
       </c>
       <c r="F26" s="6">
-        <v>96157.227934289898</v>
+        <v>97754.597273539941</v>
       </c>
       <c r="G26" s="6">
-        <v>97439.415380436811</v>
+        <v>99058.08449046484</v>
       </c>
       <c r="H26" s="6">
-        <v>97542.849070917466</v>
+        <v>99163.236427294396</v>
       </c>
       <c r="I26" s="6">
-        <v>98758.682828831516</v>
+        <v>100399.26768474375</v>
       </c>
       <c r="J26" s="6">
-        <v>98967.501788858499</v>
+        <v>100611.55555721097</v>
       </c>
       <c r="K26" s="6">
-        <v>98731.360721912104</v>
+        <v>100371.49170143028</v>
       </c>
       <c r="L26" s="6">
-        <v>98962.62284119433</v>
+        <v>100606.59556019072</v>
       </c>
       <c r="M26" s="6">
-        <v>99657.384988573773</v>
+        <v>101312.89913587605</v>
       </c>
       <c r="N26" s="6">
-        <v>99699.343938485748</v>
+        <v>101355.55511025031</v>
       </c>
       <c r="O26" s="6">
-        <v>99764.721837185774</v>
+        <v>101422.01907032181</v>
       </c>
       <c r="P26" s="6">
-        <v>99644.699724646911</v>
+        <v>101300.00314362337</v>
       </c>
       <c r="Q26" s="6">
-        <v>99679.828147829016</v>
+        <v>101335.71512216926</v>
       </c>
       <c r="R26" s="6">
-        <v>100302.38186977858</v>
+        <v>101968.6107419547</v>
       </c>
       <c r="S26" s="6">
-        <v>100362.88082081443</v>
+        <v>102030.11470500597</v>
       </c>
       <c r="T26" s="6">
-        <v>101540.65878694788</v>
+        <v>103227.45798569727</v>
       </c>
       <c r="U26" s="6">
-        <v>102196.38935301389</v>
+        <v>103894.08158522051</v>
       </c>
       <c r="V26" s="6">
-        <v>103341.96626456374</v>
+        <v>105058.68888557807</v>
       </c>
       <c r="W26" s="6">
-        <v>104187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+        <v>105917.7603694875</v>
+      </c>
+      <c r="X26" s="8">
+        <v>106532.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="6">
-        <v>65073.58904123072</v>
+        <v>65963.626014382869</v>
       </c>
       <c r="C27" s="6">
-        <v>65465.039188377843</v>
+        <v>66360.430178562703</v>
       </c>
       <c r="D27" s="6">
-        <v>65582.409743206124</v>
+        <v>66479.406056455162</v>
       </c>
       <c r="E27" s="6">
-        <v>66427.219780706509</v>
+        <v>67335.77089183504</v>
       </c>
       <c r="F27" s="6">
-        <v>65650.123524837836</v>
+        <v>66548.04598600851</v>
       </c>
       <c r="G27" s="6">
-        <v>65526.948931583967</v>
+        <v>66423.186685582899</v>
       </c>
       <c r="H27" s="6">
-        <v>65646.254165887454</v>
+        <v>66544.123704319747</v>
       </c>
       <c r="I27" s="6">
-        <v>65752.016643864597</v>
+        <v>66651.332737145931</v>
       </c>
       <c r="J27" s="6">
-        <v>65250.289766631562</v>
+        <v>66142.743544836369</v>
       </c>
       <c r="K27" s="6">
-        <v>62218.002135847782</v>
+        <v>63068.982128075921</v>
       </c>
       <c r="L27" s="6">
-        <v>61953.595940904925</v>
+        <v>62800.959546010476</v>
       </c>
       <c r="M27" s="6">
-        <v>62853.86679002746</v>
+        <v>63713.543752262609</v>
       </c>
       <c r="N27" s="6">
-        <v>62227.675533223752</v>
+        <v>63078.787832297836</v>
       </c>
       <c r="O27" s="6">
-        <v>62343.756301735251</v>
+        <v>63196.456282960724</v>
       </c>
       <c r="P27" s="6">
-        <v>62465.641108672324</v>
+        <v>63320.008156156742</v>
       </c>
       <c r="Q27" s="6">
-        <v>63619.999862203367</v>
+        <v>64490.155526637645</v>
       </c>
       <c r="R27" s="6">
-        <v>63457.486786287271</v>
+        <v>64325.419695709606</v>
       </c>
       <c r="S27" s="6">
-        <v>63871.50819397829</v>
+        <v>64745.10383640723</v>
       </c>
       <c r="T27" s="6">
-        <v>64219.105606354395</v>
+        <v>65097.455474781083</v>
       </c>
       <c r="U27" s="6">
-        <v>62455.967711296369</v>
+        <v>63310.202451934834</v>
       </c>
       <c r="V27" s="6">
-        <v>65438.598568883543</v>
+        <v>66333.627920356157</v>
       </c>
       <c r="W27" s="6">
-        <v>65520.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+        <v>66416.649549434966</v>
+      </c>
+      <c r="X27" s="8">
+        <v>66812.800000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="6">
-        <v>62773.480113356818</v>
+        <v>63573.969510293202</v>
       </c>
       <c r="C28" s="6">
-        <v>63185.714368370296</v>
+        <v>63991.460589519658</v>
       </c>
       <c r="D28" s="6">
-        <v>63089.017444354795</v>
+        <v>63893.530583281361</v>
       </c>
       <c r="E28" s="6">
-        <v>63168.537941078073</v>
+        <v>63974.065127885231</v>
       </c>
       <c r="F28" s="6">
-        <v>63048.939114006258</v>
+        <v>63852.941172801009</v>
       </c>
       <c r="G28" s="6">
-        <v>63569.321244563398</v>
+        <v>64379.959232688714</v>
       </c>
       <c r="H28" s="6">
-        <v>64182.583315293334</v>
+        <v>65001.041640673749</v>
       </c>
       <c r="I28" s="6">
-        <v>65112.018880995012</v>
+        <v>65942.329398003756</v>
       </c>
       <c r="J28" s="6">
-        <v>64489.850514632082</v>
+        <v>65312.22712102309</v>
       </c>
       <c r="K28" s="6">
-        <v>60799.463302698125</v>
+        <v>61574.779975046797</v>
       </c>
       <c r="L28" s="6">
-        <v>61701.54381752701</v>
+        <v>62488.36384903307</v>
       </c>
       <c r="M28" s="6">
-        <v>62072.427414244383</v>
+        <v>62863.976965065507</v>
       </c>
       <c r="N28" s="6">
-        <v>61166.529915572784</v>
+        <v>61946.527432938252</v>
       </c>
       <c r="O28" s="6">
-        <v>62648.155810520926</v>
+        <v>63447.047067997511</v>
       </c>
       <c r="P28" s="6">
-        <v>63718.183614429377</v>
+        <v>64530.719900187149</v>
       </c>
       <c r="Q28" s="6">
-        <v>63265.871029067363</v>
+        <v>64072.639410480355</v>
       </c>
       <c r="R28" s="6">
-        <v>63742.357845433253</v>
+        <v>64555.202401746727</v>
       </c>
       <c r="S28" s="6">
-        <v>64233.476433196229</v>
+        <v>65052.583749220212</v>
       </c>
       <c r="T28" s="6">
-        <v>65758.36147836184</v>
+        <v>66596.914176543985</v>
       </c>
       <c r="U28" s="6">
-        <v>65537.612579458015</v>
+        <v>66373.350280723651</v>
       </c>
       <c r="V28" s="6">
-        <v>64158.409084289458</v>
+        <v>64976.559139114172</v>
       </c>
       <c r="W28" s="6">
-        <v>64650.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+        <v>65475.229039301317</v>
+      </c>
+      <c r="X28" s="8">
+        <v>66097.600000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="6">
-        <v>41377.652128087226</v>
+        <v>41898.105165245099</v>
       </c>
       <c r="C29" s="6">
-        <v>41914.78313707804</v>
+        <v>42441.992272047246</v>
       </c>
       <c r="D29" s="6">
-        <v>42227.078201445198</v>
+        <v>42758.215420932989</v>
       </c>
       <c r="E29" s="6">
-        <v>42153.64554430206</v>
+        <v>42683.85911908139</v>
       </c>
       <c r="F29" s="6">
-        <v>42732.030855058685</v>
+        <v>43269.519429170956</v>
       </c>
       <c r="G29" s="6">
-        <v>43338.469091016057</v>
+        <v>43883.585517495972</v>
       </c>
       <c r="H29" s="6">
-        <v>43927.580520231786</v>
+        <v>44480.106860440268</v>
       </c>
       <c r="I29" s="6">
-        <v>43609.509853617412</v>
+        <v>44158.035463094297</v>
       </c>
       <c r="J29" s="6">
-        <v>43594.65830498172</v>
+        <v>44142.997109910815</v>
       </c>
       <c r="K29" s="6">
-        <v>40443.242193091683</v>
+        <v>40951.942110785138</v>
       </c>
       <c r="L29" s="6">
-        <v>41769.155451844737</v>
+        <v>42294.532864442677</v>
       </c>
       <c r="M29" s="6">
-        <v>42156.945888443326</v>
+        <v>42687.200975344378</v>
       </c>
       <c r="N29" s="6">
-        <v>40730.784676399358</v>
+        <v>41243.101337698419</v>
       </c>
       <c r="O29" s="6">
-        <v>41639.616944300098</v>
+        <v>42163.365006120184</v>
       </c>
       <c r="P29" s="6">
-        <v>42061.648451364308</v>
+        <v>42590.704875750445</v>
       </c>
       <c r="Q29" s="6">
-        <v>42445.726000803981</v>
+        <v>42979.61339835629</v>
       </c>
       <c r="R29" s="6">
-        <v>41473.362108183901</v>
+        <v>41995.018996871906</v>
       </c>
       <c r="S29" s="6">
-        <v>42651.584966615359</v>
+        <v>43188.06168276049</v>
       </c>
       <c r="T29" s="6">
-        <v>42697.377241575414</v>
+        <v>43234.429938409528</v>
       </c>
       <c r="U29" s="6">
-        <v>42807.938770307774</v>
+        <v>43346.382123219802</v>
       </c>
       <c r="V29" s="6">
-        <v>41974.601874638451</v>
+        <v>42502.563416814002</v>
       </c>
       <c r="W29" s="6">
-        <v>42076.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+        <v>42605.743228933919</v>
+      </c>
+      <c r="X29" s="8">
+        <v>43000.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="6">
-        <v>23280.419209548698</v>
+        <v>23599.902593774939</v>
       </c>
       <c r="C30" s="6">
-        <v>23210.931792283733</v>
+        <v>23529.461582202715</v>
       </c>
       <c r="D30" s="6">
-        <v>23330.4596363163</v>
+        <v>23650.629738627296</v>
       </c>
       <c r="E30" s="6">
-        <v>23195.753653358966</v>
+        <v>23514.075149640863</v>
       </c>
       <c r="F30" s="6">
-        <v>23307.218111087746</v>
+        <v>23627.06926376696</v>
       </c>
       <c r="G30" s="6">
-        <v>23445.007153514172</v>
+        <v>23766.749221867518</v>
       </c>
       <c r="H30" s="6">
-        <v>23604.377612224256</v>
+        <v>23928.306763766959</v>
       </c>
       <c r="I30" s="6">
-        <v>23719.162287842828</v>
+        <v>24044.666660015962</v>
       </c>
       <c r="J30" s="6">
-        <v>23399.947053581262</v>
+        <v>23721.070750199524</v>
       </c>
       <c r="K30" s="6">
-        <v>22318.741813612101</v>
+        <v>22625.027843176376</v>
       </c>
       <c r="L30" s="6">
-        <v>22521.986580151599</v>
+        <v>22831.061791699922</v>
       </c>
       <c r="M30" s="6">
-        <v>22756.299099802734</v>
+        <v>23068.589844373502</v>
       </c>
       <c r="N30" s="6">
-        <v>22891.005082760072</v>
+        <v>23205.144433359939</v>
       </c>
       <c r="O30" s="6">
-        <v>23121.28590925931</v>
+        <v>23438.58546488428</v>
       </c>
       <c r="P30" s="6">
-        <v>23365.559082579828</v>
+        <v>23686.210863926575</v>
       </c>
       <c r="Q30" s="6">
-        <v>23132.669513452889</v>
+        <v>23450.125289305666</v>
       </c>
       <c r="R30" s="6">
-        <v>23478.920807674207</v>
+        <v>23801.128282122907</v>
       </c>
       <c r="S30" s="6">
-        <v>23379.077112559702</v>
+        <v>23699.914405426978</v>
       </c>
       <c r="T30" s="6">
-        <v>23299.629041625361</v>
+        <v>23619.376047486036</v>
       </c>
       <c r="U30" s="6">
-        <v>23729.834416774309</v>
+        <v>24055.485245411015</v>
       </c>
       <c r="V30" s="6">
-        <v>23615.524057997132</v>
+        <v>23939.606175179568</v>
       </c>
       <c r="W30" s="6">
-        <v>23684.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+        <v>24009.325947725461</v>
+      </c>
+      <c r="X30" s="8">
+        <v>24099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="6">
-        <v>44197.552908379621</v>
+        <v>44802.126273162357</v>
       </c>
       <c r="C31" s="6">
-        <v>44485.240075571659</v>
+        <v>45093.748680819743</v>
       </c>
       <c r="D31" s="6">
-        <v>44545.2675370414</v>
+        <v>45154.597251196465</v>
       </c>
       <c r="E31" s="6">
-        <v>44386.083602180886</v>
+        <v>44993.235857160384</v>
       </c>
       <c r="F31" s="6">
-        <v>44103.732209341724</v>
+        <v>44707.022211314274</v>
       </c>
       <c r="G31" s="6">
-        <v>44333.170506514965</v>
+        <v>44939.598969198676</v>
       </c>
       <c r="H31" s="6">
-        <v>44409.649938906055</v>
+        <v>45017.124555160146</v>
       </c>
       <c r="I31" s="6">
-        <v>44475.902470454144</v>
+        <v>45084.283347650024</v>
       </c>
       <c r="J31" s="6">
-        <v>44115.73770163567</v>
+        <v>44719.191925389619</v>
       </c>
       <c r="K31" s="6">
-        <v>42299.795830210176</v>
+        <v>42878.409988955704</v>
       </c>
       <c r="L31" s="6">
-        <v>43189.536203550633</v>
+        <v>43780.321020984171</v>
       </c>
       <c r="M31" s="6">
-        <v>43033.464803729294</v>
+        <v>43622.114738004668</v>
       </c>
       <c r="N31" s="6">
-        <v>43479.001962193623</v>
+        <v>44073.74634924531</v>
       </c>
       <c r="O31" s="6">
-        <v>43125.951559178975</v>
+        <v>43715.866609399927</v>
       </c>
       <c r="P31" s="6">
-        <v>43272.6853538828</v>
+        <v>43864.607559209719</v>
       </c>
       <c r="Q31" s="6">
-        <v>43094.82620878725</v>
+        <v>43684.315498834214</v>
       </c>
       <c r="R31" s="6">
-        <v>43333.157463215284</v>
+        <v>43925.906859737392</v>
       </c>
       <c r="S31" s="6">
-        <v>43135.289164296497</v>
+        <v>43725.331942569646</v>
       </c>
       <c r="T31" s="6">
-        <v>43172.639584766555</v>
+        <v>43763.193275248494</v>
       </c>
       <c r="U31" s="6">
-        <v>43544.365198016247</v>
+        <v>44140.003681433307</v>
       </c>
       <c r="V31" s="6">
-        <v>43306.033943588212</v>
+        <v>43898.412320530129</v>
       </c>
       <c r="W31" s="6">
-        <v>43304.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+        <v>43897.060130077312</v>
+      </c>
+      <c r="X31" s="8">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="6">
-        <v>8744.5138901979262</v>
+        <v>8865.5297410879593</v>
       </c>
       <c r="C32" s="6">
-        <v>8742.3875000000007</v>
+        <v>8863.3739236488673</v>
       </c>
       <c r="D32" s="6">
-        <v>8730.8695530945661</v>
+        <v>8851.6965791871153</v>
       </c>
       <c r="E32" s="6">
-        <v>8630.3976162425388</v>
+        <v>8749.8342051899963</v>
       </c>
       <c r="F32" s="6">
-        <v>8735.1223334904171</v>
+        <v>8856.0082140653012</v>
       </c>
       <c r="G32" s="6">
-        <v>8803.5212181903862</v>
+        <v>8925.3536750227759</v>
       </c>
       <c r="H32" s="6">
-        <v>8874.8438894125047</v>
+        <v>8997.6633849590035</v>
       </c>
       <c r="I32" s="6">
-        <v>8874.2236922714419</v>
+        <v>8997.0346048726005</v>
       </c>
       <c r="J32" s="6">
-        <v>8768.9673774740804</v>
+        <v>8890.3216416375235</v>
       </c>
       <c r="K32" s="6">
-        <v>8557.6573515551354</v>
+        <v>8676.0872836277067</v>
       </c>
       <c r="L32" s="6">
-        <v>8909.0433317624884</v>
+        <v>9032.3361154377399</v>
       </c>
       <c r="M32" s="6">
-        <v>8856.9467719132899</v>
+        <v>8979.5185881799734</v>
       </c>
       <c r="N32" s="6">
-        <v>8996.6683278353757</v>
+        <v>9121.1737590736775</v>
       </c>
       <c r="O32" s="6">
-        <v>9017.1348334904178</v>
+        <v>9141.9235019249427</v>
       </c>
       <c r="P32" s="6">
-        <v>8799.8000353440148</v>
+        <v>8921.5809945043638</v>
       </c>
       <c r="Q32" s="6">
-        <v>8879.4510681746779</v>
+        <v>9002.3343227437035</v>
       </c>
       <c r="R32" s="6">
-        <v>9050.0938815582795</v>
+        <v>9175.3386722308751</v>
       </c>
       <c r="S32" s="6">
-        <v>8962.5574850769717</v>
+        <v>9086.5908543215683</v>
       </c>
       <c r="T32" s="6">
-        <v>8839.8470507382972</v>
+        <v>8962.1822229406062</v>
       </c>
       <c r="U32" s="6">
-        <v>9062.2320256047751</v>
+        <v>9187.6447967790282</v>
       </c>
       <c r="V32" s="6">
-        <v>9036.3609448633379</v>
+        <v>9161.415684603402</v>
       </c>
       <c r="W32" s="6">
-        <v>9024.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+        <v>9149.2892115085069</v>
+      </c>
+      <c r="X32" s="8">
+        <v>9169.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="6">
-        <v>18512.065785338789</v>
+        <v>18748.562777659634</v>
       </c>
       <c r="C33" s="6">
-        <v>18561.255738976935</v>
+        <v>18798.381147176522</v>
       </c>
       <c r="D33" s="6">
-        <v>18655.197454947524</v>
+        <v>18893.52299572757</v>
       </c>
       <c r="E33" s="6">
-        <v>18507.442669395354</v>
+        <v>18743.880600073462</v>
       </c>
       <c r="F33" s="6">
-        <v>18537.40046070881</v>
+        <v>18774.221110831866</v>
       </c>
       <c r="G33" s="6">
-        <v>18660.930118717384</v>
+        <v>18899.328895934425</v>
       </c>
       <c r="H33" s="6">
-        <v>18826.25274485461</v>
+        <v>19066.763566415993</v>
       </c>
       <c r="I33" s="6">
-        <v>19114.365330449458</v>
+        <v>19358.556873586327</v>
       </c>
       <c r="J33" s="6">
-        <v>18979.925118814375</v>
+        <v>19222.399149380399</v>
       </c>
       <c r="K33" s="6">
-        <v>18282.019535993481</v>
+        <v>18515.577620971639</v>
       </c>
       <c r="L33" s="6">
-        <v>18906.694962270372</v>
+        <v>19148.233456415412</v>
       </c>
       <c r="M33" s="6">
-        <v>18659.820570890963</v>
+        <v>18898.205173313741</v>
       </c>
       <c r="N33" s="6">
-        <v>18652.978359294677</v>
+        <v>18891.275550486203</v>
       </c>
       <c r="O33" s="6">
-        <v>18577.529107097824</v>
+        <v>18814.862412279854</v>
       </c>
       <c r="P33" s="6">
-        <v>18305.874814261602</v>
+        <v>18539.737657316295</v>
       </c>
       <c r="Q33" s="6">
-        <v>18295.51903454831</v>
+        <v>18529.249579523268</v>
       </c>
       <c r="R33" s="6">
-        <v>18779.28188686931</v>
+        <v>19019.192642140468</v>
       </c>
       <c r="S33" s="6">
-        <v>18921.304008651623</v>
+        <v>19163.02913758772</v>
       </c>
       <c r="T33" s="6">
-        <v>18743.406507148258</v>
+        <v>18982.858944071762</v>
       </c>
       <c r="U33" s="6">
-        <v>19215.704031929541</v>
+        <v>19461.190206275252</v>
       </c>
       <c r="V33" s="6">
-        <v>19051.306028981009</v>
+        <v>19294.69197131092</v>
       </c>
       <c r="W33" s="6">
-        <v>19066.099999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+        <v>19309.674939586675</v>
+      </c>
+      <c r="X33" s="8">
+        <v>19375.599999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="6">
-        <v>21009.251950456375</v>
+        <v>21288.554829269193</v>
       </c>
       <c r="C34" s="6">
-        <v>21157.916283117029</v>
+        <v>21439.195547199866</v>
       </c>
       <c r="D34" s="6">
-        <v>21360.928743080371</v>
+        <v>21644.906911657108</v>
       </c>
       <c r="E34" s="6">
-        <v>21308.483857589843</v>
+        <v>21591.76480917232</v>
       </c>
       <c r="F34" s="6">
-        <v>21857.251913428252</v>
+        <v>22147.828341220815</v>
       </c>
       <c r="G34" s="6">
-        <v>21757.437453946273</v>
+        <v>22046.686920362667</v>
       </c>
       <c r="H34" s="6">
-        <v>21798.462888563867</v>
+        <v>22088.257758596737</v>
       </c>
       <c r="I34" s="6">
-        <v>22196.240427304539</v>
+        <v>22491.323463330151</v>
       </c>
       <c r="J34" s="6">
-        <v>21954.317245848222</v>
+        <v>22246.184087351932</v>
       </c>
       <c r="K34" s="6">
-        <v>20818.293355303354</v>
+        <v>21095.057577076597</v>
       </c>
       <c r="L34" s="6">
-        <v>21427.542206505841</v>
+        <v>21712.405953119644</v>
       </c>
       <c r="M34" s="6">
-        <v>21547.023498046769</v>
+        <v>21833.475662409586</v>
       </c>
       <c r="N34" s="6">
-        <v>21020.036987391926</v>
+        <v>21299.483245505988</v>
       </c>
       <c r="O34" s="6">
-        <v>21614.694318034548</v>
+        <v>21902.046117228667</v>
       </c>
       <c r="P34" s="6">
-        <v>22209.140177364712</v>
+        <v>22504.39470628004</v>
       </c>
       <c r="Q34" s="6">
-        <v>22152.465865624945</v>
+        <v>22446.96695036906</v>
       </c>
       <c r="R34" s="6">
-        <v>22038.482828208027</v>
+        <v>22331.468590533168</v>
       </c>
       <c r="S34" s="6">
-        <v>22620.028937478019</v>
+        <v>22920.745936634652</v>
       </c>
       <c r="T34" s="6">
-        <v>22086.486816136854</v>
+        <v>22380.110756920454</v>
       </c>
       <c r="U34" s="6">
-        <v>22559.97108473886</v>
+        <v>22859.889657982716</v>
       </c>
       <c r="V34" s="6">
-        <v>22675.222950030551</v>
+        <v>22976.673713846467</v>
       </c>
       <c r="W34" s="6">
-        <v>22844.400000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+        <v>23148.099850894167</v>
+      </c>
+      <c r="X34" s="8">
+        <v>23137.599999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="6">
-        <v>10372.991789301212</v>
+        <v>10515.912160705731</v>
       </c>
       <c r="C35" s="6">
-        <v>10436.089765451952</v>
+        <v>10579.879508622065</v>
       </c>
       <c r="D35" s="6">
-        <v>10464.79934460054</v>
+        <v>10608.984651923998</v>
       </c>
       <c r="E35" s="6">
-        <v>10433.776172993093</v>
+        <v>10577.534039198468</v>
       </c>
       <c r="F35" s="6">
-        <v>10533.050322136927</v>
+        <v>10678.175999920168</v>
       </c>
       <c r="G35" s="6">
-        <v>10447.131911278333</v>
+        <v>10591.073794507423</v>
       </c>
       <c r="H35" s="6">
-        <v>10599.934176856712</v>
+        <v>10745.98138871148</v>
       </c>
       <c r="I35" s="6">
-        <v>10339.549861941317</v>
+        <v>10482.009466310075</v>
       </c>
       <c r="J35" s="6">
-        <v>10389.081773219652</v>
+        <v>10532.223834424398</v>
       </c>
       <c r="K35" s="6">
-        <v>9898.6001719412179</v>
+        <v>10034.984316621427</v>
       </c>
       <c r="L35" s="6">
-        <v>10174.969307481466</v>
+        <v>10315.16130049497</v>
       </c>
       <c r="M35" s="6">
-        <v>10256.576023303092</v>
+        <v>10397.892403800095</v>
       </c>
       <c r="N35" s="6">
-        <v>9892.7110275004798</v>
+        <v>10029.014030815903</v>
       </c>
       <c r="O35" s="6">
-        <v>10194.003863620273</v>
+        <v>10334.458117116397</v>
       </c>
       <c r="P35" s="6">
-        <v>10401.175551981878</v>
+        <v>10544.484242775028</v>
       </c>
       <c r="Q35" s="6">
-        <v>10380.142893264961</v>
+        <v>10523.161793469582</v>
       </c>
       <c r="R35" s="6">
-        <v>10223.1340959432</v>
+        <v>10363.989709404439</v>
       </c>
       <c r="S35" s="6">
-        <v>10358.584418080125</v>
+        <v>10501.306282931502</v>
       </c>
       <c r="T35" s="6">
-        <v>10185.485636839923</v>
+        <v>10325.822525147692</v>
       </c>
       <c r="U35" s="6">
-        <v>10487.199126134055</v>
+        <v>10631.693060434296</v>
       </c>
       <c r="V35" s="6">
-        <v>10342.284107574516</v>
+        <v>10484.781384719781</v>
       </c>
       <c r="W35" s="6">
-        <v>10397.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+        <v>10540.859426393103</v>
+      </c>
+      <c r="X35" s="8">
+        <v>10683.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="6">
-        <v>74904.431806697117</v>
+        <v>75851.918765371869</v>
       </c>
       <c r="C36" s="6">
-        <v>75744.968506811594</v>
+        <v>76703.087647620792</v>
       </c>
       <c r="D36" s="6">
-        <v>75501.039167964351</v>
+        <v>76456.072778827962</v>
       </c>
       <c r="E36" s="6">
-        <v>77106.592649045546</v>
+        <v>78081.935351749082</v>
       </c>
       <c r="F36" s="6">
-        <v>76235.847981271974</v>
+        <v>77200.176392869471</v>
       </c>
       <c r="G36" s="6">
-        <v>75914.133125702559</v>
+        <v>76874.392076752658</v>
       </c>
       <c r="H36" s="6">
-        <v>76590.036402074926</v>
+        <v>77558.8450413643</v>
       </c>
       <c r="I36" s="6">
-        <v>76196.577623315141</v>
+        <v>77160.409293249584</v>
       </c>
       <c r="J36" s="6">
-        <v>75545.595920261534</v>
+        <v>76501.193141858254</v>
       </c>
       <c r="K36" s="6">
-        <v>71719.001617044967</v>
+        <v>72626.195184665732</v>
       </c>
       <c r="L36" s="6">
-        <v>71478.848274155127</v>
+        <v>72383.004075451754</v>
       </c>
       <c r="M36" s="6">
-        <v>72159.282745676348</v>
+        <v>73072.045551558011</v>
       </c>
       <c r="N36" s="6">
-        <v>72700.005366774261</v>
+        <v>73619.607923247357</v>
       </c>
       <c r="O36" s="6">
-        <v>71358.016403518719</v>
+        <v>72260.643768928989</v>
       </c>
       <c r="P36" s="6">
-        <v>72222.71947776046</v>
+        <v>73136.284712482462</v>
       </c>
       <c r="Q36" s="6">
-        <v>73576.791628079649</v>
+        <v>74507.484897453105</v>
       </c>
       <c r="R36" s="6">
-        <v>73598.6924046325</v>
+        <v>74529.662703010341</v>
       </c>
       <c r="S36" s="6">
-        <v>74234.570123856567</v>
+        <v>75173.583816086335</v>
       </c>
       <c r="T36" s="6">
-        <v>74018.583155093991</v>
+        <v>74954.864768176922</v>
       </c>
       <c r="U36" s="6">
-        <v>72883.518770303286</v>
+        <v>73805.442638778783</v>
       </c>
       <c r="V36" s="6">
-        <v>73449.162964719944</v>
+        <v>74378.241823688426</v>
       </c>
       <c r="W36" s="6">
-        <v>73229.399999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+        <v>74155.699016200175</v>
+      </c>
+      <c r="X36" s="8">
+        <v>75247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="6">
-        <v>27339.972215568861</v>
+        <v>27760.654313948016</v>
       </c>
       <c r="C37" s="6">
-        <v>27413.101784338298</v>
+        <v>27834.909132597044</v>
       </c>
       <c r="D37" s="6">
-        <v>27779.025588822351</v>
+        <v>28206.463432704993</v>
       </c>
       <c r="E37" s="6">
-        <v>27665.053845796774</v>
+        <v>28090.737998357647</v>
       </c>
       <c r="F37" s="6">
-        <v>27566.535898435686</v>
+        <v>27990.704148328579</v>
       </c>
       <c r="G37" s="6">
-        <v>27869.540677714336</v>
+        <v>28298.371283712091</v>
       </c>
       <c r="H37" s="6">
-        <v>28363.234257067259</v>
+        <v>28799.661361308717</v>
       </c>
       <c r="I37" s="6">
-        <v>28434.708062015499</v>
+        <v>28872.234938780781</v>
       </c>
       <c r="J37" s="6">
-        <v>28605.8036568723</v>
+        <v>29045.96319373322</v>
       </c>
       <c r="K37" s="6">
-        <v>27805.517809961471</v>
+        <v>28233.363291536338</v>
       </c>
       <c r="L37" s="6">
-        <v>27741.494942208603</v>
+        <v>28168.355299360588</v>
       </c>
       <c r="M37" s="6">
-        <v>27669.193255349765</v>
+        <v>28094.941101300043</v>
       </c>
       <c r="N37" s="6">
-        <v>27928.320293366753</v>
+        <v>28358.055345494133</v>
       </c>
       <c r="O37" s="6">
-        <v>28196.554032400312</v>
+        <v>28630.416416161504</v>
       </c>
       <c r="P37" s="6">
-        <v>28384.483226105924</v>
+        <v>28821.237289746357</v>
       </c>
       <c r="Q37" s="6">
-        <v>28622.637255721114</v>
+        <v>29063.055812365634</v>
       </c>
       <c r="R37" s="6">
-        <v>28193.242504757927</v>
+        <v>28627.053933807587</v>
       </c>
       <c r="S37" s="6">
-        <v>28817.46546534837</v>
+        <v>29260.881857521152</v>
       </c>
       <c r="T37" s="6">
-        <v>29260.65824815485</v>
+        <v>29710.894079220525</v>
       </c>
       <c r="U37" s="6">
-        <v>29710.198125609244</v>
+        <v>30167.351058764911</v>
       </c>
       <c r="V37" s="6">
-        <v>29552.624601958869</v>
+        <v>30007.352940090972</v>
       </c>
       <c r="W37" s="6">
-        <v>29725.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+        <v>30182.482229357542</v>
+      </c>
+      <c r="X37" s="8">
+        <v>30369.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="6">
-        <v>207876.64338253404</v>
+        <v>210445.8062740968</v>
       </c>
       <c r="C38" s="6">
-        <v>209053.89521192943</v>
+        <v>211637.60784638242</v>
       </c>
       <c r="D38" s="6">
-        <v>210698.49827007976</v>
+        <v>213302.53667600761</v>
       </c>
       <c r="E38" s="6">
-        <v>212072.94471076413</v>
+        <v>214693.97000244493</v>
       </c>
       <c r="F38" s="6">
-        <v>209462.08805729769</v>
+        <v>212050.84557747643</v>
       </c>
       <c r="G38" s="6">
-        <v>211240.78345112456</v>
+        <v>213851.52399992474</v>
       </c>
       <c r="H38" s="6">
-        <v>211335.43686454327</v>
+        <v>213947.34724191757</v>
       </c>
       <c r="I38" s="6">
-        <v>213386.26082194896</v>
+        <v>216023.51748509525</v>
       </c>
       <c r="J38" s="6">
-        <v>209600.12428519997</v>
+        <v>212190.58780538262</v>
       </c>
       <c r="K38" s="6">
-        <v>198511.87129241903</v>
+        <v>200965.2942694326</v>
       </c>
       <c r="L38" s="6">
-        <v>201136.53156867571</v>
+        <v>203622.39291719167</v>
       </c>
       <c r="M38" s="6">
-        <v>201339.64201830342</v>
+        <v>203828.01362396794</v>
       </c>
       <c r="N38" s="6">
-        <v>200931.44917293516</v>
+        <v>203414.77589287391</v>
       </c>
       <c r="O38" s="6">
-        <v>204518.41915228224</v>
+        <v>207046.07750089333</v>
       </c>
       <c r="P38" s="6">
-        <v>210739.90913845046</v>
+        <v>213344.45934437943</v>
       </c>
       <c r="Q38" s="6">
-        <v>209755.90802811828</v>
+        <v>212348.29689116249</v>
       </c>
       <c r="R38" s="6">
-        <v>210241.00677188928</v>
+        <v>212839.39100637563</v>
       </c>
       <c r="S38" s="6">
-        <v>206419.37520510828</v>
+        <v>208970.52761091571</v>
       </c>
       <c r="T38" s="6">
-        <v>204741.24906303882</v>
+        <v>207271.66138308475</v>
       </c>
       <c r="U38" s="6">
-        <v>201710.36788752675</v>
+        <v>204203.32132177314</v>
       </c>
       <c r="V38" s="6">
-        <v>207833.26056805046</v>
+        <v>210401.88728818338</v>
       </c>
       <c r="W38" s="6">
-        <v>208146.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+        <v>210719.30177728462</v>
+      </c>
+      <c r="X38" s="8">
+        <v>212292.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="6">
-        <v>87420.437408279919</v>
+        <v>88630.081840160798</v>
       </c>
       <c r="C39" s="6">
-        <v>88205.624855178816</v>
+        <v>89426.133996174423</v>
       </c>
       <c r="D39" s="6">
-        <v>88484.183594655144</v>
+        <v>89708.547177908753</v>
       </c>
       <c r="E39" s="6">
-        <v>88489.406571020314</v>
+        <v>89713.842425066265</v>
       </c>
       <c r="F39" s="6">
-        <v>88110.740784544687</v>
+        <v>89329.937006146167</v>
       </c>
       <c r="G39" s="6">
-        <v>88949.028491156263</v>
+        <v>90179.824174927911</v>
       </c>
       <c r="H39" s="6">
-        <v>88559.916751950266</v>
+        <v>89785.328261692775</v>
       </c>
       <c r="I39" s="6">
-        <v>88353.609185525609</v>
+        <v>89576.165998970799</v>
       </c>
       <c r="J39" s="6">
-        <v>87860.908415076861</v>
+        <v>89076.647683778196</v>
       </c>
       <c r="K39" s="6">
-        <v>84463.362289526529</v>
+        <v>85632.089407812338</v>
       </c>
       <c r="L39" s="6">
-        <v>86612.617063798578</v>
+        <v>87811.083613131254</v>
       </c>
       <c r="M39" s="6">
-        <v>86092.060419402187</v>
+        <v>87283.32397976522</v>
       </c>
       <c r="N39" s="6">
-        <v>83438.788425890176</v>
+        <v>84593.338423745765</v>
       </c>
       <c r="O39" s="6">
-        <v>86949.499039352755</v>
+        <v>88152.627054791199</v>
       </c>
       <c r="P39" s="6">
-        <v>88860.237892948178</v>
+        <v>90089.804973250095</v>
       </c>
       <c r="Q39" s="6">
-        <v>90062.392953000701</v>
+        <v>91308.594360672287</v>
       </c>
       <c r="R39" s="6">
-        <v>93134.373551788056</v>
+        <v>94423.08223048615</v>
       </c>
       <c r="S39" s="6">
-        <v>87766.024344442732</v>
+        <v>88980.450693749939</v>
       </c>
       <c r="T39" s="6">
-        <v>88500.723019811543</v>
+        <v>89725.315460574231</v>
       </c>
       <c r="U39" s="6">
-        <v>89855.214890515184</v>
+        <v>91098.549556757382</v>
       </c>
       <c r="V39" s="6">
-        <v>89846.509929906548</v>
+        <v>91089.724144828186</v>
       </c>
       <c r="W39" s="6">
-        <v>90162.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+        <v>91410.086597858055</v>
+      </c>
+      <c r="X39" s="8">
+        <v>90893.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="6">
-        <v>7376.7697209019398</v>
+        <v>7473.1526797225124</v>
       </c>
       <c r="C40" s="6">
-        <v>7479.9737790104227</v>
+        <v>7577.7051752716552</v>
       </c>
       <c r="D40" s="6">
-        <v>7523.6568671320019</v>
+        <v>7621.9590152863902</v>
       </c>
       <c r="E40" s="6">
-        <v>7486.2352671897397</v>
+        <v>7584.0484744305986</v>
       </c>
       <c r="F40" s="6">
-        <v>7488.5188687610189</v>
+        <v>7586.3619129473891</v>
       </c>
       <c r="G40" s="6">
-        <v>7555.6272891299195</v>
+        <v>7654.347154521457</v>
       </c>
       <c r="H40" s="6">
-        <v>7562.4780938437589</v>
+        <v>7661.2874700718285</v>
       </c>
       <c r="I40" s="6">
-        <v>7599.4577063851293</v>
+        <v>7698.7502486340481</v>
       </c>
       <c r="J40" s="6">
-        <v>7589.5866544318551</v>
+        <v>7688.7502240775984</v>
       </c>
       <c r="K40" s="6">
-        <v>7231.6505242754483</v>
+        <v>7326.1373933329241</v>
       </c>
       <c r="L40" s="6">
-        <v>7357.3222752626534</v>
+        <v>7453.4511388053297</v>
       </c>
       <c r="M40" s="6">
-        <v>7337.8011650565522</v>
+        <v>7433.6749708392172</v>
       </c>
       <c r="N40" s="6">
-        <v>7353.7127114886944</v>
+        <v>7449.7944134078225</v>
       </c>
       <c r="O40" s="6">
-        <v>7239.1643100906276</v>
+        <v>7333.7493523236544</v>
       </c>
       <c r="P40" s="6">
-        <v>7198.1331463744054</v>
+        <v>7292.1820860703556</v>
       </c>
       <c r="Q40" s="6">
-        <v>7143.4003732305055</v>
+        <v>7236.734188716312</v>
       </c>
       <c r="R40" s="6">
-        <v>7232.4608345104189</v>
+        <v>7326.95829087114</v>
       </c>
       <c r="S40" s="6">
-        <v>7234.9654297821453</v>
+        <v>7329.4956105347183</v>
       </c>
       <c r="T40" s="6">
-        <v>7198.7224629089296</v>
+        <v>7292.7791024617845</v>
       </c>
       <c r="U40" s="6">
-        <v>7244.6154880349723</v>
+        <v>7339.2717539443802</v>
       </c>
       <c r="V40" s="6">
-        <v>7158.0596220267871</v>
+        <v>7251.5849714531287</v>
       </c>
       <c r="W40" s="6">
-        <v>7144.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+        <v>7238.1521026459577</v>
+      </c>
+      <c r="X40" s="8">
+        <v>7293.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="6">
-        <v>84405.249176577767</v>
+        <v>85525.332064668561</v>
       </c>
       <c r="C41" s="6">
-        <v>84698.99405432705</v>
+        <v>85822.975024755622</v>
       </c>
       <c r="D41" s="6">
-        <v>85773.504302789632</v>
+        <v>86911.744345421917</v>
       </c>
       <c r="E41" s="6">
-        <v>84850.549382557117</v>
+        <v>85976.541537496203</v>
       </c>
       <c r="F41" s="6">
-        <v>85057.447948624002</v>
+        <v>86186.185709383615</v>
       </c>
       <c r="G41" s="6">
-        <v>85260.089342549589</v>
+        <v>86391.516215182797</v>
       </c>
       <c r="H41" s="6">
-        <v>85182.608809578043</v>
+        <v>86313.007492377234</v>
       </c>
       <c r="I41" s="6">
-        <v>86613.870083481059</v>
+        <v>87763.262031236212</v>
       </c>
       <c r="J41" s="6">
-        <v>85536.805531733698</v>
+        <v>86671.904510916982</v>
       </c>
       <c r="K41" s="6">
-        <v>80588.268634693668</v>
+        <v>81657.699049972056</v>
       </c>
       <c r="L41" s="6">
-        <v>83017.411058515965</v>
+        <v>84119.076919909407</v>
       </c>
       <c r="M41" s="6">
-        <v>83749.644666818509</v>
+        <v>84861.02748708296</v>
       </c>
       <c r="N41" s="6">
-        <v>83882.468437626885</v>
+        <v>84995.613869035369</v>
       </c>
       <c r="O41" s="6">
-        <v>84065.526839702521</v>
+        <v>85181.101510828739</v>
       </c>
       <c r="P41" s="6">
-        <v>85610.028892563947</v>
+        <v>86746.099567634345</v>
       </c>
       <c r="Q41" s="6">
-        <v>85970.185655717418</v>
+        <v>87111.035718697618</v>
       </c>
       <c r="R41" s="6">
-        <v>85257.535039264811</v>
+        <v>86388.928015529862</v>
       </c>
       <c r="S41" s="6">
-        <v>87137.502256860214</v>
+        <v>88293.842960087059</v>
       </c>
       <c r="T41" s="6">
-        <v>86464.869058535769</v>
+        <v>87612.283718148567</v>
       </c>
       <c r="U41" s="6">
-        <v>86610.464345768007</v>
+        <v>87759.811098365637</v>
       </c>
       <c r="V41" s="6">
-        <v>86046.814754260704</v>
+        <v>87188.681708285541</v>
       </c>
       <c r="W41" s="6">
-        <v>85978.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+        <v>87119.663050874035</v>
+      </c>
+      <c r="X41" s="8">
+        <v>87996.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="6">
-        <v>36417.185873830371</v>
+        <v>36912.521598670348</v>
       </c>
       <c r="C42" s="6">
-        <v>36617.258315725929</v>
+        <v>37115.315366380877</v>
       </c>
       <c r="D42" s="6">
-        <v>37011.94667837445</v>
+        <v>37515.37216268255</v>
       </c>
       <c r="E42" s="6">
-        <v>37045.413341382431</v>
+        <v>37549.294029281402</v>
       </c>
       <c r="F42" s="6">
-        <v>36929.007557006837</v>
+        <v>37431.304928068006</v>
       </c>
       <c r="G42" s="6">
-        <v>37131.626375435619</v>
+        <v>37636.679707367584</v>
       </c>
       <c r="H42" s="6">
-        <v>37332.062585407351</v>
+        <v>37839.842191019401</v>
       </c>
       <c r="I42" s="6">
-        <v>37822.785720165739</v>
+        <v>38337.239995822129</v>
       </c>
       <c r="J42" s="6">
-        <v>38704.195768734739</v>
+        <v>39230.63872157233</v>
       </c>
       <c r="K42" s="6">
-        <v>36945.740888510823</v>
+        <v>37448.265861367436</v>
       </c>
       <c r="L42" s="6">
-        <v>37763.855291825595</v>
+        <v>38277.508013332852</v>
       </c>
       <c r="M42" s="6">
-        <v>37357.890118815689</v>
+        <v>37866.021022851121</v>
       </c>
       <c r="N42" s="6">
-        <v>37560.872705320638</v>
+        <v>38071.764518091979</v>
       </c>
       <c r="O42" s="6">
-        <v>37862.072672392504</v>
+        <v>38377.061317481654</v>
       </c>
       <c r="P42" s="6">
-        <v>38235.662486622947</v>
+        <v>38755.732589188403</v>
       </c>
       <c r="Q42" s="6">
-        <v>38368.437834426368</v>
+        <v>38890.313907759933</v>
       </c>
       <c r="R42" s="6">
-        <v>38509.579847981782</v>
+        <v>39033.375692981179</v>
       </c>
       <c r="S42" s="6">
-        <v>38876.258068764924</v>
+        <v>39405.041361803385</v>
       </c>
       <c r="T42" s="6">
-        <v>38947.19284361881</v>
+        <v>39476.940970355303</v>
       </c>
       <c r="U42" s="6">
-        <v>39416.089893806769</v>
+        <v>39952.215818680517</v>
       </c>
       <c r="V42" s="6">
-        <v>39481.204379441879</v>
+        <v>40018.215972171769</v>
       </c>
       <c r="W42" s="6">
-        <v>39770.400000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+        <v>40311.345145498795</v>
+      </c>
+      <c r="X42" s="8">
+        <v>40597.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="6">
-        <v>35446.097823535332</v>
+        <v>35885.652031028447</v>
       </c>
       <c r="C43" s="6">
-        <v>35861.835356651798</v>
+        <v>36306.544974560013</v>
       </c>
       <c r="D43" s="6">
-        <v>36299.675391528894</v>
+        <v>36749.81450496288</v>
       </c>
       <c r="E43" s="6">
-        <v>36472.987072001073</v>
+        <v>36925.27536074735</v>
       </c>
       <c r="F43" s="6">
-        <v>36900.652939401058</v>
+        <v>37358.244557511054</v>
       </c>
       <c r="G43" s="6">
-        <v>37410.062979979208</v>
+        <v>37873.971607306703</v>
       </c>
       <c r="H43" s="6">
-        <v>37532.152989704555</v>
+        <v>37997.575610976732</v>
       </c>
       <c r="I43" s="6">
-        <v>38005.77802743217</v>
+        <v>38477.073901075986</v>
       </c>
       <c r="J43" s="6">
-        <v>37628.982997417756</v>
+        <v>38095.606372508133</v>
       </c>
       <c r="K43" s="6">
-        <v>35424.346155135987</v>
+        <v>35863.630628075734</v>
       </c>
       <c r="L43" s="6">
-        <v>36164.604547436196</v>
+        <v>36613.068696304945</v>
       </c>
       <c r="M43" s="6">
-        <v>35833.067021026865</v>
+        <v>36277.419893235463</v>
       </c>
       <c r="N43" s="6">
-        <v>37463.389650893732</v>
+        <v>37927.959562932687</v>
       </c>
       <c r="O43" s="6">
-        <v>37072.210453066837</v>
+        <v>37531.929493702555</v>
       </c>
       <c r="P43" s="6">
-        <v>37961.222190549655</v>
+        <v>38431.965543414794</v>
       </c>
       <c r="Q43" s="6">
-        <v>37721.603004795601</v>
+        <v>38189.374927016434</v>
       </c>
       <c r="R43" s="6">
-        <v>38592.371407491868</v>
+        <v>39070.941412961882</v>
       </c>
       <c r="S43" s="6">
-        <v>38847.778094503505</v>
+        <v>39329.515305696892</v>
       </c>
       <c r="T43" s="6">
-        <v>38629.208910426241</v>
+        <v>39108.235724414044</v>
       </c>
       <c r="U43" s="6">
-        <v>38804.625591066098</v>
+        <v>39285.827683710064</v>
       </c>
       <c r="V43" s="6">
-        <v>41742.854991783759</v>
+        <v>42260.493001918425</v>
       </c>
       <c r="W43" s="6">
-        <v>41846</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+        <v>42364.917073984485</v>
+      </c>
+      <c r="X43" s="8">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="6">
-        <v>87333.560943321601</v>
+        <v>88506.871543711881</v>
       </c>
       <c r="C44" s="6">
-        <v>87680.649218408507</v>
+        <v>88858.622887017147</v>
       </c>
       <c r="D44" s="6">
-        <v>88475.876785379762</v>
+        <v>89664.534192564621</v>
       </c>
       <c r="E44" s="6">
-        <v>88030.373606977097</v>
+        <v>89213.045759512053</v>
       </c>
       <c r="F44" s="6">
-        <v>87821.241937431056</v>
+        <v>89001.10444379902</v>
       </c>
       <c r="G44" s="6">
-        <v>88082.217172116638</v>
+        <v>89265.585833575373</v>
       </c>
       <c r="H44" s="6">
-        <v>87698.223308286324</v>
+        <v>88876.433081614872</v>
       </c>
       <c r="I44" s="6">
-        <v>88247.41361696813</v>
+        <v>89433.001662794079</v>
       </c>
       <c r="J44" s="6">
-        <v>86670.13905043398</v>
+        <v>87834.536697647403</v>
       </c>
       <c r="K44" s="6">
-        <v>82416.330595508189</v>
+        <v>83523.579095265755</v>
       </c>
       <c r="L44" s="6">
-        <v>83060.420989530205</v>
+        <v>84176.322727272724</v>
       </c>
       <c r="M44" s="6">
-        <v>84733.474345898474</v>
+        <v>85871.85325297706</v>
       </c>
       <c r="N44" s="6">
-        <v>82956.733859251093</v>
+        <v>84071.242579146099</v>
       </c>
       <c r="O44" s="6">
-        <v>82686.971579626581</v>
+        <v>83797.85609207087</v>
       </c>
       <c r="P44" s="6">
-        <v>83829.287421684741</v>
+        <v>84955.51874092361</v>
       </c>
       <c r="Q44" s="6">
-        <v>85367.898990487694</v>
+        <v>86514.801277955281</v>
       </c>
       <c r="R44" s="6">
-        <v>82837.230048081925</v>
+        <v>83950.133255881505</v>
       </c>
       <c r="S44" s="6">
-        <v>85020.810715400788</v>
+        <v>86163.049934650029</v>
       </c>
       <c r="T44" s="6">
-        <v>86168.398784422287</v>
+        <v>87326.055641882078</v>
       </c>
       <c r="U44" s="6">
-        <v>84362.661049476505</v>
+        <v>85496.05814696486</v>
       </c>
       <c r="V44" s="6">
-        <v>84351.237891055935</v>
+        <v>85484.481520476344</v>
       </c>
       <c r="W44" s="6">
-        <v>84431.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+        <v>85565.51790589602</v>
+      </c>
+      <c r="X44" s="8">
+        <v>85848.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="6">
-        <v>9710.2342487295045</v>
+        <v>9848.1445649258585</v>
       </c>
       <c r="C45" s="6">
-        <v>9843.5698590468874</v>
+        <v>9983.3738840568603</v>
       </c>
       <c r="D45" s="6">
-        <v>9712.9713433694506</v>
+        <v>9850.9205333537684</v>
       </c>
       <c r="E45" s="6">
-        <v>9642.8821699108248</v>
+        <v>9779.8359132533806</v>
       </c>
       <c r="F45" s="6">
-        <v>9652.9507680506285</v>
+        <v>9790.047511398905</v>
       </c>
       <c r="G45" s="6">
-        <v>9705.7375932495925</v>
+        <v>9843.584045365722</v>
       </c>
       <c r="H45" s="6">
-        <v>9766.9312091283919</v>
+        <v>9905.6467680754049</v>
       </c>
       <c r="I45" s="6">
-        <v>9851.4878828267338</v>
+        <v>9991.4043641518838</v>
       </c>
       <c r="J45" s="6">
-        <v>9677.3891130501488</v>
+        <v>9814.8329437909506</v>
       </c>
       <c r="K45" s="6">
-        <v>9225.6707440790087</v>
+        <v>9356.6990114563778</v>
       </c>
       <c r="L45" s="6">
-        <v>9302.9936676574944</v>
+        <v>9435.1201195448102</v>
       </c>
       <c r="M45" s="6">
-        <v>9516.389296193307</v>
+        <v>9651.5465151921526</v>
       </c>
       <c r="N45" s="6">
-        <v>9469.1744136542329</v>
+        <v>9603.66105981072</v>
       </c>
       <c r="O45" s="6">
-        <v>9744.8389452488263</v>
+        <v>9883.2407371929967</v>
       </c>
       <c r="P45" s="6">
-        <v>9608.179720011507</v>
+        <v>9744.6405992566779</v>
       </c>
       <c r="Q45" s="6">
-        <v>9867.0306702464277</v>
+        <v>10007.167899153224</v>
       </c>
       <c r="R45" s="6">
-        <v>9787.3616655479909</v>
+        <v>9926.3673895551565</v>
       </c>
       <c r="S45" s="6">
-        <v>9800.1673583277407</v>
+        <v>9939.3549561285872</v>
       </c>
       <c r="T45" s="6">
-        <v>10060.582362642632</v>
+        <v>10203.468523698226</v>
       </c>
       <c r="U45" s="6">
-        <v>9777.0975606481934</v>
+        <v>9915.9575079504957</v>
       </c>
       <c r="V45" s="6">
-        <v>10122.949019081409</v>
+        <v>10266.720947162727</v>
       </c>
       <c r="W45" s="6">
-        <v>10194.700000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+        <v>10339.490976665773</v>
+      </c>
+      <c r="X45" s="8">
+        <v>10350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="6">
-        <v>41441.348683610231</v>
+        <v>41991.58705115685</v>
       </c>
       <c r="C46" s="6">
-        <v>41963.067628217308</v>
+        <v>42520.233129882814</v>
       </c>
       <c r="D46" s="6">
-        <v>41700.131249287151</v>
+        <v>42253.805607722359</v>
       </c>
       <c r="E46" s="6">
-        <v>41371.14923963046</v>
+        <v>41920.455532602165</v>
       </c>
       <c r="F46" s="6">
-        <v>41549.763209519828</v>
+        <v>42101.441053185103</v>
       </c>
       <c r="G46" s="6">
-        <v>41837.622467969435</v>
+        <v>42393.122368915268</v>
       </c>
       <c r="H46" s="6">
-        <v>42343.141540888872</v>
+        <v>42905.353481820923</v>
       </c>
       <c r="I46" s="6">
-        <v>42913.044719233541</v>
+        <v>43482.82356144832</v>
       </c>
       <c r="J46" s="6">
-        <v>43719.715253012953</v>
+        <v>44300.204679987983</v>
       </c>
       <c r="K46" s="6">
-        <v>41049.228712504271</v>
+        <v>41594.260698993392</v>
       </c>
       <c r="L46" s="6">
-        <v>42529.647755959391</v>
+        <v>43094.336037034256</v>
       </c>
       <c r="M46" s="6">
-        <v>41940.637036649809</v>
+        <v>42497.504715670075</v>
       </c>
       <c r="N46" s="6">
-        <v>41997.544278219211</v>
+        <v>42555.167544320917</v>
       </c>
       <c r="O46" s="6">
-        <v>42016.236437858795</v>
+        <v>42574.107889498206</v>
       </c>
       <c r="P46" s="6">
-        <v>42639.723807170281</v>
+        <v>43205.873625300483</v>
       </c>
       <c r="Q46" s="6">
-        <v>42675.031219822828</v>
+        <v>43241.649832857569</v>
       </c>
       <c r="R46" s="6">
-        <v>42641.385332471582</v>
+        <v>43207.557211538471</v>
       </c>
       <c r="S46" s="6">
-        <v>43299.349351784964</v>
+        <v>43874.257361778844</v>
       </c>
       <c r="T46" s="6">
-        <v>43007.33628008212</v>
+        <v>43578.367080453732</v>
       </c>
       <c r="U46" s="6">
-        <v>43703.1</v>
+        <v>44283.368817608178</v>
       </c>
       <c r="V46" s="6">
-        <v>43660.315723491607</v>
+        <v>44240.016471980169</v>
       </c>
       <c r="W46" s="6">
-        <v>43703.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+        <v>44283.368817608178</v>
+      </c>
+      <c r="X46" s="8">
+        <v>44823.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="6">
-        <v>6862.6325979683406</v>
+        <v>6952.8464406306684</v>
       </c>
       <c r="C47" s="6">
-        <v>6967.2778037928047</v>
+        <v>7058.8672768708429</v>
       </c>
       <c r="D47" s="6">
-        <v>7031.6177271158458</v>
+        <v>7124.0529910236737</v>
       </c>
       <c r="E47" s="6">
-        <v>6988.3418710297283</v>
+        <v>7080.2082451978977</v>
       </c>
       <c r="F47" s="6">
-        <v>7020.8831543893357</v>
+        <v>7113.1773052416165</v>
       </c>
       <c r="G47" s="6">
-        <v>7076.0413048142309</v>
+        <v>7169.0605460211154</v>
       </c>
       <c r="H47" s="6">
-        <v>7085.6956689644885</v>
+        <v>7178.8418231710157</v>
       </c>
       <c r="I47" s="6">
-        <v>7105.8820667332066</v>
+        <v>7199.2935844844424</v>
       </c>
       <c r="J47" s="6">
-        <v>7116.2115612436228</v>
+        <v>7209.7588670294399</v>
       </c>
       <c r="K47" s="6">
-        <v>6843.1888435957953</v>
+        <v>6933.1470852518487</v>
       </c>
       <c r="L47" s="6">
-        <v>6960.053908939115</v>
+        <v>7051.5484191432952</v>
       </c>
       <c r="M47" s="6">
-        <v>7051.9391509565967</v>
+        <v>7144.6415534161197</v>
       </c>
       <c r="N47" s="6">
-        <v>6983.0758542204976</v>
+        <v>7074.873003116134</v>
       </c>
       <c r="O47" s="6">
-        <v>6926.6349561113029</v>
+        <v>7017.6901520859492</v>
       </c>
       <c r="P47" s="6">
-        <v>7090.4890945216084</v>
+        <v>7183.6982614762101</v>
       </c>
       <c r="Q47" s="6">
-        <v>7000.089139296475</v>
+        <v>7092.1099390726022</v>
       </c>
       <c r="R47" s="6">
-        <v>7128.5664468345094</v>
+        <v>7222.2761657597312</v>
       </c>
       <c r="S47" s="6">
-        <v>7211.2024029178283</v>
+        <v>7305.9984261197151</v>
       </c>
       <c r="T47" s="6">
-        <v>7046.740647183382</v>
+        <v>7139.3747118738665</v>
       </c>
       <c r="U47" s="6">
-        <v>7234.2243481992118</v>
+        <v>7329.3230100925548</v>
       </c>
       <c r="V47" s="6">
-        <v>7208.5018814771984</v>
+        <v>7303.2624045393241</v>
       </c>
       <c r="W47" s="6">
-        <v>7237.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+        <v>7332.743037068044</v>
+      </c>
+      <c r="X47" s="8">
+        <v>7353.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="6">
-        <v>47188.379960087841</v>
+        <v>47838.720981103477</v>
       </c>
       <c r="C48" s="6">
-        <v>47479.433682944386</v>
+        <v>48133.785949428777</v>
       </c>
       <c r="D48" s="6">
-        <v>47297.642846338196</v>
+        <v>47949.489707076726</v>
       </c>
       <c r="E48" s="6">
-        <v>46704.703304143382</v>
+        <v>47348.378388109813</v>
       </c>
       <c r="F48" s="6">
-        <v>45775.968771015388</v>
+        <v>46406.844217337166</v>
       </c>
       <c r="G48" s="6">
-        <v>45788.213749646893</v>
+        <v>46419.257953868648</v>
       </c>
       <c r="H48" s="6">
-        <v>46280.367698490081</v>
+        <v>46918.194672153346</v>
       </c>
       <c r="I48" s="6">
-        <v>47025.427552145498</v>
+        <v>47673.522794953707</v>
       </c>
       <c r="J48" s="6">
-        <v>47543.955301118083</v>
+        <v>48199.196791921604</v>
       </c>
       <c r="K48" s="6">
-        <v>45914.431221694715</v>
+        <v>46547.214930423957</v>
       </c>
       <c r="L48" s="6">
-        <v>46757.450904402183</v>
+        <v>47401.85294547621</v>
       </c>
       <c r="M48" s="6">
-        <v>46796.069683163078</v>
+        <v>47441.00396069089</v>
       </c>
       <c r="N48" s="6">
-        <v>46359.489098878264</v>
+        <v>46998.406508202948</v>
       </c>
       <c r="O48" s="6">
-        <v>47140.341966995009</v>
+        <v>47790.020937787645</v>
       </c>
       <c r="P48" s="6">
-        <v>47387.596343208097</v>
+        <v>48040.682925442634</v>
       </c>
       <c r="Q48" s="6">
-        <v>47689.482162546359</v>
+        <v>48346.729276084254</v>
       </c>
       <c r="R48" s="6">
-        <v>48364.368869428923</v>
+        <v>49030.917139531106</v>
       </c>
       <c r="S48" s="6">
-        <v>49058.564965691949</v>
+        <v>49734.680510585313</v>
       </c>
       <c r="T48" s="6">
-        <v>49964.693384423321</v>
+        <v>50653.297013915209</v>
       </c>
       <c r="U48" s="6">
-        <v>50164.851688976771</v>
+        <v>50856.213861064498</v>
       </c>
       <c r="V48" s="6">
-        <v>51221.687537018981</v>
+        <v>51927.614814012682</v>
       </c>
       <c r="W48" s="6">
-        <v>51683.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+        <v>52395.994642373713</v>
+      </c>
+      <c r="X48" s="8">
+        <v>52908.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="6">
-        <v>220275.20207283122</v>
+        <v>223186.18087279308</v>
       </c>
       <c r="C49" s="6">
-        <v>221799.1946354676</v>
+        <v>224730.31328775684</v>
       </c>
       <c r="D49" s="6">
-        <v>221625.46388157399</v>
+        <v>224554.28664882158</v>
       </c>
       <c r="E49" s="6">
-        <v>219978.32040478519</v>
+        <v>222885.37585689104</v>
       </c>
       <c r="F49" s="6">
-        <v>218716.02353472274</v>
+        <v>221606.39749298166</v>
       </c>
       <c r="G49" s="6">
-        <v>219461.52639003834</v>
+        <v>222361.75231069123</v>
       </c>
       <c r="H49" s="6">
-        <v>221537.4989428937</v>
+        <v>224465.15923670246</v>
       </c>
       <c r="I49" s="6">
-        <v>225810.39583928973</v>
+        <v>228794.52328038873</v>
       </c>
       <c r="J49" s="6">
-        <v>227778.61134226166</v>
+        <v>230788.74912655406</v>
       </c>
       <c r="K49" s="6">
-        <v>220545.69425927315</v>
+        <v>223460.24766505935</v>
       </c>
       <c r="L49" s="6">
-        <v>225258.41584907079</v>
+        <v>228235.24876934124</v>
       </c>
       <c r="M49" s="6">
-        <v>222582.08258972235</v>
+        <v>225523.54725561701</v>
       </c>
       <c r="N49" s="6">
-        <v>227552.10162515988</v>
+        <v>230559.24604034735</v>
       </c>
       <c r="O49" s="6">
-        <v>224141.26112783086</v>
+        <v>227103.33063542843</v>
       </c>
       <c r="P49" s="6">
-        <v>227180.44975923558</v>
+        <v>230182.68272414408</v>
       </c>
       <c r="Q49" s="6">
-        <v>226212.83543375213</v>
+        <v>229202.28119083372</v>
       </c>
       <c r="R49" s="6">
-        <v>229887.57074712211</v>
+        <v>232925.57883210998</v>
       </c>
       <c r="S49" s="6">
-        <v>230155.86381009704</v>
+        <v>233197.41743907332</v>
       </c>
       <c r="T49" s="6">
-        <v>229460.94079452261</v>
+        <v>232493.31088333225</v>
       </c>
       <c r="U49" s="6">
-        <v>233082.89714468436</v>
+        <v>236163.13207733707</v>
       </c>
       <c r="V49" s="6">
-        <v>233214.84455270483</v>
+        <v>236296.82319551575</v>
       </c>
       <c r="W49" s="6">
-        <v>233828.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+        <v>236918.4868950466</v>
+      </c>
+      <c r="X49" s="8">
+        <v>238903.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="6">
-        <v>25407.364685993813</v>
+        <v>25753.612825758246</v>
       </c>
       <c r="C50" s="6">
-        <v>25693.009614416231</v>
+        <v>26043.150484746064</v>
       </c>
       <c r="D50" s="6">
-        <v>25703.456931156034</v>
+        <v>26053.740176109579</v>
       </c>
       <c r="E50" s="6">
-        <v>25668.547604488889</v>
+        <v>26018.355109846125</v>
       </c>
       <c r="F50" s="6">
-        <v>25767.16008200849</v>
+        <v>26118.311464911498</v>
       </c>
       <c r="G50" s="6">
-        <v>26096.123153010576</v>
+        <v>26451.757600284618</v>
       </c>
       <c r="H50" s="6">
-        <v>26401.133839292139</v>
+        <v>26760.924931068217</v>
       </c>
       <c r="I50" s="6">
-        <v>26777.74686713186</v>
+        <v>27142.670390465177</v>
       </c>
       <c r="J50" s="6">
-        <v>26917.384173800445</v>
+        <v>27284.210655518986</v>
       </c>
       <c r="K50" s="6">
-        <v>26104.786781526509</v>
+        <v>26460.539295561681</v>
       </c>
       <c r="L50" s="6">
-        <v>26320.358244011226</v>
+        <v>26679.048536867387</v>
       </c>
       <c r="M50" s="6">
-        <v>26411.581156031942</v>
+        <v>26771.514622431732</v>
       </c>
       <c r="N50" s="6">
-        <v>26906.936857060642</v>
+        <v>27273.620964155471</v>
       </c>
       <c r="O50" s="6">
-        <v>26457.192612042301</v>
+        <v>26817.747665213908</v>
       </c>
       <c r="P50" s="6">
-        <v>26776.472804114812</v>
+        <v>27141.378964689138</v>
       </c>
       <c r="Q50" s="6">
-        <v>27029.50171930077</v>
+        <v>27397.856123810368</v>
       </c>
       <c r="R50" s="6">
-        <v>27343.940471908496</v>
+        <v>27716.580005336655</v>
       </c>
       <c r="S50" s="6">
-        <v>27524.092982519243</v>
+        <v>27899.187610068486</v>
       </c>
       <c r="T50" s="6">
-        <v>27691.759675562909</v>
+        <v>28069.139242195142</v>
       </c>
       <c r="U50" s="6">
-        <v>27967.97653765916</v>
+        <v>28349.120350440273</v>
       </c>
       <c r="V50" s="6">
-        <v>28271.967973527084</v>
+        <v>28657.25454060304</v>
       </c>
       <c r="W50" s="6">
-        <v>28337.200000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+        <v>28723.375540336208</v>
+      </c>
+      <c r="X50" s="8">
+        <v>29039</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="6">
-        <v>5551.6492845621024</v>
+        <v>5625.338315361746</v>
       </c>
       <c r="C51" s="6">
-        <v>5546.4433845715912</v>
+        <v>5620.0633155947398</v>
       </c>
       <c r="D51" s="6">
-        <v>5562.5595217762593</v>
+        <v>5636.3933680649398</v>
       </c>
       <c r="E51" s="6">
-        <v>5528.6657899231432</v>
+        <v>5602.0497525606024</v>
       </c>
       <c r="F51" s="6">
-        <v>5558.3504962520165</v>
+        <v>5632.1284746362971</v>
       </c>
       <c r="G51" s="6">
-        <v>5582.6631568460007</v>
+        <v>5656.7638458885913</v>
       </c>
       <c r="H51" s="6">
-        <v>5599.2777312838025</v>
+        <v>5673.5989515279725</v>
       </c>
       <c r="I51" s="6">
-        <v>5561.8949387987468</v>
+        <v>5635.719963839364</v>
       </c>
       <c r="J51" s="6">
-        <v>5701.6235098206653</v>
+        <v>5777.3032022665629</v>
       </c>
       <c r="K51" s="6">
-        <v>5436.6210475377165</v>
+        <v>5508.7832673184275</v>
       </c>
       <c r="L51" s="6">
-        <v>5567.8761855963558</v>
+        <v>5641.7806018695419</v>
       </c>
       <c r="M51" s="6">
-        <v>5532.1548505550809</v>
+        <v>5605.5851247448718</v>
       </c>
       <c r="N51" s="6">
-        <v>5628.1870908055789</v>
+        <v>5702.8920353404974</v>
       </c>
       <c r="O51" s="6">
-        <v>5536.8069313976648</v>
+        <v>5610.2989543238982</v>
       </c>
       <c r="P51" s="6">
-        <v>5644.6355194990028</v>
+        <v>5719.5587899234852</v>
       </c>
       <c r="Q51" s="6">
-        <v>5583.5492674826837</v>
+        <v>5657.661718189358</v>
       </c>
       <c r="R51" s="6">
-        <v>5628.5193822943347</v>
+        <v>5703.2287374532843</v>
       </c>
       <c r="S51" s="6">
-        <v>5823.9621595976851</v>
+        <v>5901.2656967912089</v>
       </c>
       <c r="T51" s="6">
-        <v>5565.2178536863075</v>
+        <v>5639.0869849672408</v>
       </c>
       <c r="U51" s="6">
-        <v>5691.5440013283996</v>
+        <v>5767.0899048453384</v>
       </c>
       <c r="V51" s="6">
-        <v>5835.5923617041462</v>
+        <v>5913.0502707387768</v>
       </c>
       <c r="W51" s="6">
-        <v>5836.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+        <v>5914.1726111147354</v>
+      </c>
+      <c r="X51" s="8">
+        <v>6021.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="6">
-        <v>111847.97594239558</v>
+        <v>113618.21411014436</v>
       </c>
       <c r="C52" s="6">
-        <v>112116.96456293757</v>
+        <v>113891.4600622899</v>
       </c>
       <c r="D52" s="6">
-        <v>112843.00588194285</v>
+        <v>114628.99256871664</v>
       </c>
       <c r="E52" s="6">
-        <v>111857.09420071905</v>
+        <v>113627.47668479335</v>
       </c>
       <c r="F52" s="6">
-        <v>111509.46060213725</v>
+        <v>113274.34102630019</v>
       </c>
       <c r="G52" s="6">
-        <v>112287.93190650239</v>
+        <v>114065.13333695866</v>
       </c>
       <c r="H52" s="6">
-        <v>114252.91657520739</v>
+        <v>116061.21817381847</v>
       </c>
       <c r="I52" s="6">
-        <v>114020.40098795923</v>
+        <v>115825.02252026895</v>
       </c>
       <c r="J52" s="6">
-        <v>114429.58283022438</v>
+        <v>116240.68055764287</v>
       </c>
       <c r="K52" s="6">
-        <v>112005.26589847523</v>
+        <v>113777.99352283965</v>
       </c>
       <c r="L52" s="6">
-        <v>111259.84828053261</v>
+        <v>113020.77804528378</v>
       </c>
       <c r="M52" s="6">
-        <v>111571.00884582059</v>
+        <v>113336.86340518095</v>
       </c>
       <c r="N52" s="6">
-        <v>111745.39553625669</v>
+        <v>113514.01014534308</v>
       </c>
       <c r="O52" s="6">
-        <v>112313.00711689189</v>
+        <v>114090.60541724342</v>
       </c>
       <c r="P52" s="6">
-        <v>113448.2302781623</v>
+        <v>115243.7959610441</v>
       </c>
       <c r="Q52" s="6">
-        <v>113286.38119292095</v>
+        <v>115079.38526102433</v>
       </c>
       <c r="R52" s="6">
-        <v>113311.45640331045</v>
+        <v>115104.85734130908</v>
       </c>
       <c r="S52" s="6">
-        <v>113570.18698323854</v>
+        <v>115367.6828969745</v>
       </c>
       <c r="T52" s="6">
-        <v>113924.65927556294</v>
+        <v>115727.76548645443</v>
       </c>
       <c r="U52" s="6">
-        <v>115144.22632632533</v>
+        <v>116966.63484575837</v>
       </c>
       <c r="V52" s="6">
-        <v>114435.28174167652</v>
+        <v>116246.4696667985</v>
       </c>
       <c r="W52" s="6">
-        <v>114444.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+        <v>116255.73224144751</v>
+      </c>
+      <c r="X52" s="8">
+        <v>117102.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="6">
-        <v>83053.772260065394</v>
+        <v>84171.5497359609</v>
       </c>
       <c r="C53" s="6">
-        <v>84322.990152445025</v>
+        <v>85457.849371089833</v>
       </c>
       <c r="D53" s="6">
-        <v>85144.541381281204</v>
+        <v>86290.457430144539</v>
       </c>
       <c r="E53" s="6">
-        <v>85349.307429235341</v>
+        <v>86497.979317719233</v>
       </c>
       <c r="F53" s="6">
-        <v>85302.053725861304</v>
+        <v>86450.08965135584</v>
       </c>
       <c r="G53" s="6">
-        <v>85526.716069972928</v>
+        <v>86677.775608978278</v>
       </c>
       <c r="H53" s="6">
-        <v>86066.403103244724</v>
+        <v>87224.726009023288</v>
       </c>
       <c r="I53" s="6">
-        <v>86429.510508118838</v>
+        <v>87592.720287394593</v>
       </c>
       <c r="J53" s="6">
-        <v>87027.228405183312</v>
+        <v>88198.482558412201</v>
       </c>
       <c r="K53" s="6">
-        <v>82702.271027949813</v>
+        <v>83815.317831784123</v>
       </c>
       <c r="L53" s="6">
-        <v>84104.130894712667</v>
+        <v>85236.044600564652</v>
       </c>
       <c r="M53" s="6">
-        <v>83961.540772250693</v>
+        <v>85091.535431889162</v>
       </c>
       <c r="N53" s="6">
-        <v>85553.244464849573</v>
+        <v>86704.661035708588</v>
       </c>
       <c r="O53" s="6">
-        <v>86052.309893466503</v>
+        <v>87210.443126072802</v>
       </c>
       <c r="P53" s="6">
-        <v>86563.810507181872</v>
+        <v>87728.827760216867</v>
       </c>
       <c r="Q53" s="6">
-        <v>85722.362982188206</v>
+        <v>86876.055631114417</v>
       </c>
       <c r="R53" s="6">
-        <v>87381.216674318581</v>
+        <v>88557.234971344951</v>
       </c>
       <c r="S53" s="6">
-        <v>87273.445070132206</v>
+        <v>88448.012925253017</v>
       </c>
       <c r="T53" s="6">
-        <v>87290.854329270005</v>
+        <v>88465.656486544802</v>
       </c>
       <c r="U53" s="6">
-        <v>89487.737029992408</v>
+        <v>90692.105887649712</v>
       </c>
       <c r="V53" s="6">
-        <v>88295.617285223037</v>
+        <v>89483.942023955809</v>
       </c>
       <c r="W53" s="6">
-        <v>88478</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+        <v>89668.779332726786</v>
+      </c>
+      <c r="X53" s="8">
+        <v>89573</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="6">
-        <v>14197.681323036277</v>
+        <v>14393.908246482184</v>
       </c>
       <c r="C54" s="6">
-        <v>14188.554741295691</v>
+        <v>14384.655525760465</v>
       </c>
       <c r="D54" s="6">
-        <v>14408.3057172682</v>
+        <v>14607.443691888055</v>
       </c>
       <c r="E54" s="6">
-        <v>14234.758061357399</v>
+        <v>14431.497424414158</v>
       </c>
       <c r="F54" s="6">
-        <v>14494.723038124359</v>
+        <v>14695.055391221813</v>
       </c>
       <c r="G54" s="6">
-        <v>14562.887195499346</v>
+        <v>14764.161649112135</v>
       </c>
       <c r="H54" s="6">
-        <v>14851.087534526239</v>
+        <v>15056.345220652605</v>
       </c>
       <c r="I54" s="6">
-        <v>14671.97836786727</v>
+        <v>14874.760576488909</v>
       </c>
       <c r="J54" s="6">
-        <v>15283.459344486422</v>
+        <v>15494.692864843943</v>
       </c>
       <c r="K54" s="6">
-        <v>14406.16667467275</v>
+        <v>14605.275085468902</v>
       </c>
       <c r="L54" s="6">
-        <v>14702.352772722652</v>
+        <v>14905.554787640871</v>
       </c>
       <c r="M54" s="6">
-        <v>14675.258233180291</v>
+        <v>14878.085772998276</v>
       </c>
       <c r="N54" s="6">
-        <v>14820.14271831207</v>
+        <v>15024.972714455533</v>
       </c>
       <c r="O54" s="6">
-        <v>15002.24654460467</v>
+        <v>15209.59340760604</v>
       </c>
       <c r="P54" s="6">
-        <v>15293.869351784278</v>
+        <v>15505.246749417152</v>
       </c>
       <c r="Q54" s="6">
-        <v>14857.076853793496</v>
+        <v>15062.417318626231</v>
       </c>
       <c r="R54" s="6">
-        <v>15237.541230104109</v>
+        <v>15448.140113712805</v>
       </c>
       <c r="S54" s="6">
-        <v>15212.443130317502</v>
+        <v>15422.695131728084</v>
       </c>
       <c r="T54" s="6">
-        <v>14914.545798191239</v>
+        <v>15120.680544420791</v>
       </c>
       <c r="U54" s="6">
-        <v>15435.616574442729</v>
+        <v>15648.953068126319</v>
       </c>
       <c r="V54" s="6">
-        <v>15449.021241374214</v>
+        <v>15662.543001686339</v>
       </c>
       <c r="W54" s="6">
-        <v>15436.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+        <v>15650.254231977809</v>
+      </c>
+      <c r="X54" s="8">
+        <v>15689</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="6">
-        <v>42835.500284985756</v>
+        <v>43366.739144786203</v>
       </c>
       <c r="C55" s="6">
-        <v>41212.092653367341</v>
+        <v>41723.198277569398</v>
       </c>
       <c r="D55" s="6">
-        <v>42038.463290835462</v>
+        <v>42559.817428357092</v>
       </c>
       <c r="E55" s="6">
-        <v>42478.886992650376</v>
+        <v>43005.70319279821</v>
       </c>
       <c r="F55" s="6">
-        <v>41847.375557222142</v>
+        <v>42366.359855963994</v>
       </c>
       <c r="G55" s="6">
-        <v>42625.974261286938</v>
+        <v>43154.614613653415</v>
       </c>
       <c r="H55" s="6">
-        <v>42175.493310334481</v>
+        <v>42698.546871717932</v>
       </c>
       <c r="I55" s="6">
-        <v>42997.254375281234</v>
+        <v>43530.499282820703</v>
       </c>
       <c r="J55" s="6">
-        <v>42404.29572821359</v>
+        <v>42930.18685971493</v>
       </c>
       <c r="K55" s="6">
-        <v>40249.111048447579</v>
+        <v>40748.273932483127</v>
       </c>
       <c r="L55" s="6">
-        <v>40454.865603719816</v>
+        <v>40956.58022205552</v>
       </c>
       <c r="M55" s="6">
-        <v>41880.061616919156</v>
+        <v>42399.451282820708</v>
       </c>
       <c r="N55" s="6">
-        <v>40655.172482375885</v>
+        <v>41159.371273818455</v>
       </c>
       <c r="O55" s="6">
-        <v>41780.746281685919</v>
+        <v>42298.904255063768</v>
       </c>
       <c r="P55" s="6">
-        <v>42675.422402879864</v>
+        <v>43204.676003000757</v>
       </c>
       <c r="Q55" s="6">
-        <v>42359.457159142054</v>
+        <v>42884.792210052517</v>
       </c>
       <c r="R55" s="6">
-        <v>41331.941538923063</v>
+        <v>41844.533509377354</v>
       </c>
       <c r="S55" s="6">
-        <v>42108.864034798265</v>
+        <v>42631.091270817706</v>
       </c>
       <c r="T55" s="6">
-        <v>42794.014132293385</v>
+        <v>43324.738487621908</v>
       </c>
       <c r="U55" s="6">
-        <v>42687.993964301786</v>
+        <v>43217.403474868719</v>
       </c>
       <c r="V55" s="6">
-        <v>41945.852788360586</v>
+        <v>42466.058385596407</v>
       </c>
       <c r="W55" s="6">
-        <v>41907.300000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+        <v>42427.027471867972</v>
+      </c>
+      <c r="X55" s="8">
+        <v>42414.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="6">
-        <v>7509.6977499405712</v>
+        <v>7608.8189430137554</v>
       </c>
       <c r="C56" s="6">
-        <v>7560.1924570814344</v>
+        <v>7659.9801344503057</v>
       </c>
       <c r="D56" s="6">
-        <v>7561.411032216055</v>
+        <v>7661.2147936704932</v>
       </c>
       <c r="E56" s="6">
-        <v>7419.8278337622614</v>
+        <v>7517.7628255248737</v>
       </c>
       <c r="F56" s="6">
-        <v>7363.5448947319464</v>
+        <v>7460.7370027924289</v>
       </c>
       <c r="G56" s="6">
-        <v>7305.2056101619592</v>
+        <v>7401.6276926259188</v>
       </c>
       <c r="H56" s="6">
-        <v>7318.4576147509633</v>
+        <v>7415.0546116454652</v>
       </c>
       <c r="I56" s="6">
-        <v>7369.5616094591378</v>
+        <v>7466.8331326921088</v>
       </c>
       <c r="J56" s="6">
-        <v>7343.5907269025247</v>
+        <v>7440.5194580618472</v>
       </c>
       <c r="K56" s="6">
-        <v>7063.2422849937466</v>
+        <v>7156.4706712172929</v>
       </c>
       <c r="L56" s="6">
-        <v>7134.8335741527389</v>
+        <v>7229.0069004033503</v>
       </c>
       <c r="M56" s="6">
-        <v>7140.5456450962765</v>
+        <v>7234.7943654979827</v>
       </c>
       <c r="N56" s="6">
-        <v>7246.409359916488</v>
+        <v>7342.055385251836</v>
       </c>
       <c r="O56" s="6">
-        <v>7130.7208830733925</v>
+        <v>7224.8399255352151</v>
       </c>
       <c r="P56" s="6">
-        <v>7165.2979525182691</v>
+        <v>7259.8733809080568</v>
       </c>
       <c r="Q56" s="6">
-        <v>7058.063340671607</v>
+        <v>7151.2233695314926</v>
       </c>
       <c r="R56" s="6">
-        <v>7223.408754250514</v>
+        <v>7318.7511924707824</v>
       </c>
       <c r="S56" s="6">
-        <v>7191.4211569667095</v>
+        <v>7286.3413879408417</v>
       </c>
       <c r="T56" s="6">
-        <v>7220.6669601976173</v>
+        <v>7315.9732092253598</v>
       </c>
       <c r="U56" s="6">
-        <v>7326.6068359637429</v>
+        <v>7423.3113951804735</v>
       </c>
       <c r="V56" s="6">
-        <v>7339.858840552748</v>
+        <v>7436.7383142000208</v>
       </c>
       <c r="W56" s="6">
-        <v>7368.8</v>
+        <v>7466.0614706794913</v>
+      </c>
+      <c r="X56" s="8">
+        <v>7461.2</v>
       </c>
     </row>
   </sheetData>
@@ -4469,28 +4635,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B5" sqref="B5:BI56"/>
       <selection pane="topRight" activeCell="B5" sqref="B5:BI56"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5:BI56"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
     <col min="2" max="19" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4548,3073 +4715,3232 @@
       <c r="S4" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="T4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>7.6474619364957933E-2</v>
+        <v>7.6474619364961249E-2</v>
       </c>
       <c r="C5" s="7">
-        <v>0.41173850645815341</v>
+        <v>0.41173850645815102</v>
       </c>
       <c r="D5" s="7">
-        <v>0.5989323808302297</v>
+        <v>0.59893238083021572</v>
       </c>
       <c r="E5" s="7">
-        <v>1.4846308645385262</v>
+        <v>1.4846308645385322</v>
       </c>
       <c r="F5" s="7">
-        <v>1.9620102417530123</v>
+        <v>1.9620102417530083</v>
       </c>
       <c r="G5" s="7">
-        <v>-2.8772510867315129</v>
+        <v>-2.8772510867315195</v>
       </c>
       <c r="H5" s="7">
-        <v>-1.8733938835160975</v>
+        <v>-1.8733938835160919</v>
       </c>
       <c r="I5" s="7">
-        <v>-2.6925357465711559</v>
+        <v>-2.6925357465711492</v>
       </c>
       <c r="J5" s="7">
-        <v>-2.5559416396570112</v>
+        <v>-2.5559416396569996</v>
       </c>
       <c r="K5" s="7">
-        <v>2.1789875370437981</v>
+        <v>2.1789875370438034</v>
       </c>
       <c r="L5" s="7">
-        <v>1.936148094838261</v>
+        <v>1.9361480948382672</v>
       </c>
       <c r="M5" s="7">
-        <v>1.8899777238354907</v>
+        <v>1.8899777238354978</v>
       </c>
       <c r="N5" s="7">
-        <v>2.3353143884532916</v>
+        <v>2.335314388453285</v>
       </c>
       <c r="O5" s="7">
-        <v>2.0967629793700731</v>
+        <v>2.0967629793700882</v>
       </c>
       <c r="P5" s="7">
-        <v>0.88545905609869435</v>
+        <v>0.8854590560986918</v>
       </c>
       <c r="Q5" s="7">
-        <v>1.2196198001941214</v>
+        <v>1.2196198001941132</v>
       </c>
       <c r="R5" s="7">
-        <v>1.1156335099996983</v>
+        <v>1.1156335099997143</v>
       </c>
       <c r="S5" s="7">
-        <v>1.0351201478743104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.0351201478742926</v>
+      </c>
+      <c r="T5" s="7">
+        <v>1.453092803545748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>-0.71544910418975372</v>
+        <v>-0.71544910418975516</v>
       </c>
       <c r="C6" s="7">
-        <v>0.32067932067933125</v>
+        <v>0.32067932067933069</v>
       </c>
       <c r="D6" s="7">
-        <v>2.5339503068101776</v>
+        <v>2.5339503068101981</v>
       </c>
       <c r="E6" s="7">
-        <v>2.2815131506657766</v>
+        <v>2.2815131506657833</v>
       </c>
       <c r="F6" s="7">
-        <v>3.1430843087327789</v>
+        <v>3.1430843087327824</v>
       </c>
       <c r="G6" s="7">
-        <v>-1.3861642485137695</v>
+        <v>-1.386164248513758</v>
       </c>
       <c r="H6" s="7">
-        <v>-0.7161847952986975</v>
+        <v>-0.71618479529869661</v>
       </c>
       <c r="I6" s="7">
-        <v>-1.4922895119783659</v>
+        <v>-1.4922895119783577</v>
       </c>
       <c r="J6" s="7">
-        <v>-1.7095351469497602</v>
+        <v>-1.7095351469497553</v>
       </c>
       <c r="K6" s="7">
-        <v>2.5265326318553325</v>
+        <v>2.5265326318553334</v>
       </c>
       <c r="L6" s="7">
-        <v>1.463453196177857</v>
+        <v>1.4634531961778356</v>
       </c>
       <c r="M6" s="7">
-        <v>1.6735240172507799</v>
+        <v>1.6735240172507762</v>
       </c>
       <c r="N6" s="7">
-        <v>2.6406702934519335</v>
+        <v>2.6406702934519246</v>
       </c>
       <c r="O6" s="7">
-        <v>2.6228442544641397</v>
+        <v>2.6228442544641357</v>
       </c>
       <c r="P6" s="7">
-        <v>2.2682119205297928</v>
+        <v>2.2682119205297981</v>
       </c>
       <c r="Q6" s="7">
-        <v>3.4996538375279171</v>
+        <v>3.4996538375279189</v>
       </c>
       <c r="R6" s="7">
-        <v>6.3650959455276954</v>
+        <v>6.365095945527699</v>
       </c>
       <c r="S6" s="7">
-        <v>5.6135670000192066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5.6135670000191968</v>
+      </c>
+      <c r="T6" s="7">
+        <v>5.8794960431962995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.29437504972552936</v>
+        <v>-0.29437504972553108</v>
       </c>
       <c r="C7" s="7">
-        <v>-1.2078629509749947</v>
+        <v>-1.2078629509749856</v>
       </c>
       <c r="D7" s="7">
-        <v>-2.2930286432259352</v>
+        <v>-2.2930286432259273</v>
       </c>
       <c r="E7" s="7">
-        <v>-2.4832307722748648</v>
+        <v>-2.4832307722748923</v>
       </c>
       <c r="F7" s="7">
-        <v>-2.2642036386849527</v>
+        <v>-2.2642036386849735</v>
       </c>
       <c r="G7" s="7">
-        <v>-6.2769697938308839</v>
+        <v>-6.2769697938308866</v>
       </c>
       <c r="H7" s="7">
-        <v>-4.8222789286503751</v>
+        <v>-4.8222789286503609</v>
       </c>
       <c r="I7" s="7">
-        <v>-2.8396639883126218</v>
+        <v>-2.8396639883126271</v>
       </c>
       <c r="J7" s="7">
-        <v>-4.930296164758242</v>
+        <v>-4.9302961647582233</v>
       </c>
       <c r="K7" s="7">
-        <v>1.2789359253092708E-2</v>
+        <v>1.2789359253098985E-2</v>
       </c>
       <c r="L7" s="7">
-        <v>-2.2198062023686278</v>
+        <v>-2.2198062023686522</v>
       </c>
       <c r="M7" s="7">
-        <v>-3.5836230930677133</v>
+        <v>-3.5836230930676924</v>
       </c>
       <c r="N7" s="7">
         <v>-0.75036229939347965</v>
       </c>
       <c r="O7" s="7">
-        <v>-0.29838022165387151</v>
+        <v>-0.29838022165388967</v>
       </c>
       <c r="P7" s="7">
-        <v>0.158687321206887</v>
+        <v>0.15868732120689369</v>
       </c>
       <c r="Q7" s="7">
-        <v>1.1674626639375414</v>
+        <v>1.1674626639375265</v>
       </c>
       <c r="R7" s="7">
-        <v>0.74954572986068302</v>
+        <v>0.74954572986068735</v>
       </c>
       <c r="S7" s="7">
-        <v>-0.58572039333049164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.5857203933304781</v>
+      </c>
+      <c r="T7" s="7">
+        <v>-9.1612597271022028E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="7">
-        <v>1.4361208600588993</v>
+        <v>1.4361208600588973</v>
       </c>
       <c r="C8" s="7">
-        <v>2.0643563858162413</v>
+        <v>2.0643563858162182</v>
       </c>
       <c r="D8" s="7">
-        <v>1.4429884919922595</v>
+        <v>1.4429884919922573</v>
       </c>
       <c r="E8" s="7">
-        <v>1.6841474378184003</v>
+        <v>1.6841474378183947</v>
       </c>
       <c r="F8" s="7">
-        <v>2.3235235633326736</v>
+        <v>2.3235235633326683</v>
       </c>
       <c r="G8" s="7">
-        <v>-3.9515206500729736</v>
+        <v>-3.9515206500729629</v>
       </c>
       <c r="H8" s="7">
-        <v>-2.4114032931924259</v>
+        <v>-2.4114032931924263</v>
       </c>
       <c r="I8" s="7">
-        <v>-0.25541278635704306</v>
+        <v>-0.25541278635703729</v>
       </c>
       <c r="J8" s="7">
-        <v>-2.4777247685027737</v>
+        <v>-2.4777247685027701</v>
       </c>
       <c r="K8" s="7">
-        <v>4.7989157776933498</v>
+        <v>4.7989157776933533</v>
       </c>
       <c r="L8" s="7">
-        <v>6.3431783383028399</v>
+        <v>6.3431783383028462</v>
       </c>
       <c r="M8" s="7">
-        <v>3.9857784431137708</v>
+        <v>3.9857784431137677</v>
       </c>
       <c r="N8" s="7">
-        <v>4.0312054759034339</v>
+        <v>4.0312054759034224</v>
       </c>
       <c r="O8" s="7">
-        <v>3.7748234072361564</v>
+        <v>3.7748234072361475</v>
       </c>
       <c r="P8" s="7">
-        <v>-0.24628442061590186</v>
+        <v>-0.24628442061590963</v>
       </c>
       <c r="Q8" s="7">
-        <v>1.2388357974295334</v>
+        <v>1.2388357974295261</v>
       </c>
       <c r="R8" s="7">
-        <v>2.8607548868435986</v>
+        <v>2.8607548868435999</v>
       </c>
       <c r="S8" s="7">
-        <v>2.3667912843170478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.3667912843170544</v>
+      </c>
+      <c r="T8" s="7">
+        <v>4.0955663808411451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7">
-        <v>1.2861090178347174</v>
+        <v>1.2861090178347243</v>
       </c>
       <c r="C9" s="7">
-        <v>2.5401893522214301</v>
+        <v>2.540189352221415</v>
       </c>
       <c r="D9" s="7">
-        <v>2.450936419180894</v>
+        <v>2.4509364191808967</v>
       </c>
       <c r="E9" s="7">
-        <v>3.0996147935253218</v>
+        <v>3.0996147935253489</v>
       </c>
       <c r="F9" s="7">
-        <v>3.4839541689400226</v>
+        <v>3.4839541689400173</v>
       </c>
       <c r="G9" s="7">
-        <v>-2.3117172334282658</v>
+        <v>-2.3117172334282516</v>
       </c>
       <c r="H9" s="7">
-        <v>-0.86683270420670955</v>
+        <v>-0.86683270420671366</v>
       </c>
       <c r="I9" s="7">
-        <v>-1.9552423726188546</v>
+        <v>-1.9552423726188666</v>
       </c>
       <c r="J9" s="7">
-        <v>-4.5879386868870755</v>
+        <v>-4.5879386868870649</v>
       </c>
       <c r="K9" s="7">
-        <v>3.0261153756922092</v>
+        <v>3.0261153756922301</v>
       </c>
       <c r="L9" s="7">
-        <v>0.3503537886296938</v>
+        <v>0.35035378862969124</v>
       </c>
       <c r="M9" s="7">
-        <v>-0.12932906843580691</v>
+        <v>-0.12932906843580649</v>
       </c>
       <c r="N9" s="7">
-        <v>2.6594729280324598</v>
+        <v>2.6594729280324612</v>
       </c>
       <c r="O9" s="7">
-        <v>-6.9514475655243407E-2</v>
+        <v>-6.9514475655246918E-2</v>
       </c>
       <c r="P9" s="7">
-        <v>1.0522815733369744</v>
+        <v>1.0522815733369799</v>
       </c>
       <c r="Q9" s="7">
-        <v>4.6994395073200135</v>
+        <v>4.6994395073200144</v>
       </c>
       <c r="R9" s="7">
-        <v>-0.97868425688502692</v>
+        <v>-0.9786842568850519</v>
       </c>
       <c r="S9" s="7">
-        <v>-0.90333705641447082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.90333705641449891</v>
+      </c>
+      <c r="T9" s="7">
+        <v>-1.7855414690796463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="7">
-        <v>-0.65345240688302419</v>
+        <v>-0.65345240688303963</v>
       </c>
       <c r="C10" s="7">
-        <v>0.76891785972955251</v>
+        <v>0.76891785972953963</v>
       </c>
       <c r="D10" s="7">
-        <v>1.0918554562859104</v>
+        <v>1.0918554562858886</v>
       </c>
       <c r="E10" s="7">
-        <v>1.1135096064622558</v>
+        <v>1.1135096064622507</v>
       </c>
       <c r="F10" s="7">
-        <v>1.9702617049690012</v>
+        <v>1.9702617049690139</v>
       </c>
       <c r="G10" s="7">
-        <v>-4.140165015851764</v>
+        <v>-4.1401650158517667</v>
       </c>
       <c r="H10" s="7">
-        <v>-1.4430427191935571</v>
+        <v>-1.4430427191935484</v>
       </c>
       <c r="I10" s="7">
-        <v>-5.0068103439948297</v>
+        <v>-5.0068103439948217</v>
       </c>
       <c r="J10" s="7">
-        <v>-2.1266822388803628</v>
+        <v>-2.1266822388803552</v>
       </c>
       <c r="K10" s="7">
-        <v>2.6971785417158802</v>
+        <v>2.6971785417158753</v>
       </c>
       <c r="L10" s="7">
-        <v>1.571257005604471</v>
+        <v>1.5712570056044792</v>
       </c>
       <c r="M10" s="7">
-        <v>2.2982427595183963</v>
+        <v>2.2982427595183812</v>
       </c>
       <c r="N10" s="7">
-        <v>1.1383721278571572</v>
+        <v>1.1383721278571521</v>
       </c>
       <c r="O10" s="7">
-        <v>0.96312520627681353</v>
+        <v>0.96312520627683595</v>
       </c>
       <c r="P10" s="7">
-        <v>3.3500837520957713E-2</v>
+        <v>3.3500837520955527E-2</v>
       </c>
       <c r="Q10" s="7">
-        <v>0.29225814147678719</v>
+        <v>0.29225814147680834</v>
       </c>
       <c r="R10" s="7">
-        <v>1.6952499432283914</v>
+        <v>1.6952499432283805</v>
       </c>
       <c r="S10" s="7">
-        <v>2.1198613174839092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.1198613174838998</v>
+      </c>
+      <c r="T10" s="7">
+        <v>2.2270596115204198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="7">
-        <v>1.2148033741237814</v>
+        <v>1.2148033741237791</v>
       </c>
       <c r="C11" s="7">
-        <v>1.728616123256155</v>
+        <v>1.7286161232561346</v>
       </c>
       <c r="D11" s="7">
-        <v>2.6192529298788587</v>
+        <v>2.6192529298788774</v>
       </c>
       <c r="E11" s="7">
-        <v>3.1547595720500068</v>
+        <v>3.1547595720499952</v>
       </c>
       <c r="F11" s="7">
-        <v>3.7297884203421665</v>
+        <v>3.7297884203421754</v>
       </c>
       <c r="G11" s="7">
-        <v>-0.45068134121219272</v>
+        <v>-0.45068134121219289</v>
       </c>
       <c r="H11" s="7">
-        <v>-0.63595130102649</v>
+        <v>-0.63595130102649933</v>
       </c>
       <c r="I11" s="7">
-        <v>-1.9859813084111992</v>
+        <v>-1.9859813084112168</v>
       </c>
       <c r="J11" s="7">
-        <v>-1.1466938252046213</v>
+        <v>-1.1466938252046264</v>
       </c>
       <c r="K11" s="7">
-        <v>2.0013018176872186</v>
+        <v>2.0013018176872182</v>
       </c>
       <c r="L11" s="7">
-        <v>2.1737668053700294</v>
+        <v>2.1737668053700228</v>
       </c>
       <c r="M11" s="7">
-        <v>3.6977819122648885</v>
+        <v>3.6977819122649094</v>
       </c>
       <c r="N11" s="7">
-        <v>2.6805815240202926</v>
+        <v>2.6805815240203099</v>
       </c>
       <c r="O11" s="7">
-        <v>3.0040097911289307</v>
+        <v>3.0040097911289387</v>
       </c>
       <c r="P11" s="7">
-        <v>1.5782394823224066</v>
+        <v>1.5782394823224013</v>
       </c>
       <c r="Q11" s="7">
-        <v>2.3716744694569805</v>
+        <v>2.3716744694569711</v>
       </c>
       <c r="R11" s="7">
-        <v>1.8822348984559387</v>
+        <v>1.8822348984559343</v>
       </c>
       <c r="S11" s="7">
-        <v>2.1517009255920243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.1517009255920265</v>
+      </c>
+      <c r="T11" s="7">
+        <v>3.6602190761025652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="7">
-        <v>-3.6676387217815196</v>
+        <v>-3.6676387217815063</v>
       </c>
       <c r="C12" s="7">
-        <v>-2.7831668455378553</v>
+        <v>-2.7831668455378455</v>
       </c>
       <c r="D12" s="7">
-        <v>-4.4881426134979341</v>
+        <v>-4.4881426134979199</v>
       </c>
       <c r="E12" s="7">
-        <v>-1.7532808398950237</v>
+        <v>-1.7532808398950073</v>
       </c>
       <c r="F12" s="7">
-        <v>-1.1293754035373584</v>
+        <v>-1.1293754035373715</v>
       </c>
       <c r="G12" s="7">
-        <v>-7.7488933943337441</v>
+        <v>-7.7488933943337424</v>
       </c>
       <c r="H12" s="7">
-        <v>-4.4322566244698889</v>
+        <v>-4.4322566244698853</v>
       </c>
       <c r="I12" s="7">
-        <v>-1.8251763197264341</v>
+        <v>-1.8251763197264395</v>
       </c>
       <c r="J12" s="7">
-        <v>-6.043250187346116</v>
+        <v>-6.0432501873461044</v>
       </c>
       <c r="K12" s="7">
-        <v>3.9881712635345812</v>
+        <v>3.9881712635345767</v>
       </c>
       <c r="L12" s="7">
-        <v>0.85638339283531495</v>
+        <v>0.85638339283530096</v>
       </c>
       <c r="M12" s="7">
-        <v>-0.19374782305816007</v>
+        <v>-0.1937478230581591</v>
       </c>
       <c r="N12" s="7">
-        <v>1.1713097476214933</v>
+        <v>1.1713097476214918</v>
       </c>
       <c r="O12" s="7">
-        <v>1.384262998904531</v>
+        <v>1.3842629989045303</v>
       </c>
       <c r="P12" s="7">
-        <v>1.3861473484555855</v>
+        <v>1.3861473484556075</v>
       </c>
       <c r="Q12" s="7">
-        <v>-0.13632298732741543</v>
+        <v>-0.13632298732743028</v>
       </c>
       <c r="R12" s="7">
-        <v>0.17794195488383066</v>
+        <v>0.17794195488381395</v>
       </c>
       <c r="S12" s="7">
-        <v>-3.0963503012311051</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-3.0963503012311064</v>
+      </c>
+      <c r="T12" s="7">
+        <v>-2.7648466391124722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="7">
-        <v>0.66126196522760561</v>
+        <v>0.66126196522759928</v>
       </c>
       <c r="C13" s="7">
-        <v>-2.7449634821817274E-2</v>
+        <v>-2.7449634821802408E-2</v>
       </c>
       <c r="D13" s="7">
-        <v>-0.59736580947883322</v>
+        <v>-0.59736580947885221</v>
       </c>
       <c r="E13" s="7">
-        <v>-3.2531522793404246</v>
+        <v>-3.2531522793404366</v>
       </c>
       <c r="F13" s="7">
-        <v>0.7859728111627623</v>
+        <v>0.78597281116275231</v>
       </c>
       <c r="G13" s="7">
-        <v>-3.5978701079655342</v>
+        <v>-3.5978701079655373</v>
       </c>
       <c r="H13" s="7">
-        <v>-1.7679729376072404</v>
+        <v>-1.7679729376072348</v>
       </c>
       <c r="I13" s="7">
-        <v>-1.0546788843662922</v>
+        <v>-1.0546788843662867</v>
       </c>
       <c r="J13" s="7">
-        <v>-5.5898408541692648</v>
+        <v>-5.5898408541692666</v>
       </c>
       <c r="K13" s="7">
-        <v>3.8725230906945511</v>
+        <v>3.8725230906945529</v>
       </c>
       <c r="L13" s="7">
-        <v>2.8763135823178412</v>
+        <v>2.8763135823178456</v>
       </c>
       <c r="M13" s="7">
-        <v>7.6559871927371477</v>
+        <v>7.6559871927371521</v>
       </c>
       <c r="N13" s="7">
-        <v>4.4992402688122306</v>
+        <v>4.4992402688122679</v>
       </c>
       <c r="O13" s="7">
-        <v>1.7215884052294004</v>
+        <v>1.721588405229399</v>
       </c>
       <c r="P13" s="7">
-        <v>1.3245731824285369</v>
+        <v>1.3245731824285465</v>
       </c>
       <c r="Q13" s="7">
-        <v>1.2470588235294149</v>
+        <v>1.2470588235294131</v>
       </c>
       <c r="R13" s="7">
-        <v>-1.0978501654094059</v>
+        <v>-1.0978501654094286</v>
       </c>
       <c r="S13" s="7">
-        <v>-2.9227999576405721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-2.9227999576405788</v>
+      </c>
+      <c r="T13" s="7">
+        <v>-4.4594428299618576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="7">
-        <v>-2.4081979524882358</v>
+        <v>-2.4081979524882278</v>
       </c>
       <c r="C14" s="7">
-        <v>-1.8910378696719654</v>
+        <v>-1.8910378696719634</v>
       </c>
       <c r="D14" s="7">
-        <v>-1.6905287419184842</v>
+        <v>-1.6905287419184831</v>
       </c>
       <c r="E14" s="7">
-        <v>0.27825914739812613</v>
+        <v>0.27825914739813479</v>
       </c>
       <c r="F14" s="7">
-        <v>3.5551190271266373</v>
+        <v>3.5551190271266315</v>
       </c>
       <c r="G14" s="7">
-        <v>3.356400694015119</v>
+        <v>3.3564006940151159</v>
       </c>
       <c r="H14" s="7">
-        <v>2.7438085493180209</v>
+        <v>2.7438085493180266</v>
       </c>
       <c r="I14" s="7">
-        <v>3.9766555408528022</v>
+        <v>3.9766555408528039</v>
       </c>
       <c r="J14" s="7">
-        <v>2.6205143248264502</v>
+        <v>2.6205143248264458</v>
       </c>
       <c r="K14" s="7">
-        <v>1.5725697526338118</v>
+        <v>1.5725697526338183</v>
       </c>
       <c r="L14" s="7">
-        <v>1.6262992506647478</v>
+        <v>1.6262992506647242</v>
       </c>
       <c r="M14" s="7">
-        <v>-0.79967329262155507</v>
+        <v>-0.79967329262155828</v>
       </c>
       <c r="N14" s="7">
-        <v>-1.1043353978084882</v>
+        <v>-1.1043353978084876</v>
       </c>
       <c r="O14" s="7">
-        <v>-1.7429380140954684</v>
+        <v>-1.7429380140954862</v>
       </c>
       <c r="P14" s="7">
-        <v>-2.4422731121618941</v>
+        <v>-2.4422731121618715</v>
       </c>
       <c r="Q14" s="7">
-        <v>-1.5816028568419533</v>
+        <v>-1.5816028568419427</v>
       </c>
       <c r="R14" s="7">
-        <v>-1.5136187145320812</v>
+        <v>-1.5136187145320825</v>
       </c>
       <c r="S14" s="7">
-        <v>-0.48913936605218905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.48913936605217467</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0.13165593914568618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>-3.8155140528786471</v>
+        <v>-3.8155140528786475</v>
       </c>
       <c r="C15" s="7">
-        <v>-2.1138059894620151</v>
+        <v>-2.1138059894620169</v>
       </c>
       <c r="D15" s="7">
-        <v>-0.99505588100875053</v>
+        <v>-0.99505588100878029</v>
       </c>
       <c r="E15" s="7">
-        <v>2.2381227968643289</v>
+        <v>2.2381227968643311</v>
       </c>
       <c r="F15" s="7">
-        <v>3.9605320149166952</v>
+        <v>3.9605320149167049</v>
       </c>
       <c r="G15" s="7">
-        <v>1.5619547170609305</v>
+        <v>1.5619547170609391</v>
       </c>
       <c r="H15" s="7">
-        <v>3.4432111458486236</v>
+        <v>3.4432111458486392</v>
       </c>
       <c r="I15" s="7">
-        <v>3.0207282682530106</v>
+        <v>3.0207282682530043</v>
       </c>
       <c r="J15" s="7">
-        <v>-0.54670352003903888</v>
+        <v>-0.54670352003902922</v>
       </c>
       <c r="K15" s="7">
-        <v>4.8803598575563774</v>
+        <v>4.8803598575563765</v>
       </c>
       <c r="L15" s="7">
-        <v>4.4969574036511171</v>
+        <v>4.4969574036511153</v>
       </c>
       <c r="M15" s="7">
-        <v>2.6804000119883833</v>
+        <v>2.6804000119883824</v>
       </c>
       <c r="N15" s="7">
-        <v>3.1225094513129736</v>
+        <v>3.1225094513129683</v>
       </c>
       <c r="O15" s="7">
-        <v>2.8016877637130784</v>
+        <v>2.8016877637130739</v>
       </c>
       <c r="P15" s="7">
-        <v>1.5014461245802435</v>
+        <v>1.501446124580242</v>
       </c>
       <c r="Q15" s="7">
-        <v>3.5814360770577731</v>
+        <v>3.581436077057782</v>
       </c>
       <c r="R15" s="7">
-        <v>2.9942730317262041</v>
+        <v>2.9942730317261992</v>
       </c>
       <c r="S15" s="7">
-        <v>0.85082136614291692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.85082136614292603</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0.58041135579120506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="7">
-        <v>0.48301433009320172</v>
+        <v>0.4830143300932081</v>
       </c>
       <c r="C16" s="7">
-        <v>-0.22162812192527653</v>
+        <v>-0.22162812192528078</v>
       </c>
       <c r="D16" s="7">
-        <v>1.0578489411577725</v>
+        <v>1.0578489411577645</v>
       </c>
       <c r="E16" s="7">
-        <v>2.2951278514164888</v>
+        <v>2.2951278514164679</v>
       </c>
       <c r="F16" s="7">
-        <v>2.0893170576033269</v>
+        <v>2.0893170576033042</v>
       </c>
       <c r="G16" s="7">
-        <v>-2.46523765887087</v>
+        <v>-2.465237658870866</v>
       </c>
       <c r="H16" s="7">
-        <v>-1.6306110614206728</v>
+        <v>-1.630611061420687</v>
       </c>
       <c r="I16" s="7">
-        <v>-3.0048664178083797</v>
+        <v>-3.0048664178083508</v>
       </c>
       <c r="J16" s="7">
-        <v>-0.15434661560855223</v>
+        <v>-0.15434661560855761</v>
       </c>
       <c r="K16" s="7">
-        <v>3.8735307033220541</v>
+        <v>3.8735307033220567</v>
       </c>
       <c r="L16" s="7">
-        <v>2.1991966587398402</v>
+        <v>2.1991966587398641</v>
       </c>
       <c r="M16" s="7">
-        <v>2.3876928036752436</v>
+        <v>2.3876928036752383</v>
       </c>
       <c r="N16" s="7">
-        <v>-0.10860100382548722</v>
+        <v>-0.10860100382549329</v>
       </c>
       <c r="O16" s="7">
-        <v>4.4851249582161774</v>
+        <v>4.4851249582161792</v>
       </c>
       <c r="P16" s="7">
-        <v>-0.30796906621824133</v>
+        <v>-0.30796906621824266</v>
       </c>
       <c r="Q16" s="7">
-        <v>2.7108404097255825</v>
+        <v>2.7108404097255736</v>
       </c>
       <c r="R16" s="7">
-        <v>0.99806068679111648</v>
+        <v>0.99806068679113635</v>
       </c>
       <c r="S16" s="7">
-        <v>-2.470924761940601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-2.4709247619406045</v>
+      </c>
+      <c r="T16" s="7">
+        <v>2.6272948375961098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7">
-        <v>-0.87170780188836083</v>
+        <v>-0.8717078018883514</v>
       </c>
       <c r="C17" s="7">
-        <v>-0.89586586668859147</v>
+        <v>-0.89586586668859458</v>
       </c>
       <c r="D17" s="7">
-        <v>-1.0869677100595991</v>
+        <v>-1.0869677100596107</v>
       </c>
       <c r="E17" s="7">
-        <v>-0.78975078975079971</v>
+        <v>-0.78975078975077551</v>
       </c>
       <c r="F17" s="7">
-        <v>0.38328981723238026</v>
+        <v>0.38328981723237637</v>
       </c>
       <c r="G17" s="7">
-        <v>-2.7471388289932057</v>
+        <v>-2.7471388289931951</v>
       </c>
       <c r="H17" s="7">
-        <v>-1.8689838180966647</v>
+        <v>-1.8689838180966616</v>
       </c>
       <c r="I17" s="7">
-        <v>-0.6305865703790674</v>
+        <v>-0.63058657037907595</v>
       </c>
       <c r="J17" s="7">
-        <v>0.68146113590727642</v>
+        <v>0.68146113590729596</v>
       </c>
       <c r="K17" s="7">
-        <v>2.7277378642846668</v>
+        <v>2.7277378642846637</v>
       </c>
       <c r="L17" s="7">
-        <v>1.486760198941663</v>
+        <v>1.4867601989416466</v>
       </c>
       <c r="M17" s="7">
-        <v>-2.911147180480663</v>
+        <v>-2.9111471804806612</v>
       </c>
       <c r="N17" s="7">
-        <v>-3.2333732897945575</v>
+        <v>-3.2333732897945913</v>
       </c>
       <c r="O17" s="7">
-        <v>-3.9834808504456731</v>
+        <v>-3.9834808504456629</v>
       </c>
       <c r="P17" s="7">
-        <v>-3.9184543526191145</v>
+        <v>-3.9184543526191047</v>
       </c>
       <c r="Q17" s="7">
-        <v>0.97287386075609072</v>
+        <v>0.97287386075608939</v>
       </c>
       <c r="R17" s="7">
-        <v>-0.90770265796696126</v>
+        <v>-0.90770265796695293</v>
       </c>
       <c r="S17" s="7">
-        <v>0.13832753366330661</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.13832753366330749</v>
+      </c>
+      <c r="T17" s="7">
+        <v>1.5203749823275632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="7">
-        <v>2.8879997593333639</v>
+        <v>2.8879997593333373</v>
       </c>
       <c r="C18" s="7">
-        <v>2.8141121486073053</v>
+        <v>2.8141121486072951</v>
       </c>
       <c r="D18" s="7">
-        <v>3.282457057726647</v>
+        <v>3.282457057726659</v>
       </c>
       <c r="E18" s="7">
-        <v>3.583045931964262</v>
+        <v>3.5830459319642811</v>
       </c>
       <c r="F18" s="7">
-        <v>2.3498338255216691</v>
+        <v>2.3498338255216855</v>
       </c>
       <c r="G18" s="7">
-        <v>-3.443028709562479</v>
+        <v>-3.443028709562463</v>
       </c>
       <c r="H18" s="7">
-        <v>-1.5446486569103304</v>
+        <v>-1.5446486569103419</v>
       </c>
       <c r="I18" s="7">
-        <v>-1.0149355378779963</v>
+        <v>-1.0149355378780081</v>
       </c>
       <c r="J18" s="7">
-        <v>-1.2341211647970813</v>
+        <v>-1.2341211647970816</v>
       </c>
       <c r="K18" s="7">
-        <v>5.0180534221708033</v>
+        <v>5.0180534221708069</v>
       </c>
       <c r="L18" s="7">
-        <v>2.3887374232295611</v>
+        <v>2.3887374232295615</v>
       </c>
       <c r="M18" s="7">
-        <v>3.0330249980888349</v>
+        <v>3.0330249980888344</v>
       </c>
       <c r="N18" s="7">
-        <v>2.1519890472242107</v>
+        <v>2.1519890472242147</v>
       </c>
       <c r="O18" s="7">
-        <v>3.4296080312283546</v>
+        <v>3.4296080312283346</v>
       </c>
       <c r="P18" s="7">
-        <v>3.5810061689203918</v>
+        <v>3.5810061689204016</v>
       </c>
       <c r="Q18" s="7">
-        <v>1.2993637662072617</v>
+        <v>1.2993637662072635</v>
       </c>
       <c r="R18" s="7">
-        <v>4.5946201038225523</v>
+        <v>4.5946201038225478</v>
       </c>
       <c r="S18" s="7">
-        <v>2.2231404958677525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.2231404958677508</v>
+      </c>
+      <c r="T18" s="7">
+        <v>3.698722874812451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="7">
-        <v>-0.80661423674129096</v>
+        <v>-0.80661423674128696</v>
       </c>
       <c r="C19" s="7">
-        <v>0.58138948048409</v>
+        <v>0.58138948048410122</v>
       </c>
       <c r="D19" s="7">
-        <v>2.4109661049503082</v>
+        <v>2.4109661049503277</v>
       </c>
       <c r="E19" s="7">
-        <v>0.76582554170000416</v>
+        <v>0.76582554170001726</v>
       </c>
       <c r="F19" s="7">
-        <v>-2.1345801992291767E-2</v>
+        <v>-2.1345801992269257E-2</v>
       </c>
       <c r="G19" s="7">
-        <v>-6.3522965609288562</v>
+        <v>-6.3522965609288669</v>
       </c>
       <c r="H19" s="7">
-        <v>-6.3015753938484655</v>
+        <v>-6.3015753938484513</v>
       </c>
       <c r="I19" s="7">
-        <v>-3.3788063092497267</v>
+        <v>-3.3788063092497471</v>
       </c>
       <c r="J19" s="7">
-        <v>-2.8700983133216025</v>
+        <v>-2.8700983133216011</v>
       </c>
       <c r="K19" s="7">
-        <v>3.0026039713241599</v>
+        <v>3.0026039713241506</v>
       </c>
       <c r="L19" s="7">
-        <v>2.0226707681934899</v>
+        <v>2.0226707681934832</v>
       </c>
       <c r="M19" s="7">
-        <v>1.2568669885133856</v>
+        <v>1.2568669885133785</v>
       </c>
       <c r="N19" s="7">
-        <v>2.8962904036174844</v>
+        <v>2.8962904036174981</v>
       </c>
       <c r="O19" s="7">
-        <v>0.22575711863172412</v>
+        <v>0.2257571186317312</v>
       </c>
       <c r="P19" s="7">
-        <v>-0.59786873735077206</v>
+        <v>-0.59786873735078061</v>
       </c>
       <c r="Q19" s="7">
-        <v>-0.46855733662144883</v>
+        <v>-0.46855733662142429</v>
       </c>
       <c r="R19" s="7">
-        <v>-3.391554682970007</v>
+        <v>-3.3915546829700256</v>
       </c>
       <c r="S19" s="7">
-        <v>-0.34773401980526109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.34773401980526142</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0.73027580117384494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="7">
-        <v>-0.11862630736076414</v>
+        <v>-0.11862630736075931</v>
       </c>
       <c r="C20" s="7">
-        <v>-1.7250275011438709</v>
+        <v>-1.7250275011438596</v>
       </c>
       <c r="D20" s="7">
-        <v>-0.86024016659856029</v>
+        <v>-0.86024016659854297</v>
       </c>
       <c r="E20" s="7">
-        <v>0.50971989864303291</v>
+        <v>0.5097198986430338</v>
       </c>
       <c r="F20" s="7">
-        <v>1.8883984243551879</v>
+        <v>1.8883984243551966</v>
       </c>
       <c r="G20" s="7">
-        <v>-2.8855583401848413</v>
+        <v>-2.8855583401848373</v>
       </c>
       <c r="H20" s="7">
-        <v>-1.1965291819627184</v>
+        <v>-1.1965291819627433</v>
       </c>
       <c r="I20" s="7">
-        <v>-3.5606517803259035</v>
+        <v>-3.5606517803259008</v>
       </c>
       <c r="J20" s="7">
-        <v>-4.9657101781516468</v>
+        <v>-4.9657101781516442</v>
       </c>
       <c r="K20" s="7">
-        <v>0.34884432566963719</v>
+        <v>0.34884432566962931</v>
       </c>
       <c r="L20" s="7">
-        <v>-2.1577802282955449</v>
+        <v>-2.1577802282955467</v>
       </c>
       <c r="M20" s="7">
-        <v>1.3151520045218021</v>
+        <v>1.3151520045218006</v>
       </c>
       <c r="N20" s="7">
-        <v>1.94615368890161</v>
+        <v>1.9461536889015945</v>
       </c>
       <c r="O20" s="7">
-        <v>3.0178898150030649</v>
+        <v>3.0178898150030613</v>
       </c>
       <c r="P20" s="7">
-        <v>3.905083919705151</v>
+        <v>3.9050839197051457</v>
       </c>
       <c r="Q20" s="7">
-        <v>1.4953326891082648</v>
+        <v>1.4953326891082759</v>
       </c>
       <c r="R20" s="7">
-        <v>3.1592773065431303</v>
+        <v>3.1592773065431499</v>
       </c>
       <c r="S20" s="7">
-        <v>1.8510296105536246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.8510296105536184</v>
+      </c>
+      <c r="T20" s="7">
+        <v>2.2495187280740434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="7">
-        <v>-0.52098868539839482</v>
+        <v>-0.52098868539839882</v>
       </c>
       <c r="C21" s="7">
-        <v>-0.60920131334308725</v>
+        <v>-0.60920131334307814</v>
       </c>
       <c r="D21" s="7">
-        <v>-0.68872969826140729</v>
+        <v>-0.68872969826142227</v>
       </c>
       <c r="E21" s="7">
-        <v>0.24391694925336338</v>
+        <v>0.24391694925336849</v>
       </c>
       <c r="F21" s="7">
-        <v>0.89051911967537389</v>
+        <v>0.89051911967536679</v>
       </c>
       <c r="G21" s="7">
-        <v>-4.8368159203980223</v>
+        <v>-4.836815920398017</v>
       </c>
       <c r="H21" s="7">
-        <v>-3.2489468245767226</v>
+        <v>-3.2489468245767399</v>
       </c>
       <c r="I21" s="7">
-        <v>-3.0583580613254324</v>
+        <v>-3.0583580613254147</v>
       </c>
       <c r="J21" s="7">
-        <v>-5.1760859874188823</v>
+        <v>-5.1760859874188858</v>
       </c>
       <c r="K21" s="7">
-        <v>-6.1690314620600442E-2</v>
+        <v>-6.1690314620593691E-2</v>
       </c>
       <c r="L21" s="7">
-        <v>-0.46417055187003697</v>
+        <v>-0.46417055187003348</v>
       </c>
       <c r="M21" s="7">
-        <v>-1.2682638151987333</v>
+        <v>-1.2682638151987451</v>
       </c>
       <c r="N21" s="7">
-        <v>1.9076473046385245</v>
+        <v>1.907647304638534</v>
       </c>
       <c r="O21" s="7">
-        <v>3.1188533165934453</v>
+        <v>3.1188533165934174</v>
       </c>
       <c r="P21" s="7">
-        <v>1.6311412830406578</v>
+        <v>1.6311412830406897</v>
       </c>
       <c r="Q21" s="7">
-        <v>3.1178628636386945</v>
+        <v>3.1178628636387007</v>
       </c>
       <c r="R21" s="7">
-        <v>-0.89598753408648291</v>
+        <v>-0.8959875340864939</v>
       </c>
       <c r="S21" s="7">
-        <v>-2.2047260072442496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-2.204726007244227</v>
+      </c>
+      <c r="T21" s="7">
+        <v>-2.0364035043194959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
-        <v>0.84805582445951555</v>
+        <v>0.84805582445950067</v>
       </c>
       <c r="C22" s="7">
-        <v>0.46605391056154932</v>
+        <v>0.46605391056156914</v>
       </c>
       <c r="D22" s="7">
-        <v>1.5632467739365936</v>
+        <v>1.5632467739365834</v>
       </c>
       <c r="E22" s="7">
-        <v>2.5202421035754359</v>
+        <v>2.5202421035754434</v>
       </c>
       <c r="F22" s="7">
-        <v>0.41296283334499229</v>
+        <v>0.41296283334499478</v>
       </c>
       <c r="G22" s="7">
-        <v>-4.386609714910092</v>
+        <v>-4.3866097149101</v>
       </c>
       <c r="H22" s="7">
         <v>-5.3038175722044656</v>
       </c>
       <c r="I22" s="7">
-        <v>-4.5490533394586743</v>
+        <v>-4.5490533394586814</v>
       </c>
       <c r="J22" s="7">
-        <v>-1.6002469578379197</v>
+        <v>-1.600246957837917</v>
       </c>
       <c r="K22" s="7">
-        <v>1.8981029359818795</v>
+        <v>1.8981029359818788</v>
       </c>
       <c r="L22" s="7">
-        <v>1.0942935232731448</v>
+        <v>1.0942935232731585</v>
       </c>
       <c r="M22" s="7">
-        <v>2.2764277595158284</v>
+        <v>2.2764277595158342</v>
       </c>
       <c r="N22" s="7">
-        <v>4.1491676364911162E-2</v>
+        <v>4.1491676364921272E-2</v>
       </c>
       <c r="O22" s="7">
-        <v>2.0024265657976477</v>
+        <v>2.0024265657976423</v>
       </c>
       <c r="P22" s="7">
-        <v>4.363587952769632</v>
+        <v>4.3635879527696044</v>
       </c>
       <c r="Q22" s="7">
-        <v>-0.16220112940045844</v>
+        <v>-0.16220112940046866</v>
       </c>
       <c r="R22" s="7">
-        <v>2.6644816703083247</v>
+        <v>2.6644816703083172</v>
       </c>
       <c r="S22" s="7">
-        <v>1.7002348942975647</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.7002348942975747</v>
+      </c>
+      <c r="T22" s="7">
+        <v>0.62113629673242521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="7">
-        <v>-0.96814802973383718</v>
+        <v>-0.96814802973382885</v>
       </c>
       <c r="C23" s="7">
-        <v>-0.27657838709034849</v>
+        <v>-0.2765783870903516</v>
       </c>
       <c r="D23" s="7">
-        <v>0.35181438552080124</v>
+        <v>0.35181438552079936</v>
       </c>
       <c r="E23" s="7">
-        <v>1.4492032368193113</v>
+        <v>1.4492032368193253</v>
       </c>
       <c r="F23" s="7">
-        <v>2.585780728215588</v>
+        <v>2.5857807282155822</v>
       </c>
       <c r="G23" s="7">
-        <v>-3.1535576040544351</v>
+        <v>-3.1535576040544209</v>
       </c>
       <c r="H23" s="7">
-        <v>-3.2495779124044177</v>
+        <v>-3.2495779124044142</v>
       </c>
       <c r="I23" s="7">
-        <v>-5.3941623742948019</v>
+        <v>-5.394162374294825</v>
       </c>
       <c r="J23" s="7">
-        <v>-5.8328907771286929</v>
+        <v>-5.8328907771286973</v>
       </c>
       <c r="K23" s="7">
-        <v>-1.6111254184908688</v>
+        <v>-1.6111254184908781</v>
       </c>
       <c r="L23" s="7">
-        <v>-1.15789689790387</v>
+        <v>-1.1578968979038808</v>
       </c>
       <c r="M23" s="7">
-        <v>-2.074107874364546E-3</v>
+        <v>-2.0741078743684044E-3</v>
       </c>
       <c r="N23" s="7">
-        <v>1.0307986339568296</v>
+        <v>1.0307986339568238</v>
       </c>
       <c r="O23" s="7">
-        <v>2.2185926228392554</v>
+        <v>2.2185926228392692</v>
       </c>
       <c r="P23" s="7">
-        <v>2.2909959497351604</v>
+        <v>2.2909959497351711</v>
       </c>
       <c r="Q23" s="7">
-        <v>2.0865957998444404</v>
+        <v>2.0865957998444276</v>
       </c>
       <c r="R23" s="7">
-        <v>3.4567594947176814</v>
+        <v>3.4567594947176787</v>
       </c>
       <c r="S23" s="7">
-        <v>2.5391785311891835</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.5391785311891759</v>
+      </c>
+      <c r="T23" s="7">
+        <v>1.5980344379467055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7">
-        <v>0.12427300293285772</v>
+        <v>0.12427300293285198</v>
       </c>
       <c r="C24" s="7">
-        <v>-0.35800466790615826</v>
+        <v>-0.35800466790617202</v>
       </c>
       <c r="D24" s="7">
-        <v>0.35021231001231906</v>
+        <v>0.35021231001229475</v>
       </c>
       <c r="E24" s="7">
-        <v>0.45386080936850215</v>
+        <v>0.45386080936848155</v>
       </c>
       <c r="F24" s="7">
-        <v>1.2640254195213889</v>
+        <v>1.2640254195214091</v>
       </c>
       <c r="G24" s="7">
         <v>-4.6161938980090209</v>
       </c>
       <c r="H24" s="7">
-        <v>-2.2521231055176276</v>
+        <v>-2.2521231055176036</v>
       </c>
       <c r="I24" s="7">
-        <v>-4.0325303358290521</v>
+        <v>-4.0325303358290565</v>
       </c>
       <c r="J24" s="7">
-        <v>-4.8586529127403395</v>
+        <v>-4.8586529127403635</v>
       </c>
       <c r="K24" s="7">
-        <v>0.88654880700914918</v>
+        <v>0.88654880700915195</v>
       </c>
       <c r="L24" s="7">
-        <v>-1.1459376359094078</v>
+        <v>-1.1459376359094131</v>
       </c>
       <c r="M24" s="7">
-        <v>-0.47079517822960959</v>
+        <v>-0.47079517822961064</v>
       </c>
       <c r="N24" s="7">
-        <v>-0.16799274436246783</v>
+        <v>-0.16799274436245132</v>
       </c>
       <c r="O24" s="7">
-        <v>1.650250116032639E-2</v>
+        <v>1.6502501160330144E-2</v>
       </c>
       <c r="P24" s="7">
-        <v>-1.4569563526980454</v>
+        <v>-1.4569563526980416</v>
       </c>
       <c r="Q24" s="7">
-        <v>2.540804657448803</v>
+        <v>2.5408046574488075</v>
       </c>
       <c r="R24" s="7">
-        <v>0.72059051256905537</v>
+        <v>0.72059051256902518</v>
       </c>
       <c r="S24" s="7">
-        <v>0.82292644192594477</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.82292644192594322</v>
+      </c>
+      <c r="T24" s="7">
+        <v>2.1409140934859066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7">
-        <v>-1.197640647923587</v>
+        <v>-1.1976406479235904</v>
       </c>
       <c r="C25" s="7">
-        <v>-0.62819986173592202</v>
+        <v>-0.6281998617359259</v>
       </c>
       <c r="D25" s="7">
         <v>-1.026875250701957</v>
       </c>
       <c r="E25" s="7">
-        <v>1.3840760738173832</v>
+        <v>1.3840760738173683</v>
       </c>
       <c r="F25" s="7">
-        <v>0.42627554370333726</v>
+        <v>0.42627554370334109</v>
       </c>
       <c r="G25" s="7">
-        <v>-2.4853299993950579</v>
+        <v>-2.4853299993950526</v>
       </c>
       <c r="H25" s="7">
-        <v>1.438761449298865</v>
+        <v>1.4387614492988585</v>
       </c>
       <c r="I25" s="7">
-        <v>-1.3323927428809728</v>
+        <v>-1.3323927428809721</v>
       </c>
       <c r="J25" s="7">
-        <v>-0.58338949295406783</v>
+        <v>-0.58338949295406128</v>
       </c>
       <c r="K25" s="7">
-        <v>4.0685711922412935</v>
+        <v>4.0685711922412793</v>
       </c>
       <c r="L25" s="7">
-        <v>0.48843341723600336</v>
+        <v>0.48843341723599892</v>
       </c>
       <c r="M25" s="7">
-        <v>3.5416142188207878</v>
+        <v>3.5416142188207953</v>
       </c>
       <c r="N25" s="7">
-        <v>4.161312842096752</v>
+        <v>4.1613128420967449</v>
       </c>
       <c r="O25" s="7">
-        <v>3.0679966617652843</v>
+        <v>3.0679966617652945</v>
       </c>
       <c r="P25" s="7">
-        <v>2.7503603200635984</v>
+        <v>2.7503603200636197</v>
       </c>
       <c r="Q25" s="7">
-        <v>-0.47946937425842495</v>
+        <v>-0.47946937425842739</v>
       </c>
       <c r="R25" s="7">
-        <v>2.2000543942808277</v>
+        <v>2.2000543942808308</v>
       </c>
       <c r="S25" s="7">
-        <v>0.89936379410063805</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.89936379410063982</v>
+      </c>
+      <c r="T25" s="7">
+        <v>2.2240065007932537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="7">
-        <v>-1.292157903699152</v>
+        <v>-1.2921579036991631</v>
       </c>
       <c r="C26" s="7">
-        <v>0.29226844505151428</v>
+        <v>0.29226844505152133</v>
       </c>
       <c r="D26" s="7">
-        <v>-6.2983624257683779E-2</v>
+        <v>-6.2983624257690246E-2</v>
       </c>
       <c r="E26" s="7">
-        <v>2.154954882209255</v>
+        <v>2.1549548822092568</v>
       </c>
       <c r="F26" s="7">
-        <v>2.9225820200318506</v>
+        <v>2.9225820200318591</v>
       </c>
       <c r="G26" s="7">
-        <v>1.3258960313247947</v>
+        <v>1.3258960313247965</v>
       </c>
       <c r="H26" s="7">
-        <v>1.4555385492632407</v>
+        <v>1.4555385492632456</v>
       </c>
       <c r="I26" s="7">
-        <v>0.90999812269660096</v>
+        <v>0.90999812269659752</v>
       </c>
       <c r="J26" s="7">
-        <v>0.73947723889059336</v>
+        <v>0.73947723889058958</v>
       </c>
       <c r="K26" s="7">
-        <v>1.0466391911524922</v>
+        <v>1.0466391911524846</v>
       </c>
       <c r="L26" s="7">
-        <v>0.68922676447966813</v>
+        <v>0.68922676447967057</v>
       </c>
       <c r="M26" s="7">
-        <v>2.2520317242737217E-2</v>
+        <v>2.25203172427316E-2</v>
       </c>
       <c r="N26" s="7">
-        <v>0.60485646893012657</v>
+        <v>0.60485646893013367</v>
       </c>
       <c r="O26" s="7">
-        <v>0.59956964006258961</v>
+        <v>0.59956964006260571</v>
       </c>
       <c r="P26" s="7">
-        <v>1.9027194296737995</v>
+        <v>1.902719429673809</v>
       </c>
       <c r="Q26" s="7">
-        <v>2.5246444059401028</v>
+        <v>2.5246444059401081</v>
       </c>
       <c r="R26" s="7">
-        <v>3.0304209512506146</v>
+        <v>3.0304209512506013</v>
       </c>
       <c r="S26" s="7">
-        <v>3.8102923589978062</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.8102923589978004</v>
+      </c>
+      <c r="T26" s="7">
+        <v>3.2019988468191336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="7">
-        <v>0.88597308386021734</v>
+        <v>0.88597308386020568</v>
       </c>
       <c r="C27" s="7">
-        <v>9.4569168480869686E-2</v>
+        <v>9.4569168480871851E-2</v>
       </c>
       <c r="D27" s="7">
-        <v>9.7349918875074146E-2</v>
+        <v>9.7349918875066527E-2</v>
       </c>
       <c r="E27" s="7">
-        <v>-1.0164555118683769</v>
+        <v>-1.0164555118683616</v>
       </c>
       <c r="F27" s="7">
-        <v>-0.60903732809429123</v>
+        <v>-0.60903732809428412</v>
       </c>
       <c r="G27" s="7">
-        <v>-5.0497495300613231</v>
+        <v>-5.0497495300613249</v>
       </c>
       <c r="H27" s="7">
-        <v>-5.6250859579150054</v>
+        <v>-5.6250859579149912</v>
       </c>
       <c r="I27" s="7">
-        <v>-4.4076972871182161</v>
+        <v>-4.4076972871182241</v>
       </c>
       <c r="J27" s="7">
-        <v>-4.6323384067997644</v>
+        <v>-4.6323384067997733</v>
       </c>
       <c r="K27" s="7">
-        <v>0.20211861771597098</v>
+        <v>0.20211861771597645</v>
       </c>
       <c r="L27" s="7">
-        <v>0.82649789732272949</v>
+        <v>0.82649789732271683</v>
       </c>
       <c r="M27" s="7">
-        <v>1.2189115981285406</v>
+        <v>1.218911598128549</v>
       </c>
       <c r="N27" s="7">
-        <v>1.976309162322663</v>
+        <v>1.9763091623226556</v>
       </c>
       <c r="O27" s="7">
-        <v>2.4505291032656564</v>
+        <v>2.4505291032656502</v>
       </c>
       <c r="P27" s="7">
-        <v>2.8070863703000262</v>
+        <v>2.8070863703000271</v>
       </c>
       <c r="Q27" s="7">
-        <v>-1.8296638689534948</v>
+        <v>-1.8296638689535052</v>
       </c>
       <c r="R27" s="7">
-        <v>3.1219512195121739</v>
+        <v>3.1219512195122059</v>
       </c>
       <c r="S27" s="7">
         <v>2.5817330021606946</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T27" s="7">
+        <v>2.6350408210401528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="7">
-        <v>0.43881428933367095</v>
+        <v>0.43881428933368577</v>
       </c>
       <c r="C28" s="7">
-        <v>0.60711013561813754</v>
+        <v>0.60711013561813132</v>
       </c>
       <c r="D28" s="7">
-        <v>1.7333696342680815</v>
+        <v>1.7333696342680809</v>
       </c>
       <c r="E28" s="7">
-        <v>3.076659684176585</v>
+        <v>3.0766596841765983</v>
       </c>
       <c r="F28" s="7">
-        <v>2.2853856399079793</v>
+        <v>2.2853856399079748</v>
       </c>
       <c r="G28" s="7">
-        <v>-4.3572243460160571</v>
+        <v>-4.3572243460160456</v>
       </c>
       <c r="H28" s="7">
-        <v>-3.8655961938745227</v>
+        <v>-3.865596193874524</v>
       </c>
       <c r="I28" s="7">
-        <v>-4.6682494553057543</v>
+        <v>-4.668249455305773</v>
       </c>
       <c r="J28" s="7">
-        <v>-5.1532459333353096</v>
+        <v>-5.1532459333353007</v>
       </c>
       <c r="K28" s="7">
-        <v>3.0406395178504169</v>
+        <v>3.040639517850412</v>
       </c>
       <c r="L28" s="7">
-        <v>3.2683781833178678</v>
+        <v>3.2683781833178549</v>
       </c>
       <c r="M28" s="7">
-        <v>1.9226630317813351</v>
+        <v>1.9226630317813338</v>
       </c>
       <c r="N28" s="7">
-        <v>4.2111722430810508</v>
+        <v>4.2111722430810357</v>
       </c>
       <c r="O28" s="7">
-        <v>2.5305144296188034</v>
+        <v>2.5305144296187865</v>
       </c>
       <c r="P28" s="7">
-        <v>3.2018769968051179</v>
+        <v>3.2018769968051211</v>
       </c>
       <c r="Q28" s="7">
-        <v>3.5907852265985647</v>
+        <v>3.5907852265985611</v>
       </c>
       <c r="R28" s="7">
-        <v>0.65270763887503902</v>
+        <v>0.65270763887504135</v>
       </c>
       <c r="S28" s="7">
-        <v>0.6496979300782465</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.64969793007825272</v>
+      </c>
+      <c r="T28" s="7">
+        <v>-0.74975572474774266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="7">
-        <v>3.2732130928523726</v>
+        <v>3.2732130928523686</v>
       </c>
       <c r="C29" s="7">
-        <v>3.3966201120067741</v>
+        <v>3.3966201120067954</v>
       </c>
       <c r="D29" s="7">
-        <v>4.0270423415854273</v>
+        <v>4.027042341585422</v>
       </c>
       <c r="E29" s="7">
-        <v>3.4537091407320561</v>
+        <v>3.4537091407320557</v>
       </c>
       <c r="F29" s="7">
-        <v>2.0186905060724856</v>
+        <v>2.0186905060724758</v>
       </c>
       <c r="G29" s="7">
-        <v>-6.6805010851768811</v>
+        <v>-6.6805010851768625</v>
       </c>
       <c r="H29" s="7">
-        <v>-4.9135987978963236</v>
+        <v>-4.9135987978963183</v>
       </c>
       <c r="I29" s="7">
-        <v>-3.3308422177865764</v>
+        <v>-3.3308422177865888</v>
       </c>
       <c r="J29" s="7">
-        <v>-6.5693223434557728</v>
+        <v>-6.5693223434557471</v>
       </c>
       <c r="K29" s="7">
-        <v>2.9581573739722935</v>
+        <v>2.9581573739722722</v>
       </c>
       <c r="L29" s="7">
-        <v>0.70026074589126686</v>
+        <v>0.70026074589125464</v>
       </c>
       <c r="M29" s="7">
-        <v>0.68501193877951116</v>
+        <v>0.68501193877950972</v>
       </c>
       <c r="N29" s="7">
-        <v>1.8231355906453093</v>
+        <v>1.8231355906452977</v>
       </c>
       <c r="O29" s="7">
-        <v>2.4303009887649449</v>
+        <v>2.4303009887649307</v>
       </c>
       <c r="P29" s="7">
-        <v>1.5114214816050207</v>
+        <v>1.5114214816050062</v>
       </c>
       <c r="Q29" s="7">
-        <v>0.85335510457974428</v>
+        <v>0.85335510457974173</v>
       </c>
       <c r="R29" s="7">
-        <v>1.2085824273109522</v>
+        <v>1.2085824273109673</v>
       </c>
       <c r="S29" s="7">
-        <v>-1.3483319953185675</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.3483319953185495</v>
+      </c>
+      <c r="T29" s="7">
+        <v>-0.54107325745425106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="7">
-        <v>0.11511348355813408</v>
+        <v>0.11511348355813342</v>
       </c>
       <c r="C30" s="7">
-        <v>1.0084703333980587</v>
+        <v>1.008470333398036</v>
       </c>
       <c r="D30" s="7">
-        <v>1.1740787801778845</v>
+        <v>1.1740787801778825</v>
       </c>
       <c r="E30" s="7">
-        <v>2.2564847096833476</v>
+        <v>2.2564847096833547</v>
       </c>
       <c r="F30" s="7">
-        <v>0.39785504238020603</v>
+        <v>0.39785504238022001</v>
       </c>
       <c r="G30" s="7">
-        <v>-4.803860082138022</v>
+        <v>-4.8038600821380175</v>
       </c>
       <c r="H30" s="7">
-        <v>-4.5855520948457782</v>
+        <v>-4.5855520948457684</v>
       </c>
       <c r="I30" s="7">
-        <v>-4.0594316795648622</v>
+        <v>-4.0594316795648693</v>
       </c>
       <c r="J30" s="7">
-        <v>-2.1749706085052809</v>
+        <v>-2.1749706085052884</v>
       </c>
       <c r="K30" s="7">
-        <v>3.5958303669149503</v>
+        <v>3.5958303669149703</v>
       </c>
       <c r="L30" s="7">
-        <v>3.7455510393193343</v>
+        <v>3.7455510393193241</v>
       </c>
       <c r="M30" s="7">
-        <v>1.6539175021364405</v>
+        <v>1.6539175021364454</v>
       </c>
       <c r="N30" s="7">
-        <v>2.5683263919106505</v>
+        <v>2.5683263919106469</v>
       </c>
       <c r="O30" s="7">
-        <v>1.1149518426964107</v>
+        <v>1.1149518426964029</v>
       </c>
       <c r="P30" s="7">
-        <v>-0.28216761568363569</v>
+        <v>-0.28216761568363496</v>
       </c>
       <c r="Q30" s="7">
-        <v>2.5814785577347066</v>
+        <v>2.5814785577347035</v>
       </c>
       <c r="R30" s="7">
-        <v>0.58181230492619496</v>
+        <v>0.58181230492619951</v>
       </c>
       <c r="S30" s="7">
-        <v>1.3055386488131537</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.3055386488131449</v>
+      </c>
+      <c r="T30" s="7">
+        <v>2.0306376914855631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="7">
-        <v>-0.21227577742230339</v>
+        <v>-0.2122757774223176</v>
       </c>
       <c r="C31" s="7">
-        <v>-0.34184275233393668</v>
+        <v>-0.34184275233394601</v>
       </c>
       <c r="D31" s="7">
-        <v>-0.30444894740518125</v>
+        <v>-0.30444894740518597</v>
       </c>
       <c r="E31" s="7">
-        <v>0.20235817396794337</v>
+        <v>0.20235817396794417</v>
       </c>
       <c r="F31" s="7">
-        <v>2.7221034802588355E-2</v>
+        <v>2.7221034802595228E-2</v>
       </c>
       <c r="G31" s="7">
         <v>-4.5865762657466052</v>
       </c>
       <c r="H31" s="7">
-        <v>-2.7474067844126702</v>
+        <v>-2.7474067844126773</v>
       </c>
       <c r="I31" s="7">
-        <v>-3.2431892026993241</v>
+        <v>-3.2431892026993263</v>
       </c>
       <c r="J31" s="7">
-        <v>-1.4433301416116606</v>
+        <v>-1.4433301416116457</v>
       </c>
       <c r="K31" s="7">
-        <v>1.9530962567407124</v>
+        <v>1.9530962567406982</v>
       </c>
       <c r="L31" s="7">
-        <v>0.19252151711073717</v>
+        <v>0.19252151711073259</v>
       </c>
       <c r="M31" s="7">
-        <v>0.14258997117201377</v>
+        <v>0.14258997117201966</v>
       </c>
       <c r="N31" s="7">
-        <v>-0.33543663008905961</v>
+        <v>-0.33543663008908181</v>
       </c>
       <c r="O31" s="7">
-        <v>2.1651939910725199E-2</v>
+        <v>2.1651939910722989E-2</v>
       </c>
       <c r="P31" s="7">
-        <v>-0.2311984299057781</v>
+        <v>-0.23119842990578013</v>
       </c>
       <c r="Q31" s="7">
-        <v>1.0431391161692016</v>
+        <v>1.043139116169175</v>
       </c>
       <c r="R31" s="7">
-        <v>-6.2592991637169429E-2</v>
+        <v>-6.2592991637160367E-2</v>
       </c>
       <c r="S31" s="7">
-        <v>0.39274301618388874</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.39274301618389018</v>
+      </c>
+      <c r="T31" s="7">
+        <v>0.71477125260057994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="7">
-        <v>-0.10739941436923696</v>
+        <v>-0.10739941436922705</v>
       </c>
       <c r="C32" s="7">
-        <v>0.69927943814416227</v>
+        <v>0.69927943814416893</v>
       </c>
       <c r="D32" s="7">
-        <v>1.6490263133860297</v>
+        <v>1.6490263133860477</v>
       </c>
       <c r="E32" s="7">
-        <v>2.825200956790435</v>
+        <v>2.8252009567904319</v>
       </c>
       <c r="F32" s="7">
-        <v>0.38745930155896741</v>
+        <v>0.38745930155896835</v>
       </c>
       <c r="G32" s="7">
-        <v>-2.7927900727635153</v>
+        <v>-2.7927900727635095</v>
       </c>
       <c r="H32" s="7">
-        <v>0.38535260761919254</v>
+        <v>0.38535260761918794</v>
       </c>
       <c r="I32" s="7">
-        <v>-0.19468655464701037</v>
+        <v>-0.1946865546470255</v>
       </c>
       <c r="J32" s="7">
-        <v>2.596667778080902</v>
+        <v>2.5966677780808949</v>
       </c>
       <c r="K32" s="7">
-        <v>5.3691970016979491</v>
+        <v>5.36919700169795</v>
       </c>
       <c r="L32" s="7">
-        <v>-1.2262068142490656</v>
+        <v>-1.2262068142490556</v>
       </c>
       <c r="M32" s="7">
-        <v>0.25408638937237876</v>
+        <v>0.2540863893724008</v>
       </c>
       <c r="N32" s="7">
-        <v>0.59383709364506554</v>
+        <v>0.59383709364504456</v>
       </c>
       <c r="O32" s="7">
-        <v>-0.60526264075303726</v>
+        <v>-0.60526264075304792</v>
       </c>
       <c r="P32" s="7">
-        <v>0.45509006151770864</v>
+        <v>0.45509006151771086</v>
       </c>
       <c r="Q32" s="7">
-        <v>2.0584713630013955</v>
+        <v>2.0584713630013942</v>
       </c>
       <c r="R32" s="7">
-        <v>-0.15174358271493435</v>
+        <v>-0.15174358271494559</v>
       </c>
       <c r="S32" s="7">
-        <v>0.69000968781509364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.69000968781508887</v>
+      </c>
+      <c r="T32" s="7">
+        <v>2.3132510799514878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="7">
-        <v>0.13685493377019703</v>
+        <v>0.13685493377020944</v>
       </c>
       <c r="C33" s="7">
-        <v>0.53700235125332452</v>
+        <v>0.53700235125333962</v>
       </c>
       <c r="D33" s="7">
-        <v>0.91693100713721409</v>
+        <v>0.91693100713720255</v>
       </c>
       <c r="E33" s="7">
-        <v>3.2793437315774376</v>
+        <v>3.279343731577419</v>
       </c>
       <c r="F33" s="7">
-        <v>2.3871991061720021</v>
+        <v>2.3871991061719968</v>
       </c>
       <c r="G33" s="7">
-        <v>-2.0305021256354565</v>
+        <v>-2.0305021256354632</v>
       </c>
       <c r="H33" s="7">
-        <v>0.42728746132311529</v>
+        <v>0.42728746132310824</v>
       </c>
       <c r="I33" s="7">
-        <v>-2.3780269535520451</v>
+        <v>-2.3780269535520491</v>
       </c>
       <c r="J33" s="7">
-        <v>-1.7225924626836562</v>
+        <v>-1.7225924626836631</v>
       </c>
       <c r="K33" s="7">
-        <v>1.6163945702089779</v>
+        <v>1.6163945702089826</v>
       </c>
       <c r="L33" s="7">
-        <v>-3.1778169014084616</v>
+        <v>-3.1778169014084532</v>
       </c>
       <c r="M33" s="7">
-        <v>-1.9523314008225667</v>
+        <v>-1.9523314008225372</v>
       </c>
       <c r="N33" s="7">
-        <v>0.67712257603996506</v>
+        <v>0.67712257603998671</v>
       </c>
       <c r="O33" s="7">
-        <v>1.8504877563209141</v>
+        <v>1.8504877563209261</v>
       </c>
       <c r="P33" s="7">
-        <v>2.3901162731965537</v>
+        <v>2.3901162731965617</v>
       </c>
       <c r="Q33" s="7">
-        <v>5.0295648658209791</v>
+        <v>5.0295648658209826</v>
       </c>
       <c r="R33" s="7">
-        <v>1.4485332493033256</v>
+        <v>1.4485332493033041</v>
       </c>
       <c r="S33" s="7">
-        <v>0.76525376518536281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.76525376518534616</v>
+      </c>
+      <c r="T33" s="7">
+        <v>2.0689246919304898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="7">
-        <v>4.0363167854410733</v>
+        <v>4.0363167854410884</v>
       </c>
       <c r="C34" s="7">
-        <v>2.8335548870076246</v>
+        <v>2.8335548870076126</v>
       </c>
       <c r="D34" s="7">
-        <v>2.0482917702032517</v>
+        <v>2.0482917702032606</v>
       </c>
       <c r="E34" s="7">
-        <v>4.1662118039359592</v>
+        <v>4.1662118039359717</v>
       </c>
       <c r="F34" s="7">
-        <v>0.44408754039357079</v>
+        <v>0.44408754039356979</v>
       </c>
       <c r="G34" s="7">
-        <v>-4.3164278910638938</v>
+        <v>-4.3164278910638929</v>
       </c>
       <c r="H34" s="7">
-        <v>-1.7015909972836751</v>
+        <v>-1.7015909972836702</v>
       </c>
       <c r="I34" s="7">
-        <v>-2.9248959137203325</v>
+        <v>-2.9248959137203268</v>
       </c>
       <c r="J34" s="7">
-        <v>-4.2555650808634349</v>
+        <v>-4.2555650808634242</v>
       </c>
       <c r="K34" s="7">
-        <v>3.8254863121539899</v>
+        <v>3.8254863121539961</v>
       </c>
       <c r="L34" s="7">
-        <v>3.6476323944496163</v>
+        <v>3.6476323944496034</v>
       </c>
       <c r="M34" s="7">
-        <v>2.809865444445538</v>
+        <v>2.8098654444455402</v>
       </c>
       <c r="N34" s="7">
-        <v>4.8451191661887991</v>
+        <v>4.8451191661887876</v>
       </c>
       <c r="O34" s="7">
-        <v>4.6511627906976898</v>
+        <v>4.6511627906976774</v>
       </c>
       <c r="P34" s="7">
-        <v>-0.55226523966409535</v>
+        <v>-0.55226523966406971</v>
       </c>
       <c r="Q34" s="7">
-        <v>1.8395478931592009</v>
+        <v>1.8395478931591993</v>
       </c>
       <c r="R34" s="7">
-        <v>2.8892194021973796</v>
+        <v>2.8892194021973832</v>
       </c>
       <c r="S34" s="7">
-        <v>0.99191324264945302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.99191324264944891</v>
+      </c>
+      <c r="T34" s="7">
+        <v>3.3846536833840779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="7">
-        <v>1.5430315196123192</v>
+        <v>1.5430315196123381</v>
       </c>
       <c r="C35" s="7">
-        <v>0.10580730977358238</v>
+        <v>0.10580730977356914</v>
       </c>
       <c r="D35" s="7">
         <v>1.2913275047733845</v>
       </c>
       <c r="E35" s="7">
-        <v>-0.90308925061736067</v>
+        <v>-0.9030892506173529</v>
       </c>
       <c r="F35" s="7">
-        <v>-1.3668267454746876</v>
+        <v>-1.3668267454747045</v>
       </c>
       <c r="G35" s="7">
-        <v>-5.2505486098528227</v>
+        <v>-5.2505486098528262</v>
       </c>
       <c r="H35" s="7">
-        <v>-4.0091274368768248</v>
+        <v>-4.0091274368768257</v>
       </c>
       <c r="I35" s="7">
-        <v>-0.80248985445335608</v>
+        <v>-0.80248985445337118</v>
       </c>
       <c r="J35" s="7">
-        <v>-4.7778115193845787</v>
+        <v>-4.7778115193845627</v>
       </c>
       <c r="K35" s="7">
-        <v>2.9842976435841213</v>
+        <v>2.9842976435841315</v>
       </c>
       <c r="L35" s="7">
-        <v>2.2231639002005332</v>
+        <v>2.223163900200511</v>
       </c>
       <c r="M35" s="7">
-        <v>1.2047575105095827</v>
+        <v>1.2047575105095851</v>
       </c>
       <c r="N35" s="7">
-        <v>3.3400659083661304</v>
+        <v>3.3400659083661175</v>
       </c>
       <c r="O35" s="7">
-        <v>1.6144839325321074</v>
+        <v>1.6144839325321128</v>
       </c>
       <c r="P35" s="7">
-        <v>-2.0737070926646983</v>
+        <v>-2.0737070926646841</v>
       </c>
       <c r="Q35" s="7">
-        <v>1.0313560609898365</v>
+        <v>1.0313560609898214</v>
       </c>
       <c r="R35" s="7">
-        <v>1.165493971937609</v>
+        <v>1.1654939719376027</v>
       </c>
       <c r="S35" s="7">
-        <v>0.37664974619289276</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.37664974619289926</v>
+      </c>
+      <c r="T35" s="7">
+        <v>3.4629442253288456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="7">
-        <v>1.7774865150980514</v>
+        <v>1.7774865150980361</v>
       </c>
       <c r="C36" s="7">
-        <v>0.22333446329937112</v>
+        <v>0.22333446329937828</v>
       </c>
       <c r="D36" s="7">
-        <v>1.4423605901475387</v>
+        <v>1.4423605901475438</v>
       </c>
       <c r="E36" s="7">
-        <v>-1.1802039157305044</v>
+        <v>-1.1802039157304967</v>
       </c>
       <c r="F36" s="7">
-        <v>-0.90541665015650763</v>
+        <v>-0.90541665015648642</v>
       </c>
       <c r="G36" s="7">
-        <v>-5.5261534788404632</v>
+        <v>-5.5261534788404649</v>
       </c>
       <c r="H36" s="7">
         <v>-6.6734373921531782</v>
       </c>
       <c r="I36" s="7">
-        <v>-5.2985252140818391</v>
+        <v>-5.2985252140818364</v>
       </c>
       <c r="J36" s="7">
-        <v>-3.7667193154327578</v>
+        <v>-3.7667193154327601</v>
       </c>
       <c r="K36" s="7">
-        <v>-0.50333273663482681</v>
+        <v>-0.50333273663484679</v>
       </c>
       <c r="L36" s="7">
-        <v>1.0406871704930607</v>
+        <v>1.0406871704930778</v>
       </c>
       <c r="M36" s="7">
-        <v>1.9644165358451204</v>
+        <v>1.9644165358451344</v>
       </c>
       <c r="N36" s="7">
-        <v>1.2361581451395072</v>
+        <v>1.2361581451394965</v>
       </c>
       <c r="O36" s="7">
-        <v>4.0311570659018532</v>
+        <v>4.0311570659018505</v>
       </c>
       <c r="P36" s="7">
-        <v>2.4865633561285811</v>
+        <v>2.4865633561285829</v>
       </c>
       <c r="Q36" s="7">
-        <v>-0.94224393648578719</v>
+        <v>-0.94224393648579663</v>
       </c>
       <c r="R36" s="7">
-        <v>-0.20316860942375137</v>
+        <v>-0.20316860942374682</v>
       </c>
       <c r="S36" s="7">
-        <v>-1.3540458605465058</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.354045860546486</v>
+      </c>
+      <c r="T36" s="7">
+        <v>0.38974819409868139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="7">
-        <v>0.82869024547803738</v>
+        <v>0.82869024547802939</v>
       </c>
       <c r="C37" s="7">
-        <v>1.6650392099620475</v>
+        <v>1.6650392099620459</v>
       </c>
       <c r="D37" s="7">
-        <v>2.1030567338545536</v>
+        <v>2.1030567338545514</v>
       </c>
       <c r="E37" s="7">
-        <v>2.7820448877805486</v>
+        <v>2.7820448877805388</v>
       </c>
       <c r="F37" s="7">
-        <v>3.7700339363118487</v>
+        <v>3.7700339363118647</v>
       </c>
       <c r="G37" s="7">
-        <v>-0.22972344070263143</v>
+        <v>-0.2297234407026473</v>
       </c>
       <c r="H37" s="7">
-        <v>-2.1920607122008224</v>
+        <v>-2.1920607122008238</v>
       </c>
       <c r="I37" s="7">
-        <v>-2.6921845126602428</v>
+        <v>-2.6921845126602513</v>
       </c>
       <c r="J37" s="7">
-        <v>-2.3683423532930106</v>
+        <v>-2.3683423532930239</v>
       </c>
       <c r="K37" s="7">
-        <v>1.4063259857680124</v>
+        <v>1.406325985768027</v>
       </c>
       <c r="L37" s="7">
-        <v>2.3177852716185674</v>
+        <v>2.3177852716185723</v>
       </c>
       <c r="M37" s="7">
-        <v>3.4458684486111788</v>
+        <v>3.4458684486111748</v>
       </c>
       <c r="N37" s="7">
-        <v>0.94857910754516894</v>
+        <v>0.94857910754517172</v>
       </c>
       <c r="O37" s="7">
-        <v>2.2020826808643936</v>
+        <v>2.2020826808643883</v>
       </c>
       <c r="P37" s="7">
-        <v>3.0868098427914532</v>
+        <v>3.0868098427914403</v>
       </c>
       <c r="Q37" s="7">
-        <v>3.7996529116853033</v>
+        <v>3.7996529116853082</v>
       </c>
       <c r="R37" s="7">
-        <v>4.8216592929015905</v>
+        <v>4.8216592929015949</v>
       </c>
       <c r="S37" s="7">
-        <v>3.1495987589297729</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.1495987589297618</v>
+      </c>
+      <c r="T37" s="7">
+        <v>2.2153689452240877</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="7">
-        <v>0.76268533538235117</v>
+        <v>0.76268533538232264</v>
       </c>
       <c r="C38" s="7">
-        <v>1.046088252494968</v>
+        <v>1.0460882524949415</v>
       </c>
       <c r="D38" s="7">
-        <v>0.30229859239293999</v>
+        <v>0.30229859239291529</v>
       </c>
       <c r="E38" s="7">
-        <v>0.61927565205264568</v>
+        <v>0.61927565205263047</v>
       </c>
       <c r="F38" s="7">
-        <v>6.5900339857455123E-2</v>
+        <v>6.5900339857465629E-2</v>
       </c>
       <c r="G38" s="7">
-        <v>-6.0257834451985239</v>
+        <v>-6.0257834451984875</v>
       </c>
       <c r="H38" s="7">
-        <v>-4.8259323884259935</v>
+        <v>-4.825932388425981</v>
       </c>
       <c r="I38" s="7">
-        <v>-5.6454519411150503</v>
+        <v>-5.6454519411150432</v>
       </c>
       <c r="J38" s="7">
-        <v>-4.1358158263634746</v>
+        <v>-4.1358158263634799</v>
       </c>
       <c r="K38" s="7">
-        <v>3.0257877379107589</v>
+        <v>3.0257877379107376</v>
       </c>
       <c r="L38" s="7">
-        <v>4.7745566133001489</v>
+        <v>4.7745566133001356</v>
       </c>
       <c r="M38" s="7">
-        <v>4.1801335918982883</v>
+        <v>4.1801335918983114</v>
       </c>
       <c r="N38" s="7">
-        <v>4.6332008440061028</v>
+        <v>4.6332008440060886</v>
       </c>
       <c r="O38" s="7">
-        <v>0.9294791445706494</v>
+        <v>0.92947914457064895</v>
       </c>
       <c r="P38" s="7">
-        <v>-2.8464755916121605</v>
+        <v>-2.846475591612156</v>
       </c>
       <c r="Q38" s="7">
-        <v>-3.835667951490076</v>
+        <v>-3.8356679514900929</v>
       </c>
       <c r="R38" s="7">
-        <v>-1.1452314849553658</v>
+        <v>-1.1452314849553562</v>
       </c>
       <c r="S38" s="7">
-        <v>0.83685206060489759</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.83685206060491379</v>
+      </c>
+      <c r="T38" s="7">
+        <v>2.4222986313771995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="7">
-        <v>0.78963615000099174</v>
+        <v>0.78963615000098653</v>
       </c>
       <c r="C39" s="7">
-        <v>0.84280751618506311</v>
+        <v>0.84280751618506766</v>
       </c>
       <c r="D39" s="7">
-        <v>8.5589485282539401E-2</v>
+        <v>8.5589485282546493E-2</v>
       </c>
       <c r="E39" s="7">
-        <v>-0.15346174277450481</v>
+        <v>-0.15346174277448948</v>
       </c>
       <c r="F39" s="7">
-        <v>-0.28354360347365071</v>
+        <v>-0.28354360347365309</v>
       </c>
       <c r="G39" s="7">
-        <v>-5.04296255700614</v>
+        <v>-5.0429625570061258</v>
       </c>
       <c r="H39" s="7">
-        <v>-2.1988499533100621</v>
+        <v>-2.1988499533100669</v>
       </c>
       <c r="I39" s="7">
-        <v>-2.5596563479083283</v>
+        <v>-2.5596563479083514</v>
       </c>
       <c r="J39" s="7">
-        <v>-5.0330915864146171</v>
+        <v>-5.0330915864146162</v>
       </c>
       <c r="K39" s="7">
-        <v>2.9434498964227327</v>
+        <v>2.9434498964227171</v>
       </c>
       <c r="L39" s="7">
-        <v>2.5950270357192995</v>
+        <v>2.5950270357193062</v>
       </c>
       <c r="M39" s="7">
-        <v>4.6117290192113201</v>
+        <v>4.6117290192113209</v>
       </c>
       <c r="N39" s="7">
-        <v>11.619997496139868</v>
+        <v>11.619997496139872</v>
       </c>
       <c r="O39" s="7">
-        <v>0.93907994193321742</v>
+        <v>0.93907994193321875</v>
       </c>
       <c r="P39" s="7">
-        <v>-0.40458463949843404</v>
+        <v>-0.40458463949843138</v>
       </c>
       <c r="Q39" s="7">
-        <v>-0.23003837194691557</v>
+        <v>-0.23003837194691706</v>
       </c>
       <c r="R39" s="7">
-        <v>-3.5302364706981866</v>
+        <v>-3.5302364706981906</v>
       </c>
       <c r="S39" s="7">
-        <v>2.7305277565634776</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.7305277565634714</v>
+      </c>
+      <c r="T39" s="7">
+        <v>1.302290812161268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="7">
-        <v>1.5148791691631636</v>
+        <v>1.5148791691631851</v>
       </c>
       <c r="C40" s="7">
-        <v>1.011414108586695</v>
+        <v>1.0114141085866968</v>
       </c>
       <c r="D40" s="7">
-        <v>0.51598879902872929</v>
+        <v>0.51598879902872952</v>
       </c>
       <c r="E40" s="7">
-        <v>1.5124082419853231</v>
+        <v>1.51240824198531</v>
       </c>
       <c r="F40" s="7">
-        <v>1.3496365228169338</v>
+        <v>1.3496365228169069</v>
       </c>
       <c r="G40" s="7">
-        <v>-4.2878870602917107</v>
+        <v>-4.2878870602917178</v>
       </c>
       <c r="H40" s="7">
-        <v>-2.7128120707961152</v>
+        <v>-2.7128120707961134</v>
       </c>
       <c r="I40" s="7">
-        <v>-3.4430949080581237</v>
+        <v>-3.4430949080581228</v>
       </c>
       <c r="J40" s="7">
-        <v>-3.1078628347358648</v>
+        <v>-3.107862834735835</v>
       </c>
       <c r="K40" s="7">
-        <v>0.1039013955383596</v>
+        <v>0.10390139553835637</v>
       </c>
       <c r="L40" s="7">
-        <v>-2.1636829668789384</v>
+        <v>-2.1636829668789246</v>
       </c>
       <c r="M40" s="7">
-        <v>-2.6493057995603038</v>
+        <v>-2.6493057995602909</v>
       </c>
       <c r="N40" s="7">
-        <v>-1.6488525148506805</v>
+        <v>-1.6488525148507092</v>
       </c>
       <c r="O40" s="7">
-        <v>-5.800227938782293E-2</v>
+        <v>-5.8002279387805847E-2</v>
       </c>
       <c r="P40" s="7">
-        <v>8.1870746558920897E-3</v>
+        <v>8.1870746558753912E-3</v>
       </c>
       <c r="Q40" s="7">
-        <v>1.416903848533603</v>
+        <v>1.4169038485335992</v>
       </c>
       <c r="R40" s="7">
-        <v>-1.0287122763059959</v>
+        <v>-1.0287122763059946</v>
       </c>
       <c r="S40" s="7">
-        <v>-1.2462454818510462</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.246245481851058</v>
+      </c>
+      <c r="T40" s="7">
+        <v>1.125630608965964E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="7">
-        <v>0.77269930295664391</v>
+        <v>0.77269930295665035</v>
       </c>
       <c r="C41" s="7">
-        <v>0.66245803092141253</v>
+        <v>0.66245803092141631</v>
       </c>
       <c r="D41" s="7">
-        <v>-0.68890212428031883</v>
+        <v>-0.68890212428031006</v>
       </c>
       <c r="E41" s="7">
-        <v>2.0781488319820243</v>
+        <v>2.0781488319820149</v>
       </c>
       <c r="F41" s="7">
-        <v>0.56356920489694939</v>
+        <v>0.56356920489693241</v>
       </c>
       <c r="G41" s="7">
-        <v>-5.4794930944605742</v>
+        <v>-5.4794930944605884</v>
       </c>
       <c r="H41" s="7">
-        <v>-2.5418307578513848</v>
+        <v>-2.541830757851399</v>
       </c>
       <c r="I41" s="7">
-        <v>-3.3068900095353353</v>
+        <v>-3.3068900095353171</v>
       </c>
       <c r="J41" s="7">
-        <v>-1.9340646214489072</v>
+        <v>-1.9340646214488932</v>
       </c>
       <c r="K41" s="7">
-        <v>4.3148441627046887</v>
+        <v>4.3148441627046914</v>
       </c>
       <c r="L41" s="7">
-        <v>3.1229808313590262</v>
+        <v>3.1229808313590413</v>
       </c>
       <c r="M41" s="7">
-        <v>2.6514034748838569</v>
+        <v>2.6514034748838515</v>
       </c>
       <c r="N41" s="7">
-        <v>1.6392777027781367</v>
+        <v>1.6392777027781302</v>
       </c>
       <c r="O41" s="7">
-        <v>3.6542629691899569</v>
+        <v>3.6542629691899542</v>
       </c>
       <c r="P41" s="7">
-        <v>0.99852806619724555</v>
+        <v>0.99852806619722889</v>
       </c>
       <c r="Q41" s="7">
-        <v>0.74476829980883896</v>
+        <v>0.74476829980884396</v>
       </c>
       <c r="R41" s="7">
-        <v>0.92575948229372995</v>
+        <v>0.92575948229373817</v>
       </c>
       <c r="S41" s="7">
-        <v>-1.3298548005706536</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.3298548005706448</v>
+      </c>
+      <c r="T41" s="7">
+        <v>0.4381991492043526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="7">
-        <v>1.4054399616425721</v>
+        <v>1.4054399616425708</v>
       </c>
       <c r="C42" s="7">
-        <v>1.4047148349410572</v>
+        <v>1.4047148349410499</v>
       </c>
       <c r="D42" s="7">
-        <v>0.86489886580307984</v>
+        <v>0.86489886580309416</v>
       </c>
       <c r="E42" s="7">
-        <v>2.098430841139856</v>
+        <v>2.0984308411398538</v>
       </c>
       <c r="F42" s="7">
-        <v>4.8070292952973803</v>
+        <v>4.8070292952973874</v>
       </c>
       <c r="G42" s="7">
-        <v>-0.50061229488123793</v>
+        <v>-0.5006122948812235</v>
       </c>
       <c r="H42" s="7">
-        <v>1.1566269756202181</v>
+        <v>1.1566269756202179</v>
       </c>
       <c r="I42" s="7">
-        <v>-1.2291416205818617</v>
+        <v>-1.2291416205818677</v>
       </c>
       <c r="J42" s="7">
-        <v>-2.9540028947912589</v>
+        <v>-2.9540028947912682</v>
       </c>
       <c r="K42" s="7">
-        <v>2.480209523059357</v>
+        <v>2.4802095230593477</v>
       </c>
       <c r="L42" s="7">
-        <v>1.2493618332963985</v>
+        <v>1.2493618332963978</v>
       </c>
       <c r="M42" s="7">
-        <v>2.7050449380215564</v>
+        <v>2.7050449380215573</v>
       </c>
       <c r="N42" s="7">
-        <v>2.5257856762384434</v>
+        <v>2.5257856762384505</v>
       </c>
       <c r="O42" s="7">
-        <v>2.6786314768021766</v>
+        <v>2.6786314768021668</v>
       </c>
       <c r="P42" s="7">
-        <v>1.8609076205879729</v>
+        <v>1.8609076205879638</v>
       </c>
       <c r="Q42" s="7">
-        <v>2.7305048589713183</v>
+        <v>2.7305048589713192</v>
       </c>
       <c r="R42" s="7">
-        <v>2.5230722726543005</v>
+        <v>2.5230722726542969</v>
       </c>
       <c r="S42" s="7">
-        <v>2.2999691216513307</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.2999691216513232</v>
+      </c>
+      <c r="T42" s="7">
+        <v>2.8375021015074715</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="7">
-        <v>4.1035690955519986</v>
+        <v>4.103569095551987</v>
       </c>
       <c r="C43" s="7">
-        <v>4.3172013030845564</v>
+        <v>4.3172013030845697</v>
       </c>
       <c r="D43" s="7">
-        <v>3.3952854533329502</v>
+        <v>3.3952854533329622</v>
       </c>
       <c r="E43" s="7">
-        <v>4.2025374900202861</v>
+        <v>4.2025374900203021</v>
       </c>
       <c r="F43" s="7">
-        <v>1.9737592698231523</v>
+        <v>1.9737592698231554</v>
       </c>
       <c r="G43" s="7">
-        <v>-5.3079750919048694</v>
+        <v>-5.3079750919048863</v>
       </c>
       <c r="H43" s="7">
-        <v>-3.6436717143391446</v>
+        <v>-3.6436717143391402</v>
       </c>
       <c r="I43" s="7">
-        <v>-5.7167912858857015</v>
+        <v>-5.7167912858857264</v>
       </c>
       <c r="J43" s="7">
-        <v>-0.4400686208696814</v>
+        <v>-0.44006862086970039</v>
       </c>
       <c r="K43" s="7">
-        <v>4.6517846531711768</v>
+        <v>4.6517846531711653</v>
       </c>
       <c r="L43" s="7">
-        <v>4.9678896412564972</v>
+        <v>4.9678896412564706</v>
       </c>
       <c r="M43" s="7">
-        <v>5.2703721472140286</v>
+        <v>5.270372147214049</v>
       </c>
       <c r="N43" s="7">
-        <v>3.0135600839076839</v>
+        <v>3.0135600839077057</v>
       </c>
       <c r="O43" s="7">
-        <v>4.7894841438832589</v>
+        <v>4.789484143883282</v>
       </c>
       <c r="P43" s="7">
-        <v>1.7596554624178551</v>
+        <v>1.7596554624178657</v>
       </c>
       <c r="Q43" s="7">
-        <v>2.8710937499999964</v>
+        <v>2.8710937499999853</v>
       </c>
       <c r="R43" s="7">
-        <v>8.1634879365829622</v>
+        <v>8.1634879365829711</v>
       </c>
       <c r="S43" s="7">
-        <v>7.7178723019958451</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+        <v>7.7178723019958335</v>
+      </c>
+      <c r="T43" s="7">
+        <v>8.8849936879580831</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="7">
-        <v>0.55841189668878066</v>
+        <v>0.55841189668877544</v>
       </c>
       <c r="C44" s="7">
-        <v>0.45798925679466973</v>
+        <v>0.45798925679466695</v>
       </c>
       <c r="D44" s="7">
-        <v>-0.87894407532103869</v>
+        <v>-0.87894407532103302</v>
       </c>
       <c r="E44" s="7">
-        <v>0.24655127667642987</v>
+        <v>0.24655127667645307</v>
       </c>
       <c r="F44" s="7">
-        <v>-1.3107340110461982</v>
+        <v>-1.3107340110461914</v>
       </c>
       <c r="G44" s="7">
-        <v>-6.4324976805897736</v>
+        <v>-6.4324976805897833</v>
       </c>
       <c r="H44" s="7">
         <v>-5.2883651957837419</v>
       </c>
       <c r="I44" s="7">
-        <v>-3.9819175736092038</v>
+        <v>-3.9819175736092145</v>
       </c>
       <c r="J44" s="7">
-        <v>-4.2845266338179391</v>
+        <v>-4.2845266338179497</v>
       </c>
       <c r="K44" s="7">
-        <v>0.32838271512799255</v>
+        <v>0.3283827151279976</v>
       </c>
       <c r="L44" s="7">
-        <v>0.92567124389057998</v>
+        <v>0.92567124389056998</v>
       </c>
       <c r="M44" s="7">
-        <v>0.74872964844965051</v>
+        <v>0.7487296484496575</v>
       </c>
       <c r="N44" s="7">
-        <v>-0.14405558850945724</v>
+        <v>-0.14405558850944786</v>
       </c>
       <c r="O44" s="7">
-        <v>2.8224992295512332</v>
+        <v>2.822499229551243</v>
       </c>
       <c r="P44" s="7">
-        <v>2.7903271454177601</v>
+        <v>2.7903271454177654</v>
       </c>
       <c r="Q44" s="7">
-        <v>-1.1775362318840723</v>
+        <v>-1.1775362318840639</v>
       </c>
       <c r="R44" s="7">
-        <v>1.8276900882552702</v>
+        <v>1.8276900882552716</v>
       </c>
       <c r="S44" s="7">
-        <v>-0.69348987670143269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.69348987670144491</v>
+      </c>
+      <c r="T44" s="7">
+        <v>-1.6917695767006939</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="7">
-        <v>-0.58992892665149688</v>
+        <v>-0.58992892665148278</v>
       </c>
       <c r="C45" s="7">
-        <v>-1.4002264195912419</v>
+        <v>-1.4002264195912608</v>
       </c>
       <c r="D45" s="7">
-        <v>0.5555443731003793</v>
+        <v>0.55554437310037696</v>
       </c>
       <c r="E45" s="7">
-        <v>2.1633128896548373</v>
+        <v>2.1633128896548368</v>
       </c>
       <c r="F45" s="7">
-        <v>0.25316968444930221</v>
+        <v>0.25316968444930404</v>
       </c>
       <c r="G45" s="7">
-        <v>-4.9462170655064233</v>
+        <v>-4.9462170655063957</v>
       </c>
       <c r="H45" s="7">
-        <v>-4.7500850731629098</v>
+        <v>-4.7500850731629169</v>
       </c>
       <c r="I45" s="7">
-        <v>-3.4015022971055551</v>
+        <v>-3.4015022971055568</v>
       </c>
       <c r="J45" s="7">
-        <v>-2.1515586173458114</v>
+        <v>-2.1515586173458203</v>
       </c>
       <c r="K45" s="7">
-        <v>5.6274304120707681</v>
+        <v>5.6274304120707441</v>
       </c>
       <c r="L45" s="7">
-        <v>3.2805144586415578</v>
+        <v>3.2805144586415742</v>
       </c>
       <c r="M45" s="7">
-        <v>3.6846051915234517</v>
+        <v>3.6846051915234619</v>
       </c>
       <c r="N45" s="7">
-        <v>3.3602428046413699</v>
+        <v>3.3602428046413872</v>
       </c>
       <c r="O45" s="7">
-        <v>0.5677714469143702</v>
+        <v>0.5677714469143641</v>
       </c>
       <c r="P45" s="7">
-        <v>4.7085156170515816</v>
+        <v>4.7085156170515665</v>
       </c>
       <c r="Q45" s="7">
-        <v>-0.91145059343357882</v>
+        <v>-0.91145059343359924</v>
       </c>
       <c r="R45" s="7">
-        <v>3.428782597405204</v>
+        <v>3.4287825974051804</v>
       </c>
       <c r="S45" s="7">
-        <v>4.0257745326869747</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+        <v>4.0257745326869783</v>
+      </c>
+      <c r="T45" s="7">
+        <v>1.4360947550477086</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="7">
-        <v>0.26160955025209859</v>
+        <v>0.26160955025210497</v>
       </c>
       <c r="C46" s="7">
-        <v>-0.29894182512891326</v>
+        <v>-0.29894182512892498</v>
       </c>
       <c r="D46" s="7">
-        <v>1.5419862536109221</v>
+        <v>1.5419862536109314</v>
       </c>
       <c r="E46" s="7">
-        <v>3.7269824695274862</v>
+        <v>3.7269824695275022</v>
       </c>
       <c r="F46" s="7">
-        <v>5.2225376894469253</v>
+        <v>5.2225376894469431</v>
       </c>
       <c r="G46" s="7">
-        <v>-1.8844133795335816</v>
+        <v>-1.8844133795335662</v>
       </c>
       <c r="H46" s="7">
-        <v>0.44046381133629198</v>
+        <v>0.44046381133628382</v>
       </c>
       <c r="I46" s="7">
-        <v>-2.2659955473816606</v>
+        <v>-2.2659955473816669</v>
       </c>
       <c r="J46" s="7">
-        <v>-3.939117546459908</v>
+        <v>-3.9391175464599208</v>
       </c>
       <c r="K46" s="7">
-        <v>2.3557269056798567</v>
+        <v>2.355726905679866</v>
       </c>
       <c r="L46" s="7">
-        <v>0.25882192075166149</v>
+        <v>0.25882192075165922</v>
       </c>
       <c r="M46" s="7">
-        <v>1.751032495122258</v>
+        <v>1.7510324951222513</v>
       </c>
       <c r="N46" s="7">
-        <v>1.5330445275255769</v>
+        <v>1.5330445275255815</v>
       </c>
       <c r="O46" s="7">
-        <v>3.0538501843778123</v>
+        <v>3.0538501843777857</v>
       </c>
       <c r="P46" s="7">
-        <v>0.86213614932004012</v>
+        <v>0.86213614932004301</v>
       </c>
       <c r="Q46" s="7">
-        <v>2.4090639204960356</v>
+        <v>2.4090639204960422</v>
       </c>
       <c r="R46" s="7">
-        <v>2.3895339775560847</v>
+        <v>2.3895339775560878</v>
       </c>
       <c r="S46" s="7">
-        <v>0.93246354566385792</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.93246354566386846</v>
+      </c>
+      <c r="T46" s="7">
+        <v>2.8579155277823305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="7">
-        <v>2.3059744808114107</v>
+        <v>2.305974480811416</v>
       </c>
       <c r="C47" s="7">
-        <v>1.5610616381941627</v>
+        <v>1.5610616381941746</v>
       </c>
       <c r="D47" s="7">
-        <v>0.76906828481450751</v>
+        <v>0.76906828481450151</v>
       </c>
       <c r="E47" s="7">
-        <v>1.6819468462289009</v>
+        <v>1.6819468462289016</v>
       </c>
       <c r="F47" s="7">
-        <v>1.3577836969796231</v>
+        <v>1.3577836969795982</v>
       </c>
       <c r="G47" s="7">
-        <v>-3.2907165346817981</v>
+        <v>-3.2907165346818079</v>
       </c>
       <c r="H47" s="7">
-        <v>-1.773174659133151</v>
+        <v>-1.7731746591331476</v>
       </c>
       <c r="I47" s="7">
-        <v>-0.75913046782957805</v>
+        <v>-0.75913046782959392</v>
       </c>
       <c r="J47" s="7">
-        <v>-1.8708789905602314</v>
+        <v>-1.8708789905602141</v>
       </c>
       <c r="K47" s="7">
-        <v>1.2194039127475009</v>
+        <v>1.2194039127475029</v>
       </c>
       <c r="L47" s="7">
-        <v>1.8740542428122513</v>
+        <v>1.8740542428122475</v>
       </c>
       <c r="M47" s="7">
-        <v>-0.73525892027993811</v>
+        <v>-0.73525892027991491</v>
       </c>
       <c r="N47" s="7">
-        <v>2.0834743263755158</v>
+        <v>2.0834743263755167</v>
       </c>
       <c r="O47" s="7">
-        <v>4.1083072604462032</v>
+        <v>4.1083072604462121</v>
       </c>
       <c r="P47" s="7">
-        <v>-0.61700182815355076</v>
+        <v>-0.6170018281535572</v>
       </c>
       <c r="Q47" s="7">
-        <v>3.3447461059941297</v>
+        <v>3.3447461059941173</v>
       </c>
       <c r="R47" s="7">
-        <v>1.1213395461605729</v>
+        <v>1.121339546160566</v>
       </c>
       <c r="S47" s="7">
-        <v>0.3660637381567734</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.36606373815677468</v>
+      </c>
+      <c r="T47" s="7">
+        <v>2.9978155897907484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="7">
-        <v>-2.9931334584214944</v>
+        <v>-2.9931334584214939</v>
       </c>
       <c r="C48" s="7">
         <v>-3.5620052770448574</v>
       </c>
       <c r="D48" s="7">
-        <v>-2.1507945991157844</v>
+        <v>-2.1507945991157729</v>
       </c>
       <c r="E48" s="7">
-        <v>0.68670653127489845</v>
+        <v>0.68670653127488057</v>
       </c>
       <c r="F48" s="7">
-        <v>3.8622591232239647</v>
+        <v>3.862259123223966</v>
       </c>
       <c r="G48" s="7">
-        <v>0.27565493761764154</v>
+        <v>0.27565493761764354</v>
       </c>
       <c r="H48" s="7">
-        <v>1.0308543981764156</v>
+        <v>1.0308543981764131</v>
       </c>
       <c r="I48" s="7">
-        <v>-0.48773159739609107</v>
+        <v>-0.48773159739609062</v>
       </c>
       <c r="J48" s="7">
-        <v>-2.4913076641142728</v>
+        <v>-2.4913076641142564</v>
       </c>
       <c r="K48" s="7">
-        <v>2.6699900503636158</v>
+        <v>2.6699900503636176</v>
       </c>
       <c r="L48" s="7">
-        <v>1.3476898903113341</v>
+        <v>1.3476898903113246</v>
       </c>
       <c r="M48" s="7">
-        <v>1.9091613578495152</v>
+        <v>1.9091613578495046</v>
       </c>
       <c r="N48" s="7">
-        <v>4.3246373278068964</v>
+        <v>4.3246373278068688</v>
       </c>
       <c r="O48" s="7">
-        <v>4.0691749755230253</v>
+        <v>4.0691749755230218</v>
       </c>
       <c r="P48" s="7">
-        <v>5.4383366958526693</v>
+        <v>5.438336695852672</v>
       </c>
       <c r="Q48" s="7">
-        <v>5.1905984594114125</v>
+        <v>5.1905984594114303</v>
       </c>
       <c r="R48" s="7">
-        <v>5.9079002463653918</v>
+        <v>5.9079002463654069</v>
       </c>
       <c r="S48" s="7">
-        <v>5.3510228767267858</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5.3510228767267893</v>
+      </c>
+      <c r="T48" s="7">
+        <v>4.4518385159909943</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="7">
-        <v>-0.70783207707282214</v>
+        <v>-0.70783207707283036</v>
       </c>
       <c r="C49" s="7">
-        <v>-1.0539570485236771</v>
+        <v>-1.0539570485236596</v>
       </c>
       <c r="D49" s="7">
-        <v>-3.9690808600990161E-2</v>
+        <v>-3.9690808600999529E-2</v>
       </c>
       <c r="E49" s="7">
-        <v>2.6512046386084132</v>
+        <v>2.6512046386084136</v>
       </c>
       <c r="F49" s="7">
-        <v>4.1435408622908545</v>
+        <v>4.1435408622908581</v>
       </c>
       <c r="G49" s="7">
-        <v>0.49401272608847518</v>
+        <v>0.49401272608846164</v>
       </c>
       <c r="H49" s="7">
-        <v>1.6795878458193869</v>
+        <v>1.6795878458193851</v>
       </c>
       <c r="I49" s="7">
-        <v>-1.4296566097271195</v>
+        <v>-1.4296566097271151</v>
       </c>
       <c r="J49" s="7">
-        <v>-9.9442926518429411E-2</v>
+        <v>-9.9442926518423083E-2</v>
       </c>
       <c r="K49" s="7">
-        <v>1.6303047223995082</v>
+        <v>1.6303047223995011</v>
       </c>
       <c r="L49" s="7">
-        <v>0.85325731468013111</v>
+        <v>0.85325731468014798</v>
       </c>
       <c r="M49" s="7">
-        <v>1.6311972652004578</v>
+        <v>1.6311972652004654</v>
       </c>
       <c r="N49" s="7">
-        <v>1.0263447822641449</v>
+        <v>1.0263447822641332</v>
       </c>
       <c r="O49" s="7">
-        <v>2.6833982516213157</v>
+        <v>2.6833982516213304</v>
       </c>
       <c r="P49" s="7">
-        <v>1.0038236290595806</v>
+        <v>1.0038236290595663</v>
       </c>
       <c r="Q49" s="7">
         <v>3.036990229913004</v>
       </c>
       <c r="R49" s="7">
-        <v>1.4473482819315817</v>
+        <v>1.4473482819315968</v>
       </c>
       <c r="S49" s="7">
-        <v>1.5956735271073448</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.5956735271073363</v>
+      </c>
+      <c r="T49" s="7">
+        <v>2.7572789480745947</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="7">
-        <v>1.4161067094574336</v>
+        <v>1.4161067094574304</v>
       </c>
       <c r="C50" s="7">
-        <v>1.5689619263916834</v>
+        <v>1.5689619263916736</v>
       </c>
       <c r="D50" s="7">
-        <v>2.7143310333888491</v>
+        <v>2.7143310333888389</v>
       </c>
       <c r="E50" s="7">
-        <v>4.3212388941281406</v>
+        <v>4.3212388941281583</v>
       </c>
       <c r="F50" s="7">
-        <v>4.463914875101354</v>
+        <v>4.4639148751013593</v>
       </c>
       <c r="G50" s="7">
-        <v>3.3198910294587047E-2</v>
+        <v>3.3198910294596796E-2</v>
       </c>
       <c r="H50" s="7">
-        <v>-0.30595502364635829</v>
+        <v>-0.30595502364634336</v>
       </c>
       <c r="I50" s="7">
-        <v>-1.3674253958587004</v>
+        <v>-1.3674253958587144</v>
       </c>
       <c r="J50" s="7">
-        <v>-3.8812526032791408E-2</v>
+        <v>-3.8812526032792158E-2</v>
       </c>
       <c r="K50" s="7">
-        <v>1.3499663240504927</v>
+        <v>1.3499663240504833</v>
       </c>
       <c r="L50" s="7">
-        <v>1.7329344679697416</v>
+        <v>1.7329344679697383</v>
       </c>
       <c r="M50" s="7">
-        <v>2.339581866069786</v>
+        <v>2.3395818660697945</v>
       </c>
       <c r="N50" s="7">
-        <v>1.6241299303944361</v>
+        <v>1.6241299303944492</v>
       </c>
       <c r="O50" s="7">
-        <v>4.0325532119811145</v>
+        <v>4.0325532119811278</v>
       </c>
       <c r="P50" s="7">
-        <v>3.4182503354491214</v>
+        <v>3.4182503354491227</v>
       </c>
       <c r="Q50" s="7">
-        <v>3.4720389154945477</v>
+        <v>3.4720389154945566</v>
       </c>
       <c r="R50" s="7">
-        <v>3.3939055074084399</v>
+        <v>3.3939055074084346</v>
       </c>
       <c r="S50" s="7">
-        <v>2.9541646222353908</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.9541646222353903</v>
+      </c>
+      <c r="T50" s="7">
+        <v>3.4552564987347645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="7">
-        <v>0.12070668276089888</v>
+        <v>0.12070668276090099</v>
       </c>
       <c r="C51" s="7">
-        <v>0.65302698978522256</v>
+        <v>0.65302698978521445</v>
       </c>
       <c r="D51" s="7">
-        <v>0.66009557945041408</v>
+        <v>0.66009557945041064</v>
       </c>
       <c r="E51" s="7">
-        <v>0.60103377809830638</v>
+        <v>0.60103377809830261</v>
       </c>
       <c r="F51" s="7">
-        <v>2.577617472400445</v>
+        <v>2.5776174724004441</v>
       </c>
       <c r="G51" s="7">
-        <v>-2.615993571619903</v>
+        <v>-2.6159935716198923</v>
       </c>
       <c r="H51" s="7">
-        <v>-0.56081421916263818</v>
+        <v>-0.56081421916262775</v>
       </c>
       <c r="I51" s="7">
-        <v>-0.53471143505794383</v>
+        <v>-0.53471143505793917</v>
       </c>
       <c r="J51" s="7">
-        <v>-1.2879913745373934</v>
+        <v>-1.2879913745373868</v>
       </c>
       <c r="K51" s="7">
-        <v>1.8427968950553055</v>
+        <v>1.8427968950553144</v>
       </c>
       <c r="L51" s="7">
-        <v>1.3786106469324382</v>
+        <v>1.3786106469324519</v>
       </c>
       <c r="M51" s="7">
-        <v>0.92901262375990912</v>
+        <v>0.92901262375988591</v>
       </c>
       <c r="N51" s="7">
-        <v>5.9040590405859822E-3</v>
+        <v>5.9040590405785038E-3</v>
       </c>
       <c r="O51" s="7">
-        <v>5.1862965741435598</v>
+        <v>5.1862965741435314</v>
       </c>
       <c r="P51" s="7">
-        <v>-1.4069582622004995</v>
+        <v>-1.4069582622005161</v>
       </c>
       <c r="Q51" s="7">
-        <v>1.9341592358583206</v>
+        <v>1.9341592358583277</v>
       </c>
       <c r="R51" s="7">
-        <v>3.6789955820566624</v>
+        <v>3.6789955820566655</v>
       </c>
       <c r="S51" s="7">
-        <v>0.21871434005324444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.21871434005326337</v>
+      </c>
+      <c r="T51" s="7">
+        <v>6.7779237321869354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="7">
-        <v>-0.30265665284160514</v>
+        <v>-0.30265665284160381</v>
       </c>
       <c r="C52" s="7">
-        <v>0.15249016438439256</v>
+        <v>0.15249016438438587</v>
       </c>
       <c r="D52" s="7">
-        <v>1.2494444668902172</v>
+        <v>1.249444466890222</v>
       </c>
       <c r="E52" s="7">
-        <v>1.9339915833664503</v>
+        <v>1.9339915833664665</v>
       </c>
       <c r="F52" s="7">
-        <v>2.618721507860259</v>
+        <v>2.6187215078602484</v>
       </c>
       <c r="G52" s="7">
-        <v>-0.25173320340650546</v>
+        <v>-0.25173320340649402</v>
       </c>
       <c r="H52" s="7">
-        <v>-2.6196865554014859</v>
+        <v>-2.6196865554014765</v>
       </c>
       <c r="I52" s="7">
-        <v>-2.1482051640892825</v>
+        <v>-2.1482051640892874</v>
       </c>
       <c r="J52" s="7">
-        <v>-2.3457109845013844</v>
+        <v>-2.3457109845013817</v>
       </c>
       <c r="K52" s="7">
-        <v>0.27475602682431555</v>
+        <v>0.27475602682430866</v>
       </c>
       <c r="L52" s="7">
-        <v>1.9669108231316912</v>
+        <v>1.9669108231316861</v>
       </c>
       <c r="M52" s="7">
-        <v>1.5374713958810087</v>
+        <v>1.5374713958810058</v>
       </c>
       <c r="N52" s="7">
-        <v>1.4014544935282287</v>
+        <v>1.4014544935282238</v>
       </c>
       <c r="O52" s="7">
-        <v>1.1193537584103801</v>
+        <v>1.1193537584103821</v>
       </c>
       <c r="P52" s="7">
-        <v>0.41995278042900136</v>
+        <v>0.41995278042899981</v>
       </c>
       <c r="Q52" s="7">
-        <v>1.6399545239604421</v>
+        <v>1.6399545239604401</v>
       </c>
       <c r="R52" s="7">
-        <v>0.99180204194536314</v>
+        <v>0.99180204194537924</v>
       </c>
       <c r="S52" s="7">
-        <v>0.76975572549728621</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.76975572549728144</v>
+      </c>
+      <c r="T52" s="7">
+        <v>1.1875581523315908</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="7">
-        <v>2.7070190848838145</v>
+        <v>2.7070190848838225</v>
       </c>
       <c r="C53" s="7">
-        <v>1.4275180651821324</v>
+        <v>1.4275180651821351</v>
       </c>
       <c r="D53" s="7">
-        <v>1.0827020816700161</v>
+        <v>1.0827020816700108</v>
       </c>
       <c r="E53" s="7">
-        <v>1.2656260623779663</v>
+        <v>1.2656260623779694</v>
       </c>
       <c r="F53" s="7">
-        <v>2.0224304151764887</v>
+        <v>2.0224304151764865</v>
       </c>
       <c r="G53" s="7">
-        <v>-3.3024125931741848</v>
+        <v>-3.3024125931741781</v>
       </c>
       <c r="H53" s="7">
-        <v>-2.2799514535051815</v>
+        <v>-2.2799514535051792</v>
       </c>
       <c r="I53" s="7">
-        <v>-2.8554711479435175</v>
+        <v>-2.8554711479435295</v>
       </c>
       <c r="J53" s="7">
-        <v>-1.6937043352353265</v>
+        <v>-1.6937043352353398</v>
       </c>
       <c r="K53" s="7">
-        <v>4.0507217321571742</v>
+        <v>4.0507217321571645</v>
       </c>
       <c r="L53" s="7">
-        <v>2.924564568116637</v>
+        <v>2.9245645681166463</v>
       </c>
       <c r="M53" s="7">
-        <v>2.0971771048292442</v>
+        <v>2.0971771048292576</v>
       </c>
       <c r="N53" s="7">
-        <v>2.1366486109361391</v>
+        <v>2.1366486109361476</v>
       </c>
       <c r="O53" s="7">
-        <v>1.419061473396215</v>
+        <v>1.4190614733962132</v>
       </c>
       <c r="P53" s="7">
-        <v>0.83989350495125581</v>
+        <v>0.83989350495125425</v>
       </c>
       <c r="Q53" s="7">
-        <v>4.3925224606636064</v>
+        <v>4.3925224606635878</v>
       </c>
       <c r="R53" s="7">
-        <v>1.046449850100565</v>
+        <v>1.0464498501005806</v>
       </c>
       <c r="S53" s="7">
-        <v>1.3802078385926257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.3802078385926355</v>
+      </c>
+      <c r="T53" s="7">
+        <v>1.2517213542903169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="7">
-        <v>2.0921846907925779</v>
+        <v>2.0921846907925654</v>
       </c>
       <c r="C54" s="7">
-        <v>2.638270500618102</v>
+        <v>2.6382705006181006</v>
       </c>
       <c r="D54" s="7">
-        <v>3.0731012094459511</v>
+        <v>3.0731012094459689</v>
       </c>
       <c r="E54" s="7">
-        <v>3.0714979813866861</v>
+        <v>3.0714979813866754</v>
       </c>
       <c r="F54" s="7">
-        <v>5.4415410648931388</v>
+        <v>5.4415410648931495</v>
       </c>
       <c r="G54" s="7">
-        <v>-1.0761638040774719</v>
+        <v>-1.0761638040774755</v>
       </c>
       <c r="H54" s="7">
-        <v>-1.0015075425136677</v>
+        <v>-1.0015075425136839</v>
       </c>
       <c r="I54" s="7">
-        <v>2.2354622061087338E-2</v>
+        <v>2.2354622061100993E-2</v>
       </c>
       <c r="J54" s="7">
-        <v>-3.0314905528341356</v>
+        <v>-3.0314905528341409</v>
       </c>
       <c r="K54" s="7">
-        <v>4.1376716193342311</v>
+        <v>4.1376716193342178</v>
       </c>
       <c r="L54" s="7">
-        <v>4.0232783705140731</v>
+        <v>4.0232783705140829</v>
       </c>
       <c r="M54" s="7">
-        <v>1.2389466524147348</v>
+        <v>1.2389466524147295</v>
       </c>
       <c r="N54" s="7">
         <v>2.816427073109709</v>
       </c>
       <c r="O54" s="7">
-        <v>1.4011007290666513</v>
+        <v>1.4011007290666633</v>
       </c>
       <c r="P54" s="7">
-        <v>-2.4802327316127202</v>
+        <v>-2.480232731612718</v>
       </c>
       <c r="Q54" s="7">
-        <v>3.8940346499016223</v>
+        <v>3.894034649901621</v>
       </c>
       <c r="R54" s="7">
-        <v>1.3878880330922005</v>
+        <v>1.3878880330921899</v>
       </c>
       <c r="S54" s="7">
-        <v>1.4754820626751786</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.4754820626751781</v>
+      </c>
+      <c r="T54" s="7">
+        <v>3.7585573870807458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="7">
-        <v>-2.3067892780277877</v>
+        <v>-2.3067892780277903</v>
       </c>
       <c r="C55" s="7">
-        <v>3.4307445142659403</v>
+        <v>3.4307445142659501</v>
       </c>
       <c r="D55" s="7">
-        <v>0.32596343627263985</v>
+        <v>0.32596343627265334</v>
       </c>
       <c r="E55" s="7">
-        <v>1.2202941727746908</v>
+        <v>1.2202941727746854</v>
       </c>
       <c r="F55" s="7">
-        <v>1.3308365544451299</v>
+        <v>1.330836554445129</v>
       </c>
       <c r="G55" s="7">
-        <v>-5.5760912308297295</v>
+        <v>-5.5760912308297179</v>
       </c>
       <c r="H55" s="7">
-        <v>-4.0796860251378506</v>
+        <v>-4.0796860251378524</v>
       </c>
       <c r="I55" s="7">
-        <v>-2.598288599107256</v>
+        <v>-2.5982885991072537</v>
       </c>
       <c r="J55" s="7">
-        <v>-4.1248727653645023</v>
+        <v>-4.1248727653645103</v>
       </c>
       <c r="K55" s="7">
-        <v>3.8053889721805794</v>
+        <v>3.8053889721805643</v>
       </c>
       <c r="L55" s="7">
-        <v>5.4889733682760466</v>
+        <v>5.488973368276036</v>
       </c>
       <c r="M55" s="7">
-        <v>1.1446868120872726</v>
+        <v>1.1446868120872558</v>
       </c>
       <c r="N55" s="7">
-        <v>1.6646567096488387</v>
+        <v>1.6646567096488465</v>
       </c>
       <c r="O55" s="7">
-        <v>0.78533243733890201</v>
+        <v>0.78533243733889502</v>
       </c>
       <c r="P55" s="7">
-        <v>0.27789233881260567</v>
+        <v>0.27789233881261249</v>
       </c>
       <c r="Q55" s="7">
-        <v>0.77559257647103108</v>
+        <v>0.77559257647104796</v>
       </c>
       <c r="R55" s="7">
-        <v>1.4853191661935128</v>
+        <v>1.4853191661935232</v>
       </c>
       <c r="S55" s="7">
-        <v>-0.4786736460800568</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.47867364608004198</v>
+      </c>
+      <c r="T55" s="7">
+        <v>-2.1014286973296366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="7">
-        <v>-1.9461882498504193</v>
+        <v>-1.9461882498504179</v>
       </c>
       <c r="C56" s="7">
-        <v>-3.3727560292547287</v>
+        <v>-3.3727560292547256</v>
       </c>
       <c r="D56" s="7">
-        <v>-3.2130698414616972</v>
+        <v>-3.2130698414616892</v>
       </c>
       <c r="E56" s="7">
-        <v>-0.6774580951110275</v>
+        <v>-0.67745809511101573</v>
       </c>
       <c r="F56" s="7">
-        <v>-0.27098589218485558</v>
+        <v>-0.27098589218484226</v>
       </c>
       <c r="G56" s="7">
-        <v>-3.3122041743989756</v>
+        <v>-3.3122041743989712</v>
       </c>
       <c r="H56" s="7">
-        <v>-2.5090538234192241</v>
+        <v>-2.5090538234192361</v>
       </c>
       <c r="I56" s="7">
-        <v>-3.1075927782313371</v>
+        <v>-3.1075927782313575</v>
       </c>
       <c r="J56" s="7">
-        <v>-1.3233494430731585</v>
+        <v>-1.3233494430731552</v>
       </c>
       <c r="K56" s="7">
-        <v>0.95534876699625637</v>
+        <v>0.95534876699624405</v>
       </c>
       <c r="L56" s="7">
-        <v>0.42698092462721221</v>
+        <v>0.42698092462720239</v>
       </c>
       <c r="M56" s="7">
-        <v>-1.1551260719314043</v>
+        <v>-1.1551260719313854</v>
       </c>
       <c r="N56" s="7">
-        <v>-0.31740693250372909</v>
+        <v>-0.31740693250374191</v>
       </c>
       <c r="O56" s="7">
-        <v>0.85125017356105981</v>
+        <v>0.85125017356105104</v>
       </c>
       <c r="P56" s="7">
-        <v>0.77273838500865943</v>
+        <v>0.77273838500866709</v>
       </c>
       <c r="Q56" s="7">
-        <v>3.804775932580152</v>
+        <v>3.8047759325801418</v>
       </c>
       <c r="R56" s="7">
-        <v>1.6121209565180785</v>
+        <v>1.6121209565180807</v>
       </c>
       <c r="S56" s="7">
-        <v>2.4665339320511688</v>
+        <v>2.4665339320511772</v>
+      </c>
+      <c r="T56" s="7">
+        <v>1.9850645515146317</v>
       </c>
     </row>
   </sheetData>
